--- a/tables/23-sediment_biogeochemistry/UserManual.xlsx
+++ b/tables/23-sediment_biogeochemistry/UserManual.xlsx
@@ -8,15 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00074264\AED Dropbox\AED_Coorong_db\5_reporting\CDM Manual\DanDrafts\aed-science\tables\23-sediment_biogeochemistry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE40A44-7D72-4171-98E8-B89DC5A75382}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65ABB5DA-6D8C-4483-95C0-A5A8FA15958F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31320" yWindow="-2970" windowWidth="26400" windowHeight="16440" xr2:uid="{24890297-503A-4F29-AEBF-DF10B16371ED}"/>
+    <workbookView xWindow="31485" yWindow="-2970" windowWidth="26235" windowHeight="16440" firstSheet="1" activeTab="6" xr2:uid="{24890297-503A-4F29-AEBF-DF10B16371ED}"/>
   </bookViews>
   <sheets>
     <sheet name="BoundaryInitial" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="OMModel" sheetId="6" r:id="rId4"/>
+    <sheet name="OMChem" sheetId="7" r:id="rId5"/>
+    <sheet name="SecondChem" sheetId="8" r:id="rId6"/>
+    <sheet name="OMApproach" sheetId="9" r:id="rId7"/>
+    <sheet name="Sheet9" sheetId="10" r:id="rId8"/>
+    <sheet name="OMApproach (2)" sheetId="11" r:id="rId9"/>
+    <sheet name="Test" sheetId="12" r:id="rId10"/>
   </sheets>
+  <definedNames>
+    <definedName name="_Ref386302068" localSheetId="3">OMModel!#REF!</definedName>
+    <definedName name="_Ref386302070" localSheetId="3">OMModel!#REF!</definedName>
+    <definedName name="_Ref386302074" localSheetId="3">OMModel!#REF!</definedName>
+    <definedName name="_Ref386302075" localSheetId="3">OMModel!#REF!</definedName>
+    <definedName name="_Ref386302076" localSheetId="3">OMModel!$G$11</definedName>
+    <definedName name="_Ref386302078" localSheetId="3">OMModel!$G$12</definedName>
+    <definedName name="OLE_LINK1" localSheetId="3">OMModel!$D$8</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="154">
   <si>
     <t>Same for all zones</t>
   </si>
@@ -149,12 +165,4558 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Reaction</t>
+  </si>
+  <si>
+    <t>Rate equation</t>
+  </si>
+  <si>
+    <t>OMModel 1</t>
+  </si>
+  <si>
+    <r>
+      <t>POM</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Lab </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>hydrolysis</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>POM</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ref</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> hydrolysis</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DOM</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> oxidation </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DOM</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ref</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> oxidation</t>
+    </r>
+  </si>
+  <si>
+    <t>OMModel 3</t>
+  </si>
+  <si>
+    <r>
+      <t>POM</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>hydrolysis</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Hyd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> fermentation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Hyd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> oxidation </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>OAc, H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> oxidation</t>
+    </r>
+  </si>
+  <si>
+    <t>OMModel 4</t>
+  </si>
+  <si>
+    <t>OMModel2</t>
+  </si>
+  <si>
+    <r>
+      <t>POM~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Lab~ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>oxidation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>POM~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ref~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> oxidation</t>
+    </r>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POM~Ref~ $\rightarrow$ CO~2~ etc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">POM~Lab~ $\rightarrow$ CO~2~ etc. </t>
+  </si>
+  <si>
+    <t>POM~Lab~ $\rightarrow$ DOM~Lab~</t>
+  </si>
+  <si>
+    <t>POMRef $\rightarrow$ DOM~Ref~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOMLab $\rightarrow$ CO~2~ etc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOMRef $\rightarrow$ CO~2~ etc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHyd $\rightarrow$ CO~2~ etc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OAc, H2 $\rightarrow$ CO~2~ etc. </t>
+  </si>
+  <si>
+    <t>POMi $\rightarrow$ D~Hyd~</t>
+  </si>
+  <si>
+    <t>DHyd $\rightarrow$ OAc + H~2~</t>
+  </si>
+  <si>
+    <t>*k~DOMLab~∑R~Oxi~*</t>
+  </si>
+  <si>
+    <t>*k~DOMRef~∑R~Oxi~*</t>
+  </si>
+  <si>
+    <t>*k~Hydrolysis~(POM~Lab~)*</t>
+  </si>
+  <si>
+    <t>*k~Hydrolysis~(POM~Ref~)*</t>
+  </si>
+  <si>
+    <t>*k~Hydrolysis~(POM~Lab~)F~BHyd~*</t>
+  </si>
+  <si>
+    <t>*k~growth~B~Fer~F~T~ ~Fer~F~DHyd~*</t>
+  </si>
+  <si>
+    <t>*k~growth~B~Aer,Den~F~T~ ~j~ F~DHyd~*</t>
+  </si>
+  <si>
+    <t>*k~growth~B~j~F~T~ ~j~ F~TEA~ ~j~F~OAc,H2~ F~In~ ~j~*</t>
+  </si>
+  <si>
+    <t>Equation number</t>
+  </si>
+  <si>
+    <t>#eq:OMMod-6</t>
+  </si>
+  <si>
+    <t>#eq:OMMod-9</t>
+  </si>
+  <si>
+    <t>(#eq:OMMod-2)</t>
+  </si>
+  <si>
+    <t>(\#eq:OMMod-3)</t>
+  </si>
+  <si>
+    <t>(\\#eq:OMMod-4)</t>
+  </si>
+  <si>
+    <t>(#equation:OMMod-5)</t>
+  </si>
+  <si>
+    <t>(#equation:OMMod-1)</t>
+  </si>
+  <si>
+    <t>(#:OMMod-10)</t>
+  </si>
+  <si>
+    <t>$#eq:OMMod-7$</t>
+  </si>
+  <si>
+    <t>\(#eq:OMMod-8)</t>
+  </si>
+  <si>
+    <t>POM oxidation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POM $\rightarrow$ CO~2~ etc. </t>
+  </si>
+  <si>
+    <t>*R~0~ e^(-$\beta$^ ^$\times$^ ^depth)^*</t>
+  </si>
+  <si>
+    <t>Aerobic respiration</t>
+  </si>
+  <si>
+    <t>Mn oxide reduction</t>
+  </si>
+  <si>
+    <t>Fe oxide reduction</t>
+  </si>
+  <si>
+    <t>Sulfate reduction</t>
+  </si>
+  <si>
+    <t>Methanogenesis</t>
+  </si>
+  <si>
+    <t>Denitrousation</t>
+  </si>
+  <si>
+    <t>Nitrous denitritation and DNRA</t>
+  </si>
+  <si>
+    <r>
+      <t>*(CH~2~O)~x~(NH~3~)~y~(PO~4~)~z~* + x *O~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2~* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+ (-y + 2z) *HCO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3~^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> $\rightarrow$ (x – y + 2z) *CO~2~* + y *NH~4~^+^* + z *HPO~4~^2-^* + (x + 2y + 2z) *H~2~O*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*(CH~2~O)~x~(NH~3~)~y~(PO~4~)~z~* + 2x *MnO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + (3x + y – 2z) *CO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> +(x + y – 2z) *H~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>O* $\rightarrow$  2x *Mn^2+^* + (4x + y – 2z) *HCO~3~^-^* + y *NH~4~^+^* +z *HPO~4~^2-^*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*(CH~2~O)~x~(NH~3~)~y~(PO~4~)~z~* + 4x *Fe(OH)~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3~*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + (7x + y – 2z) *CO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + (x – 2z) *H~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>O* $\rightarrow$  4x *Fe^2+^* + (8x + y – 2z) *HCO~3~^-^* + y *NH~4~^+^* + z *HPO~4~^2-^* + (3x + y - 2z) *H~2~O*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*(CH~2~O)~x~(NH~3~)~y~(PO~4~)~z~* + 0.5x *SO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4~^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2-^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + (y – 2z) *CO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + (y – 2z) *H~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>O* $\rightarrow$  0.5x *H~2~S* + (x + y – 2z) *HCO~3~^-^* + y *NH~4~^+^* + z *HPO~4~^2-^*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*(CH~2~O)~x~(NH~3~)~y~(PO~4~)~z~* + (y – 2z) *H~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>O* $\rightarrow$ 0.5x *CH~4~* + (0.5x – y + 2z) *CO~2~* + (y – 2z) *HCO^3-^* + y *NH^4+^* + z *HPO~4~^2-^ *</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">*(CH~2~O)~x~(NH~3~)~y~(PO~4~)~z~* + 0.8x *NO~2~^-^* $\rightarrow$ partitioning 0.4x *N~2~O* + (1-partitioning) (0.4x+y) *NH~4~^+^ *  (0.2x-y+2z) *CO~2~* + (0.8x + y - 2z) *HCO~3~^-^* +z *HPO~4~^2-^* + (0.6x - y +2z) *H~2~O* </t>
+  </si>
+  <si>
+    <t>*(CH~2~O)~x~(NH~3~)~y~(PO~4~)~z~* + 2*N~2~O* $\rightarrow$ 2*N~2~* + *HCO~3~^-^* + y*NH~4~^+^* + z *HPO~4~^3-^*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reaction </t>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>HSO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>HSO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)(SO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>SHO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>SHO</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(S)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*NH~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4~^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> oxidation by *O~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*Fe^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2+^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> oxidation by *O~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*Mn^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2+^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> oxidation by *O~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*H~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>S* oxidation by *O~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*CH~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4~*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> oxidation by *O~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*FeS* oxidation by *O~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*FeS~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> oxidation by *O~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*NH~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4~^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> oxidation by *NO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-^*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*Mn^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2+^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> oxidation by *NO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3~^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-^*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*Fe^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2+^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> oxidation by *NO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3~^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-^*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∑*H~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>S* oxidation by *NO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3~^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-^*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*CH~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4~*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> oxidation by *SO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4~^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2-^*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*H~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> oxidation by *SO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4~^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2-^*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*S^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> oxidation by *H~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>O*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*Fe^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2+^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> oxidation by *MnO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2A,~ ~B~*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∑*H~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>S* oxidation by *MnO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2A,~ ~B~*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∑*H~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>S* oxidation by *Fe(OH)~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3A,~ ~B~*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*FeS* oxidation by *Fe(OH)~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3A,~ ~B~*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*NH~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4~^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + 2*O~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>* + 2*HCO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3~^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-^* $</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>\rightarrow$ *NO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3~^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + 2*CO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + 3*H~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>O*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*Mn^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2+^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + *kX* + 0.5*O~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + 2*HCO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3~^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> $\rightarrow$ *MnO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2A~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-X~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>k~*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + 2*CO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2~* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+ *H~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>O*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4*Fe^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2+^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + *O~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + 4*CO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~*</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+ 2*H~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>O* $\rightarrow$ 4*Fe^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3+^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + 4*HCO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3~^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*H~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>S* + 2*O~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + 2*HCO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3~^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-^* $\rightarrow$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  *SO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4~^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2-^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + 2*CO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + 2*H~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>O*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*CH~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4~*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + *O~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> $\rightarrow$ CO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + *H~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>O*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*FeS-X~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>m~*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + 2*O~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> $\rightarrow$ *SO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4~^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2-^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + *Fe^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2+^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + *mX*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*FeS~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-X~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>m~*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + 3.5*O~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + 2*HCO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3~^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> $\rightarrow$ *Fe^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2+^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + *mX* + 2*SO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4~^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2-^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + 2*CO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + *H~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>O*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*NH~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4~^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + *NO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> $\rightarrow$ *N~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + 2*H~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>O*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5*Mn^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2+^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + 2*NO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3~^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + 8*HCO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3~^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + *kX*  $\rightarrow$ 5*MnO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2A~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-X~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>k~*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + 8*CO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2~* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+4*H~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>O* + *N~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5*Fe^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2+^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + *NO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3~^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + 6*CO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + 3*H~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>O*  $\rightarrow$ 0.5*N~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + 5*Fe^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3+^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + 6*HCO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3~^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-^*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.5*H~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>S* + 4*NO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3~^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + *HCO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3~^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> $\rightarrow$ 2.5*SO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4~^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2-^* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+ 2*N~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + *CO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + 3*H~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>O*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2*Fe^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2+^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + 2l*X* + (*MnO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2A~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-X~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>k~*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + *MnO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2B~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-X~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>k~*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) + 2*HCO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3~^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + 2*H~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>O* $\rightarrow$ 2*Fe(OH)~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3A~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-X~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>l~*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + *Mn^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2+^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + *kX* + 2*CO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*H~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>S* + 4(*MnO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2A~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-X~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>k~*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + *MnO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2B~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-X~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>k~*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) + 6*CO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + 2*H~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>O*  $\rightarrow$ *SO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4~^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2-^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + 4*Mn^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2+^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + 4*kX* + 6*HCO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3~^-^*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*FeS-X~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>m~*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + 4(*MnO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2A~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-X~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>k~*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + *MnO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2B~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-X~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>k~*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) + 8*CO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + 4*H~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>O*  $\rightarrow$ *SO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4~^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2-^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + 4*Mn^2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+ *Fe^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2+^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + (*m* + *4k*) *X* + 8*HCO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3~^-^*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*H~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>S* + 8(*Fe(OH)~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3A~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-X~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>l~*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + *Fe(OH)~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3B~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-X~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>l~*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) + 14*CO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> $\rightarrow$ *SO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4~^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2-^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + 8*Fe^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2+^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+ 8l*X* + 14*HCO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3~^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + 6*H~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>O*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*FeS-X~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>m~*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + 8(*Fe(OH)~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3A~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-X~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>l~*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + *Fe(OH)~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3B~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-X~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>l~*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) + 16*CO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> $\rightarrow$ *SO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4~^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2-^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + 9*Fe^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2+^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + (*m* + 8l)*X* + 16*HCO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3~^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + 4*H~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>O*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*CH~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4~*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + *SO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4~^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2-^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + *CO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2~* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>$\rightarrow$ *H~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>S* + 2*HCO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3~^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-^*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5*H~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + *SO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4~^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2-^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> $\rightarrow$ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>H~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>S* + *4H~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>O*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*FeS* oxidation by *MnO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2A,~ ~B~*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4*S* + 4*H~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>O* $\rightarrow$ *SO~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4~^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2-^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + 3*HS^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>* + 5*H^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+^*</t>
+    </r>
+  </si>
+  <si>
+    <t>Approach</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Limitation factor - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>TEA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Inhibition factor - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>In</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">\(\displaystyle
+\
+\frac {TEA}{TEA + K_{TEA} }\)
+\
+\
+</t>
+  </si>
+  <si>
+    <t>\(\displaystyle
+\
+\frac {K_{In}} {TEA + K_{In} }\)
+\
+\</t>
+  </si>
+  <si>
+    <t>\(\displaystyle
+\
+\frac {K_{In}}{TEA+K_{In} } \)
+\
+\</t>
+  </si>
+  <si>
+    <t>\(\displaystyle
+\
+\frac {TEA}{TEA+K_{TEA} } / \Sigma Lim \)
+\
+\</t>
+  </si>
+  <si>
+    <t>\
+\(\displaystyle 
+\
+0, \frac {TEA}{K_{TEA} } or  1  \)
+\
+\</t>
+  </si>
+  <si>
+    <t>\
+\(\displaystyle
+\
+1 -  \frac {TEA}{K_{In} } \)
+\
+\</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\
+\(\displaystyle
+\
+\frac {TEA}{TEA + K_{TEA} }\)
+\
+\
+</t>
+  </si>
+  <si>
+    <t>\
+\(\displaystyle
+\
+\frac {K_{In}} {TEA + K_{In} }\)
+\
+\</t>
+  </si>
+  <si>
+    <t>\
+\(\displaystyle
+\
+\frac {TEA}{TEA+K_{TEA} } / \Sigma Lim \)
+\
+\</t>
+  </si>
+  <si>
+    <t>\
+\(\displaystyle
+\
+\frac {K_{In}}{TEA+K_{In} } \)
+\
+\</t>
+  </si>
+  <si>
+    <t>\
+\(\displaystyle
+\
+\Sigma Lim = F_{TEA O_{2}} 
+\\
++ F_{TEA NO_{3}^-} F_{In O_{2}NO_{3}^-} 
+\\
++ F_{In NO_{3}^- Anox} F_{In O_{2} Anox}  \)
+\
+\</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,16 +4732,143 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="subscript"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -213,11 +4902,125 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -234,6 +5037,125 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -249,6 +5171,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1400175</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>427888</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>190192</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A54D502D-899C-4930-94F4-3444382FBB6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2009775" y="4181475"/>
+          <a:ext cx="5895238" cy="2466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -550,7 +5521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9396599F-7F7E-455C-81A4-87A816F58BD2}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -751,6 +5722,101 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1EE45D8-67C5-4E51-A390-600014CFF6F8}">
+  <dimension ref="B1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="47" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="117" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="42">
+        <v>1</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="99.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="42">
+        <v>2</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="46">
+        <v>3</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -853,10 +5919,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99799E3-434F-4902-B682-16D6015C013E}">
-  <dimension ref="B2"/>
+  <dimension ref="B2:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="L27" sqref="L27:L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,7 +5932,806 @@
         <v>16</v>
       </c>
     </row>
+    <row r="27" spans="12:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="L27" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L28" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L29" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L30" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L31" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L32" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L33" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L34" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L35" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L36" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L37" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A80968-B596-4B67-9F88-6B9A75E4BB09}">
+  <dimension ref="B2:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="2:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="2:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="2:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="2:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="B13" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E3E1E6-949D-48DF-9509-10572FC91166}">
+  <dimension ref="A2:E26"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="145.42578125" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" style="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="34"/>
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="31"/>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="32"/>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="32"/>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="32"/>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="32"/>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="25"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="25"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="25"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="25"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="25"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEF5F1D-5D87-4D91-925C-5537E51FFCCB}">
+  <dimension ref="B2:D21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="74.140625" customWidth="1"/>
+    <col min="4" max="4" width="71.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="36"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="37"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="36"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="36"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="36"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="36"/>
+    </row>
+    <row r="9" spans="2:4" ht="27.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="36"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="36"/>
+    </row>
+    <row r="11" spans="2:4" ht="27.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="36"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="36"/>
+    </row>
+    <row r="13" spans="2:4" ht="27.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="36"/>
+    </row>
+    <row r="14" spans="2:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="36"/>
+    </row>
+    <row r="15" spans="2:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="36"/>
+    </row>
+    <row r="16" spans="2:4" ht="27.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="36"/>
+    </row>
+    <row r="17" spans="2:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="36"/>
+    </row>
+    <row r="18" spans="2:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="36"/>
+    </row>
+    <row r="19" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="38"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB823B2-7167-4378-A45D-8972DC675CE8}">
+  <dimension ref="B1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.42578125" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="120.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="42">
+        <v>1</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="114.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="42">
+        <v>2</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="42">
+        <v>3</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="145.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="49"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A72CCB72-B98E-4A77-A95C-BEEC16023647}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32542531-B1D0-45E8-A2E2-27735870BFCC}">
+  <dimension ref="B2:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="34"/>
+    <col min="2" max="2" width="8.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.42578125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" style="34" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="34"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="24" x14ac:dyDescent="0.25">
+      <c r="B2" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/tables/23-sediment_biogeochemistry/UserManual.xlsx
+++ b/tables/23-sediment_biogeochemistry/UserManual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00074264\AED Dropbox\AED_Coorong_db\5_reporting\CDM Manual\DanDrafts\aed-science\tables\23-sediment_biogeochemistry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65ABB5DA-6D8C-4483-95C0-A5A8FA15958F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5829FD0-BB85-45F8-BC2D-EDCAB0B1352F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31485" yWindow="-2970" windowWidth="26235" windowHeight="16440" firstSheet="1" activeTab="6" xr2:uid="{24890297-503A-4F29-AEBF-DF10B16371ED}"/>
   </bookViews>
@@ -20,9 +20,7 @@
     <sheet name="OMChem" sheetId="7" r:id="rId5"/>
     <sheet name="SecondChem" sheetId="8" r:id="rId6"/>
     <sheet name="OMApproach" sheetId="9" r:id="rId7"/>
-    <sheet name="Sheet9" sheetId="10" r:id="rId8"/>
-    <sheet name="OMApproach (2)" sheetId="11" r:id="rId9"/>
-    <sheet name="Test" sheetId="12" r:id="rId10"/>
+    <sheet name="NRates" sheetId="13" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_Ref386302068" localSheetId="3">OMModel!#REF!</definedName>
@@ -51,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="163">
   <si>
     <t>Same for all zones</t>
   </si>
@@ -4617,35 +4615,6 @@
       </rPr>
       <t>In</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">\(\displaystyle
-\
-\frac {TEA}{TEA + K_{TEA} }\)
-\
-\
-</t>
-  </si>
-  <si>
-    <t>\(\displaystyle
-\
-\frac {K_{In}} {TEA + K_{In} }\)
-\
-\</t>
-  </si>
-  <si>
-    <t>\(\displaystyle
-\
-\frac {K_{In}}{TEA+K_{In} } \)
-\
-\</t>
-  </si>
-  <si>
-    <t>\(\displaystyle
-\
-\frac {TEA}{TEA+K_{TEA} } / \Sigma Lim \)
-\
-\</t>
   </si>
   <si>
     <t>\
@@ -4711,12 +4680,85 @@
 \
 \</t>
   </si>
+  <si>
+    <t>Denitratation</t>
+  </si>
+  <si>
+    <t>Nitrous denitritation</t>
+  </si>
+  <si>
+    <t>DNRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denitrousation </t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>\
+\(\displaystyle
+\
+\ R_{Denitratation} = k_{OM} OM \frac {NO_3^-} {NO_3^- + K_{NO3} } \frac {K_{O2}^1} {O_2 + K_{O2}^1} \frac {K_{N2O}} {N_2O + K_{N2O}}   \)
+\
+\</t>
+  </si>
+  <si>
+    <t>Denitritation</t>
+  </si>
+  <si>
+    <t>\
+\(\displaystyle
+\
+\ R_{Denitritation} = k_{OM} OM \frac {K_{O2}^3} {O_2 + K_{O2}^3 } \frac {K_{N2O}} {N_2O + K_{NO2} }    \)
+\
+\</t>
+  </si>
+  <si>
+    <t>\
+\(\displaystyle
+\
+\ R_{Nitrous denitritation} = \frac {1} {2} R_{Denitritation} \frac {NO_2^- } {NO_2^- + K_{NO2} }    \)
+\
+\</t>
+  </si>
+  <si>
+    <t>\
+\(\displaystyle
+\
+\ R_{DNRA} = R_{Denitritation} \frac {K_{NO2} } {NO_2^- + K_{NO2} }    \)
+\
+\</t>
+  </si>
+  <si>
+    <t>\
+\(\displaystyle
+\
+\ R_{Denitrousation} = k_{OM} OM  \frac {K_{N2O} } {K_{N2O}^6 +O_2 }    \)
+\
+\</t>
+  </si>
+  <si>
+    <t>Ammonium release</t>
+  </si>
+  <si>
+    <t>\
+\(\displaystyle
+\
+\ R_{Ammonium release} = k_{OM} OM \times
+\\
+(R_{Denitratation} +  R_{Denitritation} +  R_{Denitrousation}) \times 
+\\
+ \frac {N } {C }    \)
+\
+\</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4853,8 +4895,16 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4867,8 +4917,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -4990,17 +5046,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -5141,20 +5186,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5725,101 +5768,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1EE45D8-67C5-4E51-A390-600014CFF6F8}">
-  <dimension ref="B1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="47" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="117" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="42">
-        <v>1</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="99.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="42">
-        <v>2</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="46">
-        <v>3</v>
-      </c>
-      <c r="C5" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBA0FB1-7A19-4ECF-8FF5-02D3A0E6D618}">
   <dimension ref="A1:C9"/>
@@ -5922,15 +5870,35 @@
   <dimension ref="B2:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L27" sqref="L27:L37"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>16</v>
       </c>
+    </row>
+    <row r="8" spans="2:4" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="42">
+        <v>3</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="145.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="46"/>
     </row>
     <row r="27" spans="12:12" ht="24" x14ac:dyDescent="0.25">
       <c r="L27" s="9" t="s">
@@ -6570,10 +6538,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB823B2-7167-4378-A45D-8972DC675CE8}">
-  <dimension ref="B1:D6"/>
+  <dimension ref="B1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6600,10 +6568,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="114.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6611,31 +6579,11 @@
         <v>2</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="42">
-        <v>3</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="145.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" s="49"/>
+        <v>143</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6644,90 +6592,73 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A72CCB72-B98E-4A77-A95C-BEEC16023647}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404188C7-A26D-4F82-A2ED-9697F94CBCFE}">
+  <dimension ref="B1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32542531-B1D0-45E8-A2E2-27735870BFCC}">
-  <dimension ref="B2:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="34"/>
-    <col min="2" max="2" width="8.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.42578125" style="34" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" style="34" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="34"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="114" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="9" t="s">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>48</v>
+    </row>
+    <row r="2" spans="2:3" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/tables/23-sediment_biogeochemistry/UserManual.xlsx
+++ b/tables/23-sediment_biogeochemistry/UserManual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00074264\AED Dropbox\AED_Coorong_db\5_reporting\CDM Manual\DanDrafts\aed-science\tables\23-sediment_biogeochemistry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995E9658-93C7-4216-835B-EA1BAE392B5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B894CFD9-59EA-4D56-9A23-DB5F17980ECD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31485" yWindow="-2970" windowWidth="26235" windowHeight="16440" firstSheet="4" activeTab="6" xr2:uid="{24890297-503A-4F29-AEBF-DF10B16371ED}"/>
+    <workbookView xWindow="60135" yWindow="-1335" windowWidth="26385" windowHeight="16440" firstSheet="5" activeTab="15" xr2:uid="{24890297-503A-4F29-AEBF-DF10B16371ED}"/>
   </bookViews>
   <sheets>
     <sheet name="BoundaryInitial" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,8 @@
     <sheet name="CO3" sheetId="18" r:id="rId13"/>
     <sheet name="rxn_mode" sheetId="19" r:id="rId14"/>
     <sheet name="ads" sheetId="21" r:id="rId15"/>
+    <sheet name="MAG" sheetId="22" r:id="rId16"/>
+    <sheet name="MPBG" sheetId="23" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_Ref386302068" localSheetId="3">OMModel!#REF!</definedName>
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="316">
   <si>
     <t>Same for all zones</t>
   </si>
@@ -5160,26 +5162,134 @@
     <t xml:space="preserve">Rate equation </t>
   </si>
   <si>
+    <t>Module level</t>
+  </si>
+  <si>
+    <t>Zone-specific</t>
+  </si>
+  <si>
+    <t>CANDI variable</t>
+  </si>
+  <si>
+    <t>Root depth</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>Not linked</t>
+  </si>
+  <si>
+    <t>Linking variable or parameter</t>
+  </si>
+  <si>
+    <t>&gt; 0</t>
+  </si>
+  <si>
+    <t>*root*</t>
+  </si>
+  <si>
+    <t>*rtdp*</t>
+  </si>
+  <si>
+    <t>*rto2*</t>
+  </si>
+  <si>
+    <t>*id_rootb*</t>
+  </si>
+  <si>
+    <t>*id_rootd*</t>
+  </si>
+  <si>
+    <t>*id_rooto*</t>
+  </si>
+  <si>
+    <t>Linked</t>
+  </si>
+  <si>
+    <t>id_mpbg</t>
+  </si>
+  <si>
+    <t>*mpbg*</t>
+  </si>
+  <si>
+    <t>*id_mpbg*</t>
+  </si>
+  <si>
+    <t>*mpbr*</t>
+  </si>
+  <si>
+    <t>*id_mpbr*</t>
+  </si>
+  <si>
+    <t>= 0</t>
+  </si>
+  <si>
+    <t>Switch, from mpb_link_variable_gpp</t>
+  </si>
+  <si>
+    <t>*lght*</t>
+  </si>
+  <si>
+    <t>*rootslight*</t>
+  </si>
+  <si>
+    <t>*id_par*</t>
+  </si>
+  <si>
+    <t>parameter `rootslight`</t>
+  </si>
+  <si>
+    <t>parameter `rootsdepth`</t>
+  </si>
+  <si>
+    <t>Root density (not used)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Light variable from linked model </t>
+  </si>
+  <si>
+    <t>Light extinction coefficient for root O~2~ excretion</t>
+  </si>
+  <si>
+    <t>Root O~2~ excretion rate parameter, used in equation</t>
+  </si>
+  <si>
     <t>\
+\(\displaystyle
+\
+RTO2  = photoo2rate \times (1 - e^{ \frac {-lght} {rootslight} } )
+\
+\)
+\
+&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\
 \(\displaystyle
 \
 \begin{align}
 \ R_{Ammonium release} = k_{OM} OM \times
 \\
-(R_{Denitratation} +  R_{Denitritation} +  R_{Denitrousation}) $\times$
-\\
+(R_{Denitratation} +  R_{Denitritation} +  R_{Denitrousation}) \times
+\
  \frac {N } {C }   
 \end{align}
 \)
-\
-\</t>
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linked: *id_mag* &gt; 0 </t>
+  </si>
+  <si>
+    <t>Not linked: *id_mag* = 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5323,8 +5433,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5358,6 +5474,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF006699"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5492,7 +5614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5693,6 +5815,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6059,7 +6187,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6074,10 +6202,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -6443,7 +6571,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6568,7 +6696,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="55"/>
       <c r="C11" s="56"/>
       <c r="D11" s="55"/>
@@ -6590,7 +6718,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="55"/>
       <c r="C13" s="56"/>
       <c r="D13" s="55"/>
@@ -6599,7 +6727,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E14" s="55" t="s">
         <v>189</v>
       </c>
@@ -6852,7 +6980,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7209,27 +7337,27 @@
         <v>1</v>
       </c>
       <c r="C6" s="60" t="str">
-        <f>C3</f>
+        <f t="shared" ref="C6:H6" si="0">C3</f>
         <v>No precipitation</v>
       </c>
       <c r="D6" s="60" t="str">
-        <f>D3</f>
+        <f t="shared" si="0"/>
         <v>No precipitation</v>
       </c>
       <c r="E6" s="60" t="str">
-        <f>E3</f>
+        <f t="shared" si="0"/>
         <v>No precipitation</v>
       </c>
       <c r="F6" s="60" t="str">
-        <f>F3</f>
+        <f t="shared" si="0"/>
         <v>No precipitation</v>
       </c>
       <c r="G6" s="60" t="str">
-        <f>G3</f>
+        <f t="shared" si="0"/>
         <v>No precipitation</v>
       </c>
       <c r="H6" s="60" t="str">
-        <f>H3</f>
+        <f t="shared" si="0"/>
         <v>No precipitation</v>
       </c>
       <c r="I6" s="59" t="s">
@@ -7322,15 +7450,15 @@
         <v>IAP precipitation / dissolution</v>
       </c>
       <c r="F11" s="60" t="str">
-        <f t="shared" ref="F11:H11" si="0">D11</f>
+        <f t="shared" ref="F11:H11" si="1">D11</f>
         <v>IAP precipitation / dissolution</v>
       </c>
       <c r="G11" s="60" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>IAP precipitation / dissolution</v>
       </c>
       <c r="H11" s="60" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>IAP precipitation / dissolution</v>
       </c>
       <c r="J11" s="64" t="s">
@@ -7366,11 +7494,11 @@
         <v>$\Omega$ precipitation / dissolution</v>
       </c>
       <c r="G13" s="60" t="str">
-        <f t="shared" ref="G13:H13" si="1">F13</f>
+        <f t="shared" ref="G13:H13" si="2">F13</f>
         <v>$\Omega$ precipitation / dissolution</v>
       </c>
       <c r="H13" s="60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>$\Omega$ precipitation / dissolution</v>
       </c>
       <c r="I13" s="59" t="str">
@@ -7867,6 +7995,273 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747BAD0A-72B9-41AC-8108-F7D4CE328F54}">
+  <dimension ref="B2:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="62" customWidth="1"/>
+    <col min="4" max="4" width="42" customWidth="1"/>
+    <col min="5" max="5" width="41.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="79" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="79" t="s">
+        <v>287</v>
+      </c>
+      <c r="D2" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="79" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="53" t="s">
+        <v>289</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>308</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>284</v>
+      </c>
+      <c r="E4" s="53" t="str">
+        <f t="shared" ref="E4:E5" si="0">E3</f>
+        <v xml:space="preserve">Linked: *id_mag* &gt; 0 </v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="53" t="s">
+        <v>291</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>294</v>
+      </c>
+      <c r="D5" s="53" t="str">
+        <f>D8</f>
+        <v>Root O~2~ excretion rate parameter, used in equation</v>
+      </c>
+      <c r="E5" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Linked: *id_mag* &gt; 0 </v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="str">
+        <f>D3</f>
+        <v>Root density (not used)</v>
+      </c>
+      <c r="E6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D7" t="s">
+        <v>284</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" ref="E7:E10" si="1">E6</f>
+        <v>Not linked: *id_mag* = 0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>312</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>311</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>Not linked: *id_mag* = 0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>309</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>Not linked: *id_mag* = 0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C10" t="s">
+        <v>306</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>310</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>Not linked: *id_mag* = 0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="76"/>
+      <c r="G11" s="78"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F5F234-170D-4B45-A1EA-28BAE31F5675}">
+  <dimension ref="B2:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="46.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="B2" s="50" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>287</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C3" s="77" t="s">
+        <v>288</v>
+      </c>
+      <c r="D3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C4" t="s">
+        <v>298</v>
+      </c>
+      <c r="E4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C6" s="76" t="s">
+        <v>301</v>
+      </c>
+      <c r="D6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="42"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -8490,7 +8885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404188C7-A26D-4F82-A2ED-9697F94CBCFE}">
   <dimension ref="B1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -8548,12 +8943,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="195" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" ht="180" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>158</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/tables/23-sediment_biogeochemistry/UserManual.xlsx
+++ b/tables/23-sediment_biogeochemistry/UserManual.xlsx
@@ -8,37 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00074264\AED Dropbox\AED_Coorong_db\5_reporting\CDM Manual\DanDrafts\aed-science\tables\23-sediment_biogeochemistry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B894CFD9-59EA-4D56-9A23-DB5F17980ECD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B49BC4-6739-46FF-A77C-33A5FCEDF76C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60135" yWindow="-1335" windowWidth="26385" windowHeight="16440" firstSheet="5" activeTab="15" xr2:uid="{24890297-503A-4F29-AEBF-DF10B16371ED}"/>
+    <workbookView xWindow="60135" yWindow="-1335" windowWidth="26385" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{24890297-503A-4F29-AEBF-DF10B16371ED}"/>
   </bookViews>
   <sheets>
     <sheet name="BoundaryInitial" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="OMModel" sheetId="6" r:id="rId4"/>
-    <sheet name="OMApproach" sheetId="9" r:id="rId5"/>
-    <sheet name="OMChem" sheetId="7" r:id="rId6"/>
-    <sheet name="NRates" sheetId="13" r:id="rId7"/>
-    <sheet name="SecondChem" sheetId="8" r:id="rId8"/>
-    <sheet name="SecondRates" sheetId="14" r:id="rId9"/>
-    <sheet name="Geochem" sheetId="15" r:id="rId10"/>
-    <sheet name="MnOFeO" sheetId="16" r:id="rId11"/>
-    <sheet name="FeS" sheetId="17" r:id="rId12"/>
-    <sheet name="CO3" sheetId="18" r:id="rId13"/>
-    <sheet name="rxn_mode" sheetId="19" r:id="rId14"/>
-    <sheet name="ads" sheetId="21" r:id="rId15"/>
-    <sheet name="MAG" sheetId="22" r:id="rId16"/>
-    <sheet name="MPBG" sheetId="23" r:id="rId17"/>
+    <sheet name="Diffcoef2" sheetId="24" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="OMModel" sheetId="6" r:id="rId5"/>
+    <sheet name="OMApproach" sheetId="9" r:id="rId6"/>
+    <sheet name="OMChem" sheetId="7" r:id="rId7"/>
+    <sheet name="NRates" sheetId="13" r:id="rId8"/>
+    <sheet name="SecondChem" sheetId="8" r:id="rId9"/>
+    <sheet name="SecondRates" sheetId="14" r:id="rId10"/>
+    <sheet name="Geochem" sheetId="15" r:id="rId11"/>
+    <sheet name="MnOFeO" sheetId="16" r:id="rId12"/>
+    <sheet name="FeS" sheetId="17" r:id="rId13"/>
+    <sheet name="CO3" sheetId="18" r:id="rId14"/>
+    <sheet name="rxn_mode" sheetId="19" r:id="rId15"/>
+    <sheet name="ads" sheetId="21" r:id="rId16"/>
+    <sheet name="MAG" sheetId="22" r:id="rId17"/>
+    <sheet name="MPBG" sheetId="23" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="_Ref386302068" localSheetId="3">OMModel!#REF!</definedName>
-    <definedName name="_Ref386302070" localSheetId="3">OMModel!#REF!</definedName>
-    <definedName name="_Ref386302074" localSheetId="3">OMModel!#REF!</definedName>
-    <definedName name="_Ref386302075" localSheetId="3">OMModel!#REF!</definedName>
-    <definedName name="_Ref386302076" localSheetId="3">OMModel!$G$11</definedName>
-    <definedName name="_Ref386302078" localSheetId="3">OMModel!$G$12</definedName>
-    <definedName name="OLE_LINK1" localSheetId="3">OMModel!$D$8</definedName>
+    <definedName name="_Ref386302068" localSheetId="4">OMModel!#REF!</definedName>
+    <definedName name="_Ref386302070" localSheetId="4">OMModel!#REF!</definedName>
+    <definedName name="_Ref386302074" localSheetId="4">OMModel!#REF!</definedName>
+    <definedName name="_Ref386302075" localSheetId="4">OMModel!#REF!</definedName>
+    <definedName name="_Ref386302076" localSheetId="4">OMModel!$G$11</definedName>
+    <definedName name="_Ref386302078" localSheetId="4">OMModel!$G$12</definedName>
+    <definedName name="OLE_LINK1" localSheetId="4">OMModel!$D$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="421">
   <si>
     <t>Same for all zones</t>
   </si>
@@ -5284,12 +5285,327 @@
   <si>
     <t>Not linked: *id_mag* = 0</t>
   </si>
+  <si>
+    <t xml:space="preserve">D(1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> H2O</t>
+  </si>
+  <si>
+    <t>a×SQRT(tk)×EXP(-b/(tk-t0))×1.0E+04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D(2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O2</t>
+  </si>
+  <si>
+    <t>7.4×10^-8^(a/25.6^0.6^)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D(3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CO2</t>
+  </si>
+  <si>
+    <t>7.4×10^-8^(a/34.0^0.6^)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D(4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NH3</t>
+  </si>
+  <si>
+    <t>7.4×10^-8^(a/25.8^0.6^)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D(5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> H2S</t>
+  </si>
+  <si>
+    <t>7.4×10^-8^(a/32.9^0.6^)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D(6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> H3PO4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D(7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> B(OH)3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D(8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HCO3-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (5.06 + 0.275×*Temperature*)×10^-6^</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D(9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CO3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (4.33 + 0.199×*Temperature*)×10^-6^</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D(10) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NH4+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (9.5 + 0.413×*Temperature*)×10^-6^</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D(11) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HS-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (10.4 + 0.273×*Temperature*)×10^-6^</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D(12) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NO3-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (9.50 + 0.388×*Temperature*)×10^-6^</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D(13) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> H2PO4-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (4.02 + 0.223×*Temperature*)×10^-6^</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D(14) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HPO4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (3.26 + 0.177×*Temperature*)×10^-6^</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D(15) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PO4(---)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (2.62 + 0.143×*Temperature*)×10^-6^</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D(16) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> B(OH)4-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D(17) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> H+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (54.4 + 1.555×*Temperature*)×10^-6^</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D(18) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OH-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (25.9 + 1.094×*Temperature*)×10^-6^</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D(19) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ca++</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (3.60 + 0.179×*Temperature*)×10^-6^</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D(20) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mg++</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (3.43 + 0.144×*Temperature*)×10^-6^</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D(21) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fe++</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (3.31 + 0.150×*Temperature*)×10^-6^</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D(22) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mn++</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (3.18 + 0.155×*Temperature*)×10^-6^</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D(23) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SO4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (4.88 + 0.232×*Temperature*)×10^-6^</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D(24) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> H4SiO4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D(25) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CH4</t>
+  </si>
+  <si>
+    <t>7.4×10^-8^(a/37.7^0.6^)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D(26) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Na+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (6.06 + 0.297×*Temperature*)×10^-6^</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D(27) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cl-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (9.60 + 0.438×*Temperature*)×10^-6^</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D(28) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Br-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (10.0 + 0.441×*Temperature*)×10^-6^</t>
+  </si>
+  <si>
+    <t>Diffusivity</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>0.5 × (9.5 + 0.413×*Temperature*)×10^-6^ +</t>
+  </si>
+  <si>
+    <t>0.5 × (10.4 + 0.273×*Temperature*)×10^-6^) +</t>
+  </si>
+  <si>
+    <t>0.14 × ((2.62 + 0.143×*Temperature*)×10^-6^) +</t>
+  </si>
+  <si>
+    <t>0.01 × ( (4.02 + 0.223×*Temperature*)×10^-6^)</t>
+  </si>
+  <si>
+    <t>0.85 × ( (3.26 + 0.177×*Temperature*)×10^-6^) +</t>
+  </si>
+  <si>
+    <t>7.4×10^-8^(*a*/25.6^0.6^)</t>
+  </si>
+  <si>
+    <t>7.4×10^-8^(*a*/34.0^0.6^)</t>
+  </si>
+  <si>
+    <t>0.5 × (7.4×10^-8^(*a*/25.8^0.6^))</t>
+  </si>
+  <si>
+    <t>0.5 × (7.4×10^-8^(*a*/32.9^0.6^))</t>
+  </si>
+  <si>
+    <t>7.4×10^-8^(*a*/37.7^0.6^)</t>
+  </si>
+  <si>
+    <t>*O~2~*</t>
+  </si>
+  <si>
+    <t>*CO~2~*</t>
+  </si>
+  <si>
+    <t>*DIC*</t>
+  </si>
+  <si>
+    <t>*NH~4~^+^*</t>
+  </si>
+  <si>
+    <t>*HS^-^*</t>
+  </si>
+  <si>
+    <t>*NO~3~^-^*</t>
+  </si>
+  <si>
+    <t>*PO~4~^3-^*</t>
+  </si>
+  <si>
+    <t>*Fe^2+^*</t>
+  </si>
+  <si>
+    <t>*Mn^2+^*</t>
+  </si>
+  <si>
+    <t>*SO~4~^2-^*</t>
+  </si>
+  <si>
+    <t>*CH~4~*</t>
+  </si>
+  <si>
+    <t>Diffusivity (cm y^-1^)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5439,8 +5755,38 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5480,6 +5826,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF006699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB3E9E0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5614,7 +5978,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5821,6 +6185,13 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6391,6 +6762,207 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D39702-7F6C-4E77-B128-9B5539B55C21}">
+  <dimension ref="B2:E21"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="74.140625" customWidth="1"/>
+    <col min="4" max="4" width="71.28515625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="46"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="47"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="46"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="46"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="46"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="46"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" s="46"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" s="46"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" s="46"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" s="46"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" s="46"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" s="46"/>
+    </row>
+    <row r="15" spans="2:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" s="46"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D16" s="46"/>
+    </row>
+    <row r="17" spans="2:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" s="46"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="46"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19" s="46"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D20" s="48"/>
+    </row>
+    <row r="21" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D21" s="49"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C5C115-0656-4E87-B01A-1390B4A383FF}">
   <dimension ref="B2:F18"/>
   <sheetViews>
@@ -6563,7 +7135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B560C3-603A-4072-964D-8AC36A7F1082}">
   <dimension ref="B2:F26"/>
   <sheetViews>
@@ -6872,7 +7444,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD0E9BC-2EA0-4A56-9CC5-8E3BC1C05EEF}">
   <dimension ref="B2:E12"/>
   <sheetViews>
@@ -6972,7 +7544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25450DC4-1D8E-418F-8914-A22446A51CB2}">
   <dimension ref="B2:F30"/>
   <sheetViews>
@@ -7219,7 +7791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE4CBC3-07DC-423B-806D-A8AE36FA71B5}">
   <dimension ref="B2:S51"/>
   <sheetViews>
@@ -7955,7 +8527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF787CF5-9889-4ECA-A90E-89E1F3698E15}">
   <dimension ref="B2:G2"/>
   <sheetViews>
@@ -7998,15 +8570,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747BAD0A-72B9-41AC-8108-F7D4CE328F54}">
   <dimension ref="B2:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8161,7 +8733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F5F234-170D-4B45-A1EA-28BAE31F5675}">
   <dimension ref="B2:E11"/>
   <sheetViews>
@@ -8267,10 +8839,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBA0FB1-7A19-4ECF-8FF5-02D3A0E6D618}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14:M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8278,9 +8850,10 @@
     <col min="1" max="1" width="33.5703125" customWidth="1"/>
     <col min="2" max="2" width="53.42578125" customWidth="1"/>
     <col min="3" max="3" width="51" customWidth="1"/>
+    <col min="10" max="10" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -8291,7 +8864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -8302,12 +8875,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -8318,14 +8891,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -8336,12 +8909,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -8352,10 +8925,344 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J11" s="83" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>316</v>
+      </c>
+      <c r="I14" s="80" t="s">
+        <v>317</v>
+      </c>
+      <c r="J14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>319</v>
+      </c>
+      <c r="I15" s="81" t="s">
+        <v>320</v>
+      </c>
+      <c r="J15" t="s">
+        <v>321</v>
+      </c>
+      <c r="K15" s="86"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>322</v>
+      </c>
+      <c r="I16" s="81" t="s">
+        <v>323</v>
+      </c>
+      <c r="J16" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>325</v>
+      </c>
+      <c r="I17" s="81" t="s">
+        <v>326</v>
+      </c>
+      <c r="J17" t="s">
+        <v>327</v>
+      </c>
+      <c r="K17" s="55">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>328</v>
+      </c>
+      <c r="I18" s="81" t="s">
+        <v>329</v>
+      </c>
+      <c r="J18" t="s">
+        <v>330</v>
+      </c>
+      <c r="L18" s="84">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>331</v>
+      </c>
+      <c r="I19" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="20" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H20" s="82" t="s">
+        <v>333</v>
+      </c>
+      <c r="I20" s="82" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="21" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>335</v>
+      </c>
+      <c r="I21" t="s">
+        <v>336</v>
+      </c>
+      <c r="J21" t="s">
+        <v>337</v>
+      </c>
+      <c r="K21" s="86"/>
+    </row>
+    <row r="22" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>338</v>
+      </c>
+      <c r="I22" t="s">
+        <v>339</v>
+      </c>
+      <c r="J22" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="23" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>341</v>
+      </c>
+      <c r="I23" t="s">
+        <v>342</v>
+      </c>
+      <c r="J23" t="s">
+        <v>343</v>
+      </c>
+      <c r="K23" s="55">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>344</v>
+      </c>
+      <c r="I24" t="s">
+        <v>345</v>
+      </c>
+      <c r="J24" t="s">
+        <v>346</v>
+      </c>
+      <c r="K24" s="84"/>
+      <c r="L24" s="84">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>347</v>
+      </c>
+      <c r="I25" t="s">
+        <v>348</v>
+      </c>
+      <c r="J25" t="s">
+        <v>349</v>
+      </c>
+      <c r="K25" s="86"/>
+    </row>
+    <row r="26" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>350</v>
+      </c>
+      <c r="I26" t="s">
+        <v>351</v>
+      </c>
+      <c r="J26" t="s">
+        <v>352</v>
+      </c>
+      <c r="K26" s="85"/>
+      <c r="L26" s="85">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>353</v>
+      </c>
+      <c r="I27" t="s">
+        <v>354</v>
+      </c>
+      <c r="J27" t="s">
+        <v>355</v>
+      </c>
+      <c r="L27" s="85">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="28" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>356</v>
+      </c>
+      <c r="I28" t="s">
+        <v>357</v>
+      </c>
+      <c r="J28" t="s">
+        <v>358</v>
+      </c>
+      <c r="L28" s="85">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H29" s="82" t="s">
+        <v>359</v>
+      </c>
+      <c r="I29" s="82" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="30" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>361</v>
+      </c>
+      <c r="I30" t="s">
+        <v>362</v>
+      </c>
+      <c r="J30" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="31" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>364</v>
+      </c>
+      <c r="I31" t="s">
+        <v>365</v>
+      </c>
+      <c r="J31" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="32" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>367</v>
+      </c>
+      <c r="I32" t="s">
+        <v>368</v>
+      </c>
+      <c r="J32" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="33" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>370</v>
+      </c>
+      <c r="I33" t="s">
+        <v>371</v>
+      </c>
+      <c r="J33" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="34" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>373</v>
+      </c>
+      <c r="I34" t="s">
+        <v>374</v>
+      </c>
+      <c r="J34" t="s">
+        <v>375</v>
+      </c>
+      <c r="K34" s="86"/>
+    </row>
+    <row r="35" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>376</v>
+      </c>
+      <c r="I35" t="s">
+        <v>377</v>
+      </c>
+      <c r="J35" t="s">
+        <v>378</v>
+      </c>
+      <c r="K35" s="86"/>
+    </row>
+    <row r="36" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>379</v>
+      </c>
+      <c r="I36" t="s">
+        <v>380</v>
+      </c>
+      <c r="J36" t="s">
+        <v>381</v>
+      </c>
+      <c r="K36" s="86"/>
+    </row>
+    <row r="37" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H37" s="82" t="s">
+        <v>382</v>
+      </c>
+      <c r="I37" s="82" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="38" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>384</v>
+      </c>
+      <c r="I38" s="81" t="s">
+        <v>385</v>
+      </c>
+      <c r="J38" t="s">
+        <v>386</v>
+      </c>
+      <c r="K38" s="86"/>
+    </row>
+    <row r="39" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>387</v>
+      </c>
+      <c r="I39" t="s">
+        <v>388</v>
+      </c>
+      <c r="J39" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="40" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H40" s="86" t="s">
+        <v>390</v>
+      </c>
+      <c r="I40" s="86" t="s">
+        <v>391</v>
+      </c>
+      <c r="J40" s="86" t="s">
+        <v>392</v>
+      </c>
+      <c r="K40" s="86"/>
+      <c r="L40" s="86"/>
+      <c r="M40" s="86"/>
+    </row>
+    <row r="41" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>393</v>
+      </c>
+      <c r="I41" t="s">
+        <v>394</v>
+      </c>
+      <c r="J41" t="s">
+        <v>395</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8363,6 +9270,160 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA52E35-BCB3-4ACB-9446-D46B5EECA769}">
+  <dimension ref="A2:C28"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="58.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="79" t="s">
+        <v>397</v>
+      </c>
+      <c r="C2" s="79" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>411</v>
+      </c>
+      <c r="C6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>412</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="76" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>413</v>
+      </c>
+      <c r="C9" s="84" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="76" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="82"/>
+      <c r="B11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C11" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>415</v>
+      </c>
+      <c r="C12" s="85" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="76" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="76" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>416</v>
+      </c>
+      <c r="C15" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>417</v>
+      </c>
+      <c r="C16" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>418</v>
+      </c>
+      <c r="C17" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>419</v>
+      </c>
+      <c r="C18" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="82"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="82"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99799E3-434F-4902-B682-16D6015C013E}">
   <dimension ref="B2:L37"/>
   <sheetViews>
@@ -8457,7 +9518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A80968-B596-4B67-9F88-6B9A75E4BB09}">
   <dimension ref="B2:H13"/>
   <sheetViews>
@@ -8663,7 +9724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB823B2-7167-4378-A45D-8972DC675CE8}">
   <dimension ref="B1:D4"/>
   <sheetViews>
@@ -8718,7 +9779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E3E1E6-949D-48DF-9509-10572FC91166}">
   <dimension ref="A2:E26"/>
   <sheetViews>
@@ -8881,7 +9942,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404188C7-A26D-4F82-A2ED-9697F94CBCFE}">
   <dimension ref="B1:C7"/>
   <sheetViews>
@@ -8957,7 +10018,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEF5F1D-5D87-4D91-925C-5537E51FFCCB}">
   <dimension ref="B2:F21"/>
   <sheetViews>
@@ -9242,205 +10303,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D39702-7F6C-4E77-B128-9B5539B55C21}">
-  <dimension ref="B2:E21"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="74.140625" customWidth="1"/>
-    <col min="4" max="4" width="71.28515625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="13"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="45" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="D3" s="46"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="D4" s="47"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="D5" s="46"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="D6" s="46"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" s="46"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="D8" s="46"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="D9" s="46"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="D10" s="46"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="D11" s="46"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="D12" s="46"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D13" s="46"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="D14" s="46"/>
-    </row>
-    <row r="15" spans="2:4" ht="27" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="D15" s="46"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="D16" s="46"/>
-    </row>
-    <row r="17" spans="2:4" ht="27" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D17" s="46"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="D18" s="46"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="D19" s="46"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="D20" s="48"/>
-    </row>
-    <row r="21" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="D21" s="49"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/tables/23-sediment_biogeochemistry/UserManual.xlsx
+++ b/tables/23-sediment_biogeochemistry/UserManual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00074264\AED Dropbox\AED_Coorong_db\5_reporting\CDM Manual\DanDrafts\aed-science\tables\23-sediment_biogeochemistry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B49BC4-6739-46FF-A77C-33A5FCEDF76C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF65A14-4577-4570-B78F-63AC372E8AD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60135" yWindow="-1335" windowWidth="26385" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{24890297-503A-4F29-AEBF-DF10B16371ED}"/>
+    <workbookView xWindow="60135" yWindow="-1335" windowWidth="26385" windowHeight="16440" firstSheet="3" activeTab="11" xr2:uid="{24890297-503A-4F29-AEBF-DF10B16371ED}"/>
   </bookViews>
   <sheets>
     <sheet name="BoundaryInitial" sheetId="1" r:id="rId1"/>
@@ -4869,9 +4869,6 @@
     <t xml:space="preserve">4Fe(OH)~3A~ $\rightarrow$ 4Fe(OH)~3B~ </t>
   </si>
   <si>
-    <t>4Fe^2+^ + O_2 +8HCO_3^- + 2H_2O $\rightarrow$  4Fe(OH)3A + 8CO_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">If `rxn_mode` = 0 or 1, 
 \
 R_{FeOHAppt} = 0 </t>
@@ -5599,6 +5596,9 @@
   </si>
   <si>
     <t>Diffusivity (cm y^-1^)</t>
+  </si>
+  <si>
+    <t>4Fe^2+^ + O_2 + 8HCO_3^- + 2H_2O $\rightarrow$  4Fe(OH)3A + 8CO_2</t>
   </si>
 </sst>
 </file>
@@ -6573,10 +6573,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -6966,7 +6966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C5C115-0656-4E87-B01A-1390B4A383FF}">
   <dimension ref="B2:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -7139,11 +7139,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B560C3-603A-4072-964D-8AC36A7F1082}">
   <dimension ref="B2:F26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="D3" s="55"/>
       <c r="E3" s="56" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F3" s="56" t="s">
         <v>213</v>
@@ -7214,11 +7214,11 @@
         <v>185</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D6" s="55"/>
       <c r="E6" s="56" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F6" s="56" t="s">
         <v>213</v>
@@ -7240,7 +7240,7 @@
       <c r="C8" s="56"/>
       <c r="D8" s="55"/>
       <c r="E8" s="56" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F8" s="56" t="s">
         <v>213</v>
@@ -7284,7 +7284,7 @@
       <c r="C12" s="56"/>
       <c r="D12" s="55"/>
       <c r="E12" s="56" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F12" s="56" t="s">
         <v>213</v>
@@ -7316,7 +7316,7 @@
       </c>
       <c r="D15" s="53"/>
       <c r="E15" s="54" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F15" s="54" t="s">
         <v>214</v>
@@ -7338,7 +7338,7 @@
       <c r="C17" s="54"/>
       <c r="D17" s="53"/>
       <c r="E17" s="54" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F17" s="54" t="s">
         <v>214</v>
@@ -7360,11 +7360,11 @@
         <v>207</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>216</v>
+        <v>420</v>
       </c>
       <c r="D19" s="53"/>
       <c r="E19" s="54" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F19" s="54" t="s">
         <v>214</v>
@@ -7448,11 +7448,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD0E9BC-2EA0-4A56-9CC5-8E3BC1C05EEF}">
   <dimension ref="B2:E12"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7482,7 +7482,7 @@
         <v>181</v>
       </c>
       <c r="C3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E3" s="42" t="s">
         <v>193</v>
@@ -7498,10 +7498,10 @@
         <v>180</v>
       </c>
       <c r="C5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -7585,21 +7585,21 @@
         <v>184</v>
       </c>
       <c r="C3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="90" x14ac:dyDescent="0.25">
       <c r="E4" s="42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -7607,7 +7607,7 @@
         <v>189</v>
       </c>
       <c r="F5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="165" x14ac:dyDescent="0.25">
@@ -7615,7 +7615,7 @@
         <v>198</v>
       </c>
       <c r="F6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -7623,7 +7623,7 @@
         <v>189</v>
       </c>
       <c r="F7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="285" x14ac:dyDescent="0.25">
@@ -7631,12 +7631,12 @@
         <v>197</v>
       </c>
       <c r="F8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="90" x14ac:dyDescent="0.25">
@@ -7644,13 +7644,13 @@
         <v>182</v>
       </c>
       <c r="C10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -7658,15 +7658,15 @@
         <v>189</v>
       </c>
       <c r="F11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="90" x14ac:dyDescent="0.25">
       <c r="E12" s="42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -7674,7 +7674,7 @@
         <v>189</v>
       </c>
       <c r="F13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="165" x14ac:dyDescent="0.25">
@@ -7682,7 +7682,7 @@
         <v>202</v>
       </c>
       <c r="F14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
@@ -7690,7 +7690,7 @@
         <v>189</v>
       </c>
       <c r="F15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="285" x14ac:dyDescent="0.25">
@@ -7698,7 +7698,7 @@
         <v>195</v>
       </c>
       <c r="F16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -7706,7 +7706,7 @@
         <v>189</v>
       </c>
       <c r="F17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="90" x14ac:dyDescent="0.25">
@@ -7714,13 +7714,13 @@
         <v>183</v>
       </c>
       <c r="C18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -7728,15 +7728,15 @@
         <v>189</v>
       </c>
       <c r="F19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="90" x14ac:dyDescent="0.25">
       <c r="E20" s="42" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -7744,7 +7744,7 @@
         <v>189</v>
       </c>
       <c r="F21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="165" x14ac:dyDescent="0.25">
@@ -7752,7 +7752,7 @@
         <v>196</v>
       </c>
       <c r="F22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -7760,7 +7760,7 @@
         <v>189</v>
       </c>
       <c r="F23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="315" x14ac:dyDescent="0.25">
@@ -7768,7 +7768,7 @@
         <v>194</v>
       </c>
       <c r="F24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -7815,31 +7815,31 @@
   <sheetData>
     <row r="2" spans="2:19" s="62" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="61" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C2" s="61" t="s">
+        <v>237</v>
+      </c>
+      <c r="D2" s="61" t="s">
+        <v>236</v>
+      </c>
+      <c r="E2" s="61" t="s">
         <v>238</v>
       </c>
-      <c r="D2" s="61" t="s">
-        <v>237</v>
-      </c>
-      <c r="E2" s="61" t="s">
-        <v>239</v>
-      </c>
       <c r="F2" s="61" t="s">
+        <v>220</v>
+      </c>
+      <c r="G2" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="H2" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="G2" s="61" t="s">
-        <v>220</v>
-      </c>
-      <c r="H2" s="61" t="s">
-        <v>222</v>
-      </c>
       <c r="I2" s="61" t="s">
+        <v>244</v>
+      </c>
+      <c r="J2" s="70" t="s">
         <v>245</v>
-      </c>
-      <c r="J2" s="70" t="s">
-        <v>246</v>
       </c>
       <c r="K2" s="68"/>
       <c r="L2" s="68"/>
@@ -7856,40 +7856,40 @@
         <v>0</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D3" s="60" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E3" s="60" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F3" s="60" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G3" s="60" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H3" s="60" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I3" s="59" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J3" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="2:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="60"/>
       <c r="C4" s="60" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D4" s="60" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F4" s="63"/>
       <c r="G4" s="63"/>
@@ -7933,10 +7933,10 @@
         <v>No precipitation</v>
       </c>
       <c r="I6" s="59" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J6" s="64" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="2:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7971,7 +7971,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D9" s="60" t="str">
         <f>C9</f>
@@ -7994,7 +7994,7 @@
         <v>Constant precipitation</v>
       </c>
       <c r="J9" s="64" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
@@ -8011,7 +8011,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D11" s="60" t="str">
         <f>C11</f>
@@ -8034,7 +8034,7 @@
         <v>IAP precipitation / dissolution</v>
       </c>
       <c r="J11" s="64" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
@@ -8059,7 +8059,7 @@
         <v>Constant precipitation</v>
       </c>
       <c r="E13" s="60" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F13" s="60" t="str">
         <f>E13</f>
@@ -8546,22 +8546,22 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="50" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="50" t="s">
         <v>253</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="D2" s="50" t="s">
         <v>254</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="E2" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="F2" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="G2" s="50" t="s">
         <v>257</v>
-      </c>
-      <c r="G2" s="50" t="s">
-        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -8591,10 +8591,10 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="79" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C2" s="79" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D2" s="79" t="s">
         <v>34</v>
@@ -8605,27 +8605,27 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="53" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E3" s="53" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E4" s="53" t="str">
         <f t="shared" ref="E4:E5" si="0">E3</f>
@@ -8634,10 +8634,10 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="53" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D5" s="53" t="str">
         <f>D8</f>
@@ -8650,7 +8650,7 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -8660,18 +8660,18 @@
         <v>Root density (not used)</v>
       </c>
       <c r="E6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" ref="E7:E10" si="1">E6</f>
@@ -8680,13 +8680,13 @@
     </row>
     <row r="8" spans="2:7" ht="120" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="1"/>
@@ -8695,13 +8695,13 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="1"/>
@@ -8710,13 +8710,13 @@
     </row>
     <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="1"/>
@@ -8751,10 +8751,10 @@
   <sheetData>
     <row r="2" spans="2:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B2" s="50" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D2" s="50" t="s">
         <v>34</v>
@@ -8765,57 +8765,57 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C3" s="77" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C4" t="s">
         <v>297</v>
       </c>
-      <c r="C4" t="s">
-        <v>298</v>
-      </c>
       <c r="E4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C5" t="s">
         <v>299</v>
       </c>
-      <c r="C5" t="s">
-        <v>300</v>
-      </c>
       <c r="E5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C6" s="76" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D6" t="s">
+        <v>284</v>
+      </c>
+      <c r="E6" t="s">
         <v>285</v>
-      </c>
-      <c r="E6" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -8823,7 +8823,7 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -8841,7 +8841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBA0FB1-7A19-4ECF-8FF5-02D3A0E6D618}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+    <sheetView topLeftCell="B7" workbookViewId="0">
       <selection activeCell="H14" sqref="H14:M41"/>
     </sheetView>
   </sheetViews>
@@ -8932,52 +8932,52 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J11" s="83" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H14" t="s">
+        <v>315</v>
+      </c>
+      <c r="I14" s="80" t="s">
         <v>316</v>
       </c>
-      <c r="I14" s="80" t="s">
+      <c r="J14" t="s">
         <v>317</v>
-      </c>
-      <c r="J14" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
+        <v>318</v>
+      </c>
+      <c r="I15" s="81" t="s">
         <v>319</v>
       </c>
-      <c r="I15" s="81" t="s">
+      <c r="J15" t="s">
         <v>320</v>
-      </c>
-      <c r="J15" t="s">
-        <v>321</v>
       </c>
       <c r="K15" s="86"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H16" t="s">
+        <v>321</v>
+      </c>
+      <c r="I16" s="81" t="s">
         <v>322</v>
       </c>
-      <c r="I16" s="81" t="s">
+      <c r="J16" t="s">
         <v>323</v>
-      </c>
-      <c r="J16" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="17" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H17" t="s">
+        <v>324</v>
+      </c>
+      <c r="I17" s="81" t="s">
         <v>325</v>
       </c>
-      <c r="I17" s="81" t="s">
+      <c r="J17" t="s">
         <v>326</v>
-      </c>
-      <c r="J17" t="s">
-        <v>327</v>
       </c>
       <c r="K17" s="55">
         <v>0.5</v>
@@ -8985,13 +8985,13 @@
     </row>
     <row r="18" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H18" t="s">
+        <v>327</v>
+      </c>
+      <c r="I18" s="81" t="s">
         <v>328</v>
       </c>
-      <c r="I18" s="81" t="s">
+      <c r="J18" t="s">
         <v>329</v>
-      </c>
-      <c r="J18" t="s">
-        <v>330</v>
       </c>
       <c r="L18" s="84">
         <v>0.5</v>
@@ -8999,52 +8999,52 @@
     </row>
     <row r="19" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H19" t="s">
+        <v>330</v>
+      </c>
+      <c r="I19" t="s">
         <v>331</v>
-      </c>
-      <c r="I19" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="20" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H20" s="82" t="s">
+        <v>332</v>
+      </c>
+      <c r="I20" s="82" t="s">
         <v>333</v>
-      </c>
-      <c r="I20" s="82" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="21" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H21" t="s">
+        <v>334</v>
+      </c>
+      <c r="I21" t="s">
         <v>335</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>336</v>
-      </c>
-      <c r="J21" t="s">
-        <v>337</v>
       </c>
       <c r="K21" s="86"/>
     </row>
     <row r="22" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H22" t="s">
+        <v>337</v>
+      </c>
+      <c r="I22" t="s">
         <v>338</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>339</v>
-      </c>
-      <c r="J22" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="23" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H23" t="s">
+        <v>340</v>
+      </c>
+      <c r="I23" t="s">
         <v>341</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>342</v>
-      </c>
-      <c r="J23" t="s">
-        <v>343</v>
       </c>
       <c r="K23" s="55">
         <v>0.5</v>
@@ -9052,13 +9052,13 @@
     </row>
     <row r="24" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H24" t="s">
+        <v>343</v>
+      </c>
+      <c r="I24" t="s">
         <v>344</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>345</v>
-      </c>
-      <c r="J24" t="s">
-        <v>346</v>
       </c>
       <c r="K24" s="84"/>
       <c r="L24" s="84">
@@ -9067,25 +9067,25 @@
     </row>
     <row r="25" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
+        <v>346</v>
+      </c>
+      <c r="I25" t="s">
         <v>347</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>348</v>
-      </c>
-      <c r="J25" t="s">
-        <v>349</v>
       </c>
       <c r="K25" s="86"/>
     </row>
     <row r="26" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H26" t="s">
+        <v>349</v>
+      </c>
+      <c r="I26" t="s">
         <v>350</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>351</v>
-      </c>
-      <c r="J26" t="s">
-        <v>352</v>
       </c>
       <c r="K26" s="85"/>
       <c r="L26" s="85">
@@ -9094,13 +9094,13 @@
     </row>
     <row r="27" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H27" t="s">
+        <v>352</v>
+      </c>
+      <c r="I27" t="s">
         <v>353</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>354</v>
-      </c>
-      <c r="J27" t="s">
-        <v>355</v>
       </c>
       <c r="L27" s="85">
         <v>0.85</v>
@@ -9108,13 +9108,13 @@
     </row>
     <row r="28" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H28" t="s">
+        <v>355</v>
+      </c>
+      <c r="I28" t="s">
         <v>356</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>357</v>
-      </c>
-      <c r="J28" t="s">
-        <v>358</v>
       </c>
       <c r="L28" s="85">
         <v>0.14000000000000001</v>
@@ -9122,132 +9122,132 @@
     </row>
     <row r="29" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H29" s="82" t="s">
+        <v>358</v>
+      </c>
+      <c r="I29" s="82" t="s">
         <v>359</v>
-      </c>
-      <c r="I29" s="82" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="30" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H30" t="s">
+        <v>360</v>
+      </c>
+      <c r="I30" t="s">
         <v>361</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>362</v>
-      </c>
-      <c r="J30" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="31" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H31" t="s">
+        <v>363</v>
+      </c>
+      <c r="I31" t="s">
         <v>364</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>365</v>
-      </c>
-      <c r="J31" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="32" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H32" t="s">
+        <v>366</v>
+      </c>
+      <c r="I32" t="s">
         <v>367</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>368</v>
-      </c>
-      <c r="J32" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="33" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H33" t="s">
+        <v>369</v>
+      </c>
+      <c r="I33" t="s">
         <v>370</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>371</v>
-      </c>
-      <c r="J33" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="34" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H34" t="s">
+        <v>372</v>
+      </c>
+      <c r="I34" t="s">
         <v>373</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>374</v>
-      </c>
-      <c r="J34" t="s">
-        <v>375</v>
       </c>
       <c r="K34" s="86"/>
     </row>
     <row r="35" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H35" t="s">
+        <v>375</v>
+      </c>
+      <c r="I35" t="s">
         <v>376</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>377</v>
-      </c>
-      <c r="J35" t="s">
-        <v>378</v>
       </c>
       <c r="K35" s="86"/>
     </row>
     <row r="36" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H36" t="s">
+        <v>378</v>
+      </c>
+      <c r="I36" t="s">
         <v>379</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>380</v>
-      </c>
-      <c r="J36" t="s">
-        <v>381</v>
       </c>
       <c r="K36" s="86"/>
     </row>
     <row r="37" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H37" s="82" t="s">
+        <v>381</v>
+      </c>
+      <c r="I37" s="82" t="s">
         <v>382</v>
-      </c>
-      <c r="I37" s="82" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="38" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H38" t="s">
+        <v>383</v>
+      </c>
+      <c r="I38" s="81" t="s">
         <v>384</v>
       </c>
-      <c r="I38" s="81" t="s">
+      <c r="J38" t="s">
         <v>385</v>
-      </c>
-      <c r="J38" t="s">
-        <v>386</v>
       </c>
       <c r="K38" s="86"/>
     </row>
     <row r="39" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H39" t="s">
+        <v>386</v>
+      </c>
+      <c r="I39" t="s">
         <v>387</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>388</v>
-      </c>
-      <c r="J39" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="40" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H40" s="86" t="s">
+        <v>389</v>
+      </c>
+      <c r="I40" s="86" t="s">
         <v>390</v>
       </c>
-      <c r="I40" s="86" t="s">
+      <c r="J40" s="86" t="s">
         <v>391</v>
-      </c>
-      <c r="J40" s="86" t="s">
-        <v>392</v>
       </c>
       <c r="K40" s="86"/>
       <c r="L40" s="86"/>
@@ -9255,13 +9255,13 @@
     </row>
     <row r="41" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H41" t="s">
+        <v>392</v>
+      </c>
+      <c r="I41" t="s">
         <v>393</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>394</v>
-      </c>
-      <c r="J41" t="s">
-        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -9289,127 +9289,127 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="79" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C2" s="79" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="76" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C9" s="84" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="76" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="82"/>
       <c r="B11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C12" s="85" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" s="76" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" s="76" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -10009,7 +10009,7 @@
         <v>158</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -10052,7 +10052,7 @@
         <v>18</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="36.75" x14ac:dyDescent="0.25">
@@ -10065,7 +10065,7 @@
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="71" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="36.75" x14ac:dyDescent="0.25">
@@ -10078,7 +10078,7 @@
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="71" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="36.75" x14ac:dyDescent="0.25">
@@ -10091,7 +10091,7 @@
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="71" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="36.75" x14ac:dyDescent="0.25">
@@ -10104,7 +10104,7 @@
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="71" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="36.75" x14ac:dyDescent="0.25">
@@ -10117,7 +10117,7 @@
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="71" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="36.75" x14ac:dyDescent="0.25">
@@ -10130,7 +10130,7 @@
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="71" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="36.75" x14ac:dyDescent="0.25">
@@ -10143,7 +10143,7 @@
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="71" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="36.75" x14ac:dyDescent="0.25">
@@ -10156,7 +10156,7 @@
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="71" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="36.75" x14ac:dyDescent="0.25">
@@ -10169,7 +10169,7 @@
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="71" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="36.75" x14ac:dyDescent="0.25">
@@ -10182,7 +10182,7 @@
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="71" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="36.75" x14ac:dyDescent="0.25">
@@ -10195,7 +10195,7 @@
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="71" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="36.75" x14ac:dyDescent="0.25">
@@ -10208,7 +10208,7 @@
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="71" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="48.75" x14ac:dyDescent="0.25">
@@ -10221,7 +10221,7 @@
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="36.75" x14ac:dyDescent="0.25">
@@ -10234,7 +10234,7 @@
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="71" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="36.75" x14ac:dyDescent="0.25">
@@ -10247,7 +10247,7 @@
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="71" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="36.75" x14ac:dyDescent="0.25">
@@ -10260,7 +10260,7 @@
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="71" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="37.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -10273,7 +10273,7 @@
       </c>
       <c r="E19" s="75"/>
       <c r="F19" s="71" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="36.75" x14ac:dyDescent="0.25">
@@ -10286,7 +10286,7 @@
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="71" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/tables/23-sediment_biogeochemistry/UserManual.xlsx
+++ b/tables/23-sediment_biogeochemistry/UserManual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00074264\AED Dropbox\AED_Coorong_db\5_reporting\CDM Manual\DanDrafts\aed-science\tables\23-sediment_biogeochemistry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF65A14-4577-4570-B78F-63AC372E8AD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688EF3AF-E1E2-4D7A-9C7E-2B196862EC0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60135" yWindow="-1335" windowWidth="26385" windowHeight="16440" firstSheet="3" activeTab="11" xr2:uid="{24890297-503A-4F29-AEBF-DF10B16371ED}"/>
+    <workbookView xWindow="60135" yWindow="-1335" windowWidth="26385" windowHeight="16440" firstSheet="12" activeTab="23" xr2:uid="{24890297-503A-4F29-AEBF-DF10B16371ED}"/>
   </bookViews>
   <sheets>
     <sheet name="BoundaryInitial" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,14 @@
     <sheet name="ads" sheetId="21" r:id="rId16"/>
     <sheet name="MAG" sheetId="22" r:id="rId17"/>
     <sheet name="MPBG" sheetId="23" r:id="rId18"/>
+    <sheet name="VCW1" sheetId="25" r:id="rId19"/>
+    <sheet name="UAE" sheetId="26" r:id="rId20"/>
+    <sheet name="UAE2" sheetId="27" r:id="rId21"/>
+    <sheet name="UAE3" sheetId="28" r:id="rId22"/>
+    <sheet name="UAE4" sheetId="29" r:id="rId23"/>
+    <sheet name="UAE5" sheetId="30" r:id="rId24"/>
+    <sheet name="UAE6" sheetId="31" r:id="rId25"/>
+    <sheet name="UAE7" sheetId="32" r:id="rId26"/>
   </sheets>
   <definedNames>
     <definedName name="_Ref386302068" localSheetId="4">OMModel!#REF!</definedName>
@@ -59,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="589">
   <si>
     <t>Same for all zones</t>
   </si>
@@ -5600,12 +5608,965 @@
   <si>
     <t>4Fe^2+^ + O_2 + 8HCO_3^- + 2H_2O $\rightarrow$  4Fe(OH)3A + 8CO_2</t>
   </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Biodiffusion constant</t>
+  </si>
+  <si>
+    <t>4 to 36</t>
+  </si>
+  <si>
+    <t>Depth of biodiffusion decrease</t>
+  </si>
+  <si>
+    <t>20 to 30</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>Bioirrigation coefficient</t>
+  </si>
+  <si>
+    <t>100 to 300</t>
+  </si>
+  <si>
+    <t>0.02 to 0.54</t>
+  </si>
+  <si>
+    <t>N:C ratio</t>
+  </si>
+  <si>
+    <t>9.6 to 32</t>
+  </si>
+  <si>
+    <t>N atoms:106 C atoms</t>
+  </si>
+  <si>
+    <t>P:C ratio</t>
+  </si>
+  <si>
+    <t>0.7 to 1.55</t>
+  </si>
+  <si>
+    <t>P atoms:106 C atoms</t>
+  </si>
+  <si>
+    <t>Aerobic oxidation limitation concentration</t>
+  </si>
+  <si>
+    <t>Denitrification limitation concentration</t>
+  </si>
+  <si>
+    <t>1.1 to 1.7</t>
+  </si>
+  <si>
+    <t>Siderite dissolution constant</t>
+  </si>
+  <si>
+    <t>*DB~0~*</t>
+  </si>
+  <si>
+    <t>*x~b~*</t>
+  </si>
+  <si>
+    <t>*α~0~*</t>
+  </si>
+  <si>
+    <t>*x~irrig~*</t>
+  </si>
+  <si>
+    <t>*y~Lab~*</t>
+  </si>
+  <si>
+    <t>*z~Lab~*</t>
+  </si>
+  <si>
+    <t>*K~TEAO2~*</t>
+  </si>
+  <si>
+    <t>*~KTEANO3~*</t>
+  </si>
+  <si>
+    <t>*k~NH4ads~*</t>
+  </si>
+  <si>
+    <t>*k~FeOx~*</t>
+  </si>
+  <si>
+    <r>
+      <t>1×10^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-2^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> to 3×10^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-2^</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4×10^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-3^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> to 6×10^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>^</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5×10^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> to 5×10^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4^</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.5×10^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-5^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> to 2.5×10^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-3^</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>y^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>^</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>cm^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> y^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-1^</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>y^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-1^</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mmol L^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>^</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mmol L^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-1^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> y^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>^</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*NH~</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4~^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+^*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> adsorption coefficient</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Kinetic rate constant for aerobic oxidation of *Fe^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>^*</t>
+    </r>
+  </si>
+  <si>
+    <t>*k~Siddis~*</t>
+  </si>
+  <si>
+    <t>Modelled variable</t>
+  </si>
+  <si>
+    <r>
+      <t>2.4 x 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.5 x 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.3 x 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.8 x 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.2 x 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.6 x 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>O~2~</t>
+  </si>
+  <si>
+    <t>NH~4~^+^</t>
+  </si>
+  <si>
+    <t>NO~3~^-^</t>
+  </si>
+  <si>
+    <t>PO~4~^3-^</t>
+  </si>
+  <si>
+    <t>SO~4~^2-^</t>
+  </si>
+  <si>
+    <t>HCO~3~^-^</t>
+  </si>
+  <si>
+    <t>POM~R~</t>
+  </si>
+  <si>
+    <t>Field measurement (mg L^-1^)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modelled boundary (mmol L^-1^) </t>
+  </si>
+  <si>
+    <t>Background</t>
+  </si>
+  <si>
+    <t>Aquaculture</t>
+  </si>
+  <si>
+    <t>Immediate post-aquaculture</t>
+  </si>
+  <si>
+    <t>Recovery</t>
+  </si>
+  <si>
+    <t>Aquaculture periods (period of active cage aquaculture)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 years </t>
+  </si>
+  <si>
+    <t>1 year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 years </t>
+  </si>
+  <si>
+    <t>10 years</t>
+  </si>
+  <si>
+    <t>3 years</t>
+  </si>
+  <si>
+    <t>2 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 years </t>
+  </si>
+  <si>
+    <t>5 years</t>
+  </si>
+  <si>
+    <t>6 years</t>
+  </si>
+  <si>
+    <t>Time step</t>
+  </si>
+  <si>
+    <t>5 days</t>
+  </si>
+  <si>
+    <t>1 day</t>
+  </si>
+  <si>
+    <t>0.5 days</t>
+  </si>
+  <si>
+    <t>1 hour</t>
+  </si>
+  <si>
+    <t>Fish waste fluxes (mmol C m^-2^ y^-1^)</t>
+  </si>
+  <si>
+    <t>1×10^2^, 5×10^2^</t>
+  </si>
+  <si>
+    <t>1×10^3^, 5×10^3^, 1×10^4^</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5×10^4^, 1×10^5^, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5×10^5^, 1×10^6^, </t>
+  </si>
+  <si>
+    <t>5×10^6^</t>
+  </si>
+  <si>
+    <t>Time period / Time step</t>
+  </si>
+  <si>
+    <t>NO3</t>
+  </si>
+  <si>
+    <t>PO4</t>
+  </si>
+  <si>
+    <t>NH4</t>
+  </si>
+  <si>
+    <t>O2</t>
+  </si>
+  <si>
+    <t>OM Flux</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>×10^</t>
+    </r>
+  </si>
+  <si>
+    <t>5×10^</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>1×10^7^</t>
+  </si>
+  <si>
+    <t>1×10^2^</t>
+  </si>
+  <si>
+    <t>OM Flux upper range</t>
+  </si>
+  <si>
+    <t>1×10^7^ to 5×10^6^</t>
+  </si>
+  <si>
+    <t>5×10^6^ to 1×10^6^</t>
+  </si>
+  <si>
+    <t>1×10^6^ to 5×10^5^</t>
+  </si>
+  <si>
+    <t>5×10^5^ to 1×10^5^</t>
+  </si>
+  <si>
+    <t>1×10^5^ to 5×10^4^</t>
+  </si>
+  <si>
+    <t>5×10^4^ to 1×10^4^</t>
+  </si>
+  <si>
+    <t>1×10^4^ to 5×10^3^</t>
+  </si>
+  <si>
+    <t>5×10^3^ to 1×10^3^</t>
+  </si>
+  <si>
+    <t>1×10^3^ to 5×10^2^</t>
+  </si>
+  <si>
+    <t>5×10^2^ to 1×10^2^</t>
+  </si>
+  <si>
+    <t>1 Year</t>
+  </si>
+  <si>
+    <t>2 Years</t>
+  </si>
+  <si>
+    <t>3 Years</t>
+  </si>
+  <si>
+    <t>5 Years</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>&lt; </t>
+  </si>
+  <si>
+    <t>&lt;1 year recovery</t>
+  </si>
+  <si>
+    <t>2 year recovery</t>
+  </si>
+  <si>
+    <t>3 year recovery</t>
+  </si>
+  <si>
+    <t>4 year recovery</t>
+  </si>
+  <si>
+    <t>5 year recovery</t>
+  </si>
+  <si>
+    <t>6 year recovery</t>
+  </si>
+  <si>
+    <t>7 year recovery</t>
+  </si>
+  <si>
+    <t>&gt; 8 year recovery</t>
+  </si>
+  <si>
+    <t>0 to 202000</t>
+  </si>
+  <si>
+    <t>0 to 174000</t>
+  </si>
+  <si>
+    <t>0 to 145000</t>
+  </si>
+  <si>
+    <t>0 to 88100</t>
+  </si>
+  <si>
+    <t>202000 to 480000</t>
+  </si>
+  <si>
+    <t>174000 to 403000</t>
+  </si>
+  <si>
+    <t>145000 to 327000</t>
+  </si>
+  <si>
+    <t>88100 to 173000</t>
+  </si>
+  <si>
+    <t>480000 to 758000</t>
+  </si>
+  <si>
+    <t>403000 to 633000</t>
+  </si>
+  <si>
+    <t>327000 to 508000</t>
+  </si>
+  <si>
+    <t>173000 to 258000</t>
+  </si>
+  <si>
+    <t>758000 to 1040000</t>
+  </si>
+  <si>
+    <t>633000 to 863000</t>
+  </si>
+  <si>
+    <t>508000 to 690000</t>
+  </si>
+  <si>
+    <t>258000 to 343000</t>
+  </si>
+  <si>
+    <t>1040000 to 1310000</t>
+  </si>
+  <si>
+    <t>863000 to 1090000</t>
+  </si>
+  <si>
+    <t>690000 to 871000</t>
+  </si>
+  <si>
+    <t>343000 to 428000</t>
+  </si>
+  <si>
+    <t>1310000 to 1590000</t>
+  </si>
+  <si>
+    <t>1090000 to 1320000</t>
+  </si>
+  <si>
+    <t>871000 to 1050000</t>
+  </si>
+  <si>
+    <t>428000 to 513000</t>
+  </si>
+  <si>
+    <t>1590000 to 1870000</t>
+  </si>
+  <si>
+    <t>1320000 to 1550000</t>
+  </si>
+  <si>
+    <t>1050000 to 1230000</t>
+  </si>
+  <si>
+    <t>513000 to 598000</t>
+  </si>
+  <si>
+    <t>1870000</t>
+  </si>
+  <si>
+    <t>1550000</t>
+  </si>
+  <si>
+    <t>1230000</t>
+  </si>
+  <si>
+    <t>598000</t>
+  </si>
+  <si>
+    <t>Zone of High Impact</t>
+  </si>
+  <si>
+    <t>Zone of Medium-High Impact</t>
+  </si>
+  <si>
+    <t>Zone of Medium Impact</t>
+  </si>
+  <si>
+    <t>Zone of Influence</t>
+  </si>
+  <si>
+    <t>6300 to 78600</t>
+  </si>
+  <si>
+    <t>6200 to 63000</t>
+  </si>
+  <si>
+    <t>6100 to 47300</t>
+  </si>
+  <si>
+    <t>6000 to 45100</t>
+  </si>
+  <si>
+    <t>1400 to 6300</t>
+  </si>
+  <si>
+    <t>1350 to 6200</t>
+  </si>
+  <si>
+    <t>1300 to 6100</t>
+  </si>
+  <si>
+    <t>1300 to 6000</t>
+  </si>
+  <si>
+    <t>Zone</t>
+  </si>
+  <si>
+    <t>Recovery time</t>
+  </si>
+  <si>
+    <r>
+      <t>Table 5: Depositional thresholds (F</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color rgb="FF44546A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OM</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF44546A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) for 4 impact zone settings, summarised for 4 aquaculture operation periods.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Table 4: Depositional thresholds (F</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color rgb="FF44546A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OM</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF44546A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) for recovery time estimation, summarised for 4 aquaculture operation periods.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5785,8 +6746,90 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF44546A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="subscript"/>
+      <sz val="9"/>
+      <color rgb="FF44546A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5847,8 +6890,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -5974,11 +7041,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6192,6 +7301,185 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="32" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="32" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="32" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="32" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="32" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="32" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="32" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="32" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="32" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7139,7 +8427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B560C3-603A-4072-964D-8AC36A7F1082}">
   <dimension ref="B2:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -8578,7 +9866,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8837,6 +10125,204 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97FAB4B4-8799-48FC-8A76-89433647002B}">
+  <dimension ref="B2:L13"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="58.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="79" t="s">
+        <v>421</v>
+      </c>
+      <c r="C2" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="79" t="s">
+        <v>422</v>
+      </c>
+      <c r="E2" s="79" t="s">
+        <v>423</v>
+      </c>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+    </row>
+    <row r="3" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="87" t="s">
+        <v>442</v>
+      </c>
+      <c r="C3" s="91" t="s">
+        <v>424</v>
+      </c>
+      <c r="D3" s="91" t="s">
+        <v>425</v>
+      </c>
+      <c r="E3" s="88" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="87" t="s">
+        <v>443</v>
+      </c>
+      <c r="C4" s="91" t="s">
+        <v>426</v>
+      </c>
+      <c r="D4" s="91" t="s">
+        <v>427</v>
+      </c>
+      <c r="E4" s="88" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="87" t="s">
+        <v>444</v>
+      </c>
+      <c r="C5" s="91" t="s">
+        <v>429</v>
+      </c>
+      <c r="D5" s="91" t="s">
+        <v>430</v>
+      </c>
+      <c r="E5" s="88" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="87" t="s">
+        <v>445</v>
+      </c>
+      <c r="C6" s="91" t="s">
+        <v>429</v>
+      </c>
+      <c r="D6" s="91" t="s">
+        <v>431</v>
+      </c>
+      <c r="E6" s="88" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B7" s="87" t="s">
+        <v>446</v>
+      </c>
+      <c r="C7" s="91" t="s">
+        <v>432</v>
+      </c>
+      <c r="D7" s="91" t="s">
+        <v>433</v>
+      </c>
+      <c r="E7" s="88" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B8" s="87" t="s">
+        <v>447</v>
+      </c>
+      <c r="C8" s="91" t="s">
+        <v>435</v>
+      </c>
+      <c r="D8" s="91" t="s">
+        <v>436</v>
+      </c>
+      <c r="E8" s="88" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="87" t="s">
+        <v>448</v>
+      </c>
+      <c r="C9" s="91" t="s">
+        <v>438</v>
+      </c>
+      <c r="D9" s="91" t="s">
+        <v>452</v>
+      </c>
+      <c r="E9" s="88" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="87" t="s">
+        <v>449</v>
+      </c>
+      <c r="C10" s="91" t="s">
+        <v>439</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>453</v>
+      </c>
+      <c r="E10" s="88" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="87" t="s">
+        <v>450</v>
+      </c>
+      <c r="C11" s="91" t="s">
+        <v>461</v>
+      </c>
+      <c r="D11" s="91" t="s">
+        <v>440</v>
+      </c>
+      <c r="E11" s="88" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="87" t="s">
+        <v>451</v>
+      </c>
+      <c r="C12" s="91" t="s">
+        <v>462</v>
+      </c>
+      <c r="D12" s="91" t="s">
+        <v>454</v>
+      </c>
+      <c r="E12" s="88" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="36" t="s">
+        <v>463</v>
+      </c>
+      <c r="C13" s="90" t="s">
+        <v>441</v>
+      </c>
+      <c r="D13" s="90" t="s">
+        <v>455</v>
+      </c>
+      <c r="E13" s="89" t="s">
+        <v>456</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBA0FB1-7A19-4ECF-8FF5-02D3A0E6D618}">
   <dimension ref="A1:M41"/>
@@ -9262,6 +10748,2420 @@
       </c>
       <c r="J41" t="s">
         <v>394</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5638044B-CB4C-4C94-A755-7C200927062F}">
+  <dimension ref="A2:F21"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="36.140625" style="92" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="92" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" style="92" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="79" t="s">
+        <v>464</v>
+      </c>
+      <c r="C2" s="79" t="s">
+        <v>478</v>
+      </c>
+      <c r="D2" s="79" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="93" t="s">
+        <v>471</v>
+      </c>
+      <c r="C3" s="93">
+        <v>7.6</v>
+      </c>
+      <c r="D3" s="93" t="s">
+        <v>465</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="93" t="s">
+        <v>472</v>
+      </c>
+      <c r="C4" s="93">
+        <v>0</v>
+      </c>
+      <c r="D4" s="93">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="93" t="s">
+        <v>473</v>
+      </c>
+      <c r="C5" s="93">
+        <v>0.22</v>
+      </c>
+      <c r="D5" s="93" t="s">
+        <v>466</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="93" t="s">
+        <v>474</v>
+      </c>
+      <c r="C6" s="93">
+        <v>0</v>
+      </c>
+      <c r="D6" s="93">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="93" t="s">
+        <v>475</v>
+      </c>
+      <c r="C7" s="93">
+        <v>3163</v>
+      </c>
+      <c r="D7" s="93" t="s">
+        <v>467</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="93" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8" s="93">
+        <v>0</v>
+      </c>
+      <c r="D8" s="93">
+        <v>0</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="93" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" s="93">
+        <v>0</v>
+      </c>
+      <c r="D9" s="93">
+        <v>0</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="93" t="s">
+        <v>476</v>
+      </c>
+      <c r="C10" s="93">
+        <v>109</v>
+      </c>
+      <c r="D10" s="93" t="s">
+        <v>468</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="93" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" s="93">
+        <v>25</v>
+      </c>
+      <c r="D11" s="93" t="s">
+        <v>469</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="93" t="s">
+        <v>477</v>
+      </c>
+      <c r="C12" s="93">
+        <v>1.86</v>
+      </c>
+      <c r="D12" s="93" t="s">
+        <v>470</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79383B76-50C0-490F-AC19-3FE2C2CA6837}">
+  <dimension ref="B2:G10"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.7109375" style="92" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" style="92" customWidth="1"/>
+    <col min="4" max="7" width="22.28515625" style="92" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="108" t="s">
+        <v>499</v>
+      </c>
+      <c r="C2" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="D2" s="79" t="s">
+        <v>480</v>
+      </c>
+      <c r="E2" s="79" t="s">
+        <v>481</v>
+      </c>
+      <c r="F2" s="79" t="s">
+        <v>482</v>
+      </c>
+      <c r="G2" s="79" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="106" t="s">
+        <v>484</v>
+      </c>
+      <c r="D3" s="101" t="s">
+        <v>485</v>
+      </c>
+      <c r="E3" s="101" t="s">
+        <v>486</v>
+      </c>
+      <c r="F3" s="101" t="s">
+        <v>487</v>
+      </c>
+      <c r="G3" s="101" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="106"/>
+      <c r="D4" s="101" t="s">
+        <v>488</v>
+      </c>
+      <c r="E4" s="101" t="s">
+        <v>489</v>
+      </c>
+      <c r="F4" s="101" t="s">
+        <v>490</v>
+      </c>
+      <c r="G4" s="101" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="107"/>
+      <c r="D5" s="102" t="s">
+        <v>488</v>
+      </c>
+      <c r="E5" s="102" t="s">
+        <v>492</v>
+      </c>
+      <c r="F5" s="102" t="s">
+        <v>490</v>
+      </c>
+      <c r="G5" s="102" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="100" t="s">
+        <v>500</v>
+      </c>
+      <c r="C6" s="105" t="s">
+        <v>494</v>
+      </c>
+      <c r="D6" s="95" t="s">
+        <v>495</v>
+      </c>
+      <c r="E6" s="96" t="s">
+        <v>495</v>
+      </c>
+      <c r="F6" s="96" t="s">
+        <v>495</v>
+      </c>
+      <c r="G6" s="96" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="97" t="s">
+        <v>501</v>
+      </c>
+      <c r="C7" s="103"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+    </row>
+    <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="97" t="s">
+        <v>502</v>
+      </c>
+      <c r="C8" s="103"/>
+      <c r="D8" s="102" t="s">
+        <v>495</v>
+      </c>
+      <c r="E8" s="102" t="s">
+        <v>496</v>
+      </c>
+      <c r="F8" s="102" t="s">
+        <v>495</v>
+      </c>
+      <c r="G8" s="102" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="100" t="s">
+        <v>503</v>
+      </c>
+      <c r="C9" s="103"/>
+      <c r="D9" s="101" t="s">
+        <v>495</v>
+      </c>
+      <c r="E9" s="101" t="s">
+        <v>497</v>
+      </c>
+      <c r="F9" s="101" t="s">
+        <v>497</v>
+      </c>
+      <c r="G9" s="101" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="97" t="s">
+        <v>504</v>
+      </c>
+      <c r="C10" s="104"/>
+      <c r="D10" s="102" t="s">
+        <v>495</v>
+      </c>
+      <c r="E10" s="102" t="s">
+        <v>498</v>
+      </c>
+      <c r="F10" s="102" t="s">
+        <v>498</v>
+      </c>
+      <c r="G10" s="102" t="s">
+        <v>495</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63589976-2265-419F-872C-FD2246847E9E}">
+  <dimension ref="A1:P20"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="110" t="s">
+        <v>510</v>
+      </c>
+      <c r="C2" s="110" t="s">
+        <v>510</v>
+      </c>
+      <c r="D2" s="110" t="s">
+        <v>506</v>
+      </c>
+      <c r="E2" s="110" t="s">
+        <v>507</v>
+      </c>
+      <c r="F2" s="110" t="s">
+        <v>508</v>
+      </c>
+      <c r="G2" s="110" t="s">
+        <v>509</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="C3" s="109">
+        <v>10000000</v>
+      </c>
+      <c r="D3" s="112">
+        <v>178</v>
+      </c>
+      <c r="E3" s="112">
+        <v>-753000</v>
+      </c>
+      <c r="F3" s="112">
+        <v>-1530000</v>
+      </c>
+      <c r="G3" s="112">
+        <v>12000</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="I3" s="111" t="s">
+        <v>512</v>
+      </c>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13">
+        <f>LOG10(C3)</f>
+        <v>7</v>
+      </c>
+      <c r="L3" t="s">
+        <v>513</v>
+      </c>
+      <c r="N3" t="str">
+        <f>H3&amp;K3&amp;L3</f>
+        <v>1×10^7^</v>
+      </c>
+      <c r="O3" t="str">
+        <f>N3</f>
+        <v>1×10^7^</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="109">
+        <f>C3</f>
+        <v>10000000</v>
+      </c>
+      <c r="C4" s="109">
+        <v>5000000</v>
+      </c>
+      <c r="D4" s="112">
+        <v>172</v>
+      </c>
+      <c r="E4" s="112">
+        <v>-564000</v>
+      </c>
+      <c r="F4" s="112">
+        <v>-1150000</v>
+      </c>
+      <c r="G4" s="112">
+        <v>11900</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="I4" s="111" t="s">
+        <v>512</v>
+      </c>
+      <c r="J4" s="13">
+        <f>LOG10(B4)</f>
+        <v>7</v>
+      </c>
+      <c r="K4" s="13">
+        <f>LOG10(C4/5)</f>
+        <v>6</v>
+      </c>
+      <c r="L4" t="s">
+        <v>513</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" ref="M4" si="0">H4&amp;J4&amp;L4</f>
+        <v>1×10^7^</v>
+      </c>
+      <c r="N4" t="str">
+        <f>I4&amp;K4&amp;L4</f>
+        <v>5×10^6^</v>
+      </c>
+      <c r="O4" t="str">
+        <f>M4&amp;" to "&amp;N4</f>
+        <v>1×10^7^ to 5×10^6^</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="109">
+        <f>C4</f>
+        <v>5000000</v>
+      </c>
+      <c r="C5" s="109">
+        <v>1000000</v>
+      </c>
+      <c r="D5" s="112">
+        <v>163</v>
+      </c>
+      <c r="E5" s="112">
+        <v>-226000</v>
+      </c>
+      <c r="F5" s="112">
+        <v>-458000</v>
+      </c>
+      <c r="G5" s="112">
+        <v>11800</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="I5" s="111" t="s">
+        <v>512</v>
+      </c>
+      <c r="J5" s="13">
+        <f>LOG10(B5/5)</f>
+        <v>6</v>
+      </c>
+      <c r="K5" s="13">
+        <f t="shared" ref="K5:K15" si="1">LOG10(C5)</f>
+        <v>6</v>
+      </c>
+      <c r="L5" t="s">
+        <v>513</v>
+      </c>
+      <c r="M5" t="str">
+        <f>I5&amp;J5&amp;L5</f>
+        <v>5×10^6^</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" ref="N5" si="2">H5&amp;K5&amp;L5</f>
+        <v>1×10^6^</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" ref="O5:O13" si="3">M5&amp;" to "&amp;N5</f>
+        <v>5×10^6^ to 1×10^6^</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="109">
+        <f>C5</f>
+        <v>1000000</v>
+      </c>
+      <c r="C6" s="109">
+        <f>C5/2</f>
+        <v>500000</v>
+      </c>
+      <c r="D6" s="112">
+        <v>158</v>
+      </c>
+      <c r="E6" s="112">
+        <v>-56500</v>
+      </c>
+      <c r="F6" s="112">
+        <v>-115000</v>
+      </c>
+      <c r="G6" s="112">
+        <v>11700</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="I6" s="111" t="s">
+        <v>512</v>
+      </c>
+      <c r="J6" s="13">
+        <f t="shared" ref="J6:J14" si="4">LOG10(B6)</f>
+        <v>6</v>
+      </c>
+      <c r="K6" s="13">
+        <f t="shared" ref="K6:K15" si="5">LOG10(C6/5)</f>
+        <v>5</v>
+      </c>
+      <c r="L6" t="s">
+        <v>513</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" ref="M6" si="6">H6&amp;J6&amp;L6</f>
+        <v>1×10^6^</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" ref="N6" si="7">I6&amp;K6&amp;L6</f>
+        <v>5×10^5^</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="3"/>
+        <v>1×10^6^ to 5×10^5^</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="109">
+        <f>C6</f>
+        <v>500000</v>
+      </c>
+      <c r="C7" s="109">
+        <f>C6/5</f>
+        <v>100000</v>
+      </c>
+      <c r="D7" s="112">
+        <v>102</v>
+      </c>
+      <c r="E7" s="112">
+        <v>-22600</v>
+      </c>
+      <c r="F7" s="112">
+        <v>-46100</v>
+      </c>
+      <c r="G7" s="112">
+        <v>9310</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="I7" s="111" t="s">
+        <v>512</v>
+      </c>
+      <c r="J7" s="13">
+        <f t="shared" ref="J7:J14" si="8">LOG10(B7/5)</f>
+        <v>5</v>
+      </c>
+      <c r="K7" s="13">
+        <f t="shared" ref="K7:K15" si="9">LOG10(C7)</f>
+        <v>5</v>
+      </c>
+      <c r="L7" t="s">
+        <v>513</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" ref="M7" si="10">I7&amp;J7&amp;L7</f>
+        <v>5×10^5^</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" ref="N7" si="11">H7&amp;K7&amp;L7</f>
+        <v>1×10^5^</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="3"/>
+        <v>5×10^5^ to 1×10^5^</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="109">
+        <f>C7</f>
+        <v>100000</v>
+      </c>
+      <c r="C8" s="109">
+        <f t="shared" ref="C8:C13" si="12">C7/2</f>
+        <v>50000</v>
+      </c>
+      <c r="D8" s="112">
+        <v>28</v>
+      </c>
+      <c r="E8" s="112">
+        <v>-5710</v>
+      </c>
+      <c r="F8" s="112">
+        <v>-11700</v>
+      </c>
+      <c r="G8" s="112">
+        <v>6000</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="I8" s="111" t="s">
+        <v>512</v>
+      </c>
+      <c r="J8" s="13">
+        <f t="shared" ref="J8:J14" si="13">LOG10(B8)</f>
+        <v>5</v>
+      </c>
+      <c r="K8" s="13">
+        <f t="shared" ref="K8:K15" si="14">LOG10(C8/5)</f>
+        <v>4</v>
+      </c>
+      <c r="L8" t="s">
+        <v>513</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" ref="M8" si="15">H8&amp;J8&amp;L8</f>
+        <v>1×10^5^</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" ref="N8" si="16">I8&amp;K8&amp;L8</f>
+        <v>5×10^4^</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="3"/>
+        <v>1×10^5^ to 5×10^4^</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="109">
+        <f>C8</f>
+        <v>50000</v>
+      </c>
+      <c r="C9" s="109">
+        <f t="shared" ref="C9:C13" si="17">C8/5</f>
+        <v>10000</v>
+      </c>
+      <c r="D9" s="112">
+        <v>-10.9</v>
+      </c>
+      <c r="E9" s="112">
+        <v>-2320</v>
+      </c>
+      <c r="F9" s="112">
+        <v>-4730</v>
+      </c>
+      <c r="G9" s="112">
+        <v>3840</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="I9" s="111" t="s">
+        <v>512</v>
+      </c>
+      <c r="J9" s="13">
+        <f t="shared" ref="J9:J14" si="18">LOG10(B9/5)</f>
+        <v>4</v>
+      </c>
+      <c r="K9" s="13">
+        <f t="shared" ref="K9:K15" si="19">LOG10(C9)</f>
+        <v>4</v>
+      </c>
+      <c r="L9" t="s">
+        <v>513</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" ref="M9" si="20">I9&amp;J9&amp;L9</f>
+        <v>5×10^4^</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" ref="N9" si="21">H9&amp;K9&amp;L9</f>
+        <v>1×10^4^</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="3"/>
+        <v>5×10^4^ to 1×10^4^</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="109">
+        <f>C9</f>
+        <v>10000</v>
+      </c>
+      <c r="C10" s="109">
+        <f t="shared" ref="C10:C13" si="22">C9/2</f>
+        <v>5000</v>
+      </c>
+      <c r="D10" s="112">
+        <v>-38.9</v>
+      </c>
+      <c r="E10" s="112">
+        <v>-628</v>
+      </c>
+      <c r="F10" s="112">
+        <v>-1250</v>
+      </c>
+      <c r="G10" s="112">
+        <v>2220</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="I10" s="111" t="s">
+        <v>512</v>
+      </c>
+      <c r="J10" s="13">
+        <f t="shared" ref="J10:J14" si="23">LOG10(B10)</f>
+        <v>4</v>
+      </c>
+      <c r="K10" s="13">
+        <f t="shared" ref="K10:K15" si="24">LOG10(C10/5)</f>
+        <v>3</v>
+      </c>
+      <c r="L10" t="s">
+        <v>513</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" ref="M10" si="25">H10&amp;J10&amp;L10</f>
+        <v>1×10^4^</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" ref="N10" si="26">I10&amp;K10&amp;L10</f>
+        <v>5×10^3^</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="3"/>
+        <v>1×10^4^ to 5×10^3^</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="109">
+        <f>C10</f>
+        <v>5000</v>
+      </c>
+      <c r="C11" s="109">
+        <f t="shared" ref="C11:C13" si="27">C10/5</f>
+        <v>1000</v>
+      </c>
+      <c r="D11" s="112">
+        <v>-56.1</v>
+      </c>
+      <c r="E11" s="112">
+        <v>-289</v>
+      </c>
+      <c r="F11" s="112">
+        <v>-528</v>
+      </c>
+      <c r="G11" s="112">
+        <v>1410</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="I11" s="111" t="s">
+        <v>512</v>
+      </c>
+      <c r="J11" s="13">
+        <f t="shared" ref="J11:J14" si="28">LOG10(B11/5)</f>
+        <v>3</v>
+      </c>
+      <c r="K11" s="13">
+        <f t="shared" ref="K11:K15" si="29">LOG10(C11)</f>
+        <v>3</v>
+      </c>
+      <c r="L11" t="s">
+        <v>513</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" ref="M11" si="30">I11&amp;J11&amp;L11</f>
+        <v>5×10^3^</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" ref="N11" si="31">H11&amp;K11&amp;L11</f>
+        <v>1×10^3^</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="3"/>
+        <v>5×10^3^ to 1×10^3^</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="109">
+        <f>C11</f>
+        <v>1000</v>
+      </c>
+      <c r="C12" s="109">
+        <f t="shared" ref="C12:C13" si="32">C11/2</f>
+        <v>500</v>
+      </c>
+      <c r="D12" s="112">
+        <v>-68.099999999999994</v>
+      </c>
+      <c r="E12" s="112">
+        <v>-120</v>
+      </c>
+      <c r="F12" s="112">
+        <v>-158</v>
+      </c>
+      <c r="G12" s="112">
+        <v>827</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="I12" s="111" t="s">
+        <v>512</v>
+      </c>
+      <c r="J12" s="13">
+        <f t="shared" ref="J12:J14" si="33">LOG10(B12)</f>
+        <v>3</v>
+      </c>
+      <c r="K12" s="13">
+        <f t="shared" ref="K12:K15" si="34">LOG10(C12/5)</f>
+        <v>2</v>
+      </c>
+      <c r="L12" t="s">
+        <v>513</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" ref="M12" si="35">H12&amp;J12&amp;L12</f>
+        <v>1×10^3^</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" ref="N12" si="36">I12&amp;K12&amp;L12</f>
+        <v>5×10^2^</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="3"/>
+        <v>1×10^3^ to 5×10^2^</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="109">
+        <f>C12</f>
+        <v>500</v>
+      </c>
+      <c r="C13" s="109">
+        <f t="shared" ref="C13" si="37">C12/5</f>
+        <v>100</v>
+      </c>
+      <c r="D13" s="112">
+        <v>-66.900000000000006</v>
+      </c>
+      <c r="E13" s="112">
+        <v>-86.1</v>
+      </c>
+      <c r="F13" s="112">
+        <v>-83.5</v>
+      </c>
+      <c r="G13" s="112">
+        <v>604</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="I13" s="111" t="s">
+        <v>512</v>
+      </c>
+      <c r="J13" s="13">
+        <f t="shared" ref="J13:J14" si="38">LOG10(B13/5)</f>
+        <v>2</v>
+      </c>
+      <c r="K13" s="13">
+        <f t="shared" ref="K13:K15" si="39">LOG10(C13)</f>
+        <v>2</v>
+      </c>
+      <c r="L13" t="s">
+        <v>513</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" ref="M13" si="40">I13&amp;J13&amp;L13</f>
+        <v>5×10^2^</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" ref="N13" si="41">H13&amp;K13&amp;L13</f>
+        <v>1×10^2^</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="3"/>
+        <v>5×10^2^ to 1×10^2^</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="109">
+        <f>C13</f>
+        <v>100</v>
+      </c>
+      <c r="C14" s="109"/>
+      <c r="D14" s="112">
+        <v>-64.2</v>
+      </c>
+      <c r="E14" s="112">
+        <v>-70.900000000000006</v>
+      </c>
+      <c r="F14" s="112">
+        <v>-46.1</v>
+      </c>
+      <c r="G14" s="112">
+        <v>460</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="I14" s="111" t="s">
+        <v>512</v>
+      </c>
+      <c r="J14" s="13">
+        <f t="shared" ref="J14" si="42">LOG10(B14)</f>
+        <v>2</v>
+      </c>
+      <c r="K14" s="13"/>
+      <c r="L14" t="s">
+        <v>513</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" ref="M14" si="43">H14&amp;J14&amp;L14</f>
+        <v>1×10^2^</v>
+      </c>
+      <c r="O14" t="str">
+        <f>M14</f>
+        <v>1×10^2^</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="M15" t="str">
+        <f t="shared" ref="M15" si="44">I15&amp;J15&amp;L15</f>
+        <v/>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" ref="N15" si="45">H15&amp;K15&amp;L15</f>
+        <v/>
+      </c>
+      <c r="O15" s="109"/>
+      <c r="P15" s="109"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="O16" s="109"/>
+      <c r="P16" s="109"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD67E78-D613-46E1-844C-AD6CD38E1719}">
+  <dimension ref="B2:F14"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="110" t="s">
+        <v>516</v>
+      </c>
+      <c r="C2" s="110" t="s">
+        <v>473</v>
+      </c>
+      <c r="D2" s="110" t="s">
+        <v>474</v>
+      </c>
+      <c r="E2" s="110" t="s">
+        <v>472</v>
+      </c>
+      <c r="F2" s="110" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C3" s="112">
+        <v>178</v>
+      </c>
+      <c r="D3" s="112">
+        <v>-753000</v>
+      </c>
+      <c r="E3" s="112">
+        <v>-1530000</v>
+      </c>
+      <c r="F3" s="112">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C4" s="112">
+        <v>172</v>
+      </c>
+      <c r="D4" s="112">
+        <v>-564000</v>
+      </c>
+      <c r="E4" s="112">
+        <v>-1150000</v>
+      </c>
+      <c r="F4" s="112">
+        <v>11900</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>518</v>
+      </c>
+      <c r="C5" s="112">
+        <v>163</v>
+      </c>
+      <c r="D5" s="112">
+        <v>-226000</v>
+      </c>
+      <c r="E5" s="112">
+        <v>-458000</v>
+      </c>
+      <c r="F5" s="112">
+        <v>11800</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>519</v>
+      </c>
+      <c r="C6" s="112">
+        <v>158</v>
+      </c>
+      <c r="D6" s="112">
+        <v>-56500</v>
+      </c>
+      <c r="E6" s="112">
+        <v>-115000</v>
+      </c>
+      <c r="F6" s="112">
+        <v>11700</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>520</v>
+      </c>
+      <c r="C7" s="112">
+        <v>102</v>
+      </c>
+      <c r="D7" s="112">
+        <v>-22600</v>
+      </c>
+      <c r="E7" s="112">
+        <v>-46100</v>
+      </c>
+      <c r="F7" s="112">
+        <v>9310</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>521</v>
+      </c>
+      <c r="C8" s="112">
+        <v>28</v>
+      </c>
+      <c r="D8" s="112">
+        <v>-5710</v>
+      </c>
+      <c r="E8" s="112">
+        <v>-11700</v>
+      </c>
+      <c r="F8" s="112">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>522</v>
+      </c>
+      <c r="C9" s="112">
+        <v>-10.9</v>
+      </c>
+      <c r="D9" s="112">
+        <v>-2320</v>
+      </c>
+      <c r="E9" s="112">
+        <v>-4730</v>
+      </c>
+      <c r="F9" s="112">
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>523</v>
+      </c>
+      <c r="C10" s="112">
+        <v>-38.9</v>
+      </c>
+      <c r="D10" s="112">
+        <v>-628</v>
+      </c>
+      <c r="E10" s="112">
+        <v>-1250</v>
+      </c>
+      <c r="F10" s="112">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>524</v>
+      </c>
+      <c r="C11" s="112">
+        <v>-56.1</v>
+      </c>
+      <c r="D11" s="112">
+        <v>-289</v>
+      </c>
+      <c r="E11" s="112">
+        <v>-528</v>
+      </c>
+      <c r="F11" s="112">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>525</v>
+      </c>
+      <c r="C12" s="112">
+        <v>-68.099999999999994</v>
+      </c>
+      <c r="D12" s="112">
+        <v>-120</v>
+      </c>
+      <c r="E12" s="112">
+        <v>-158</v>
+      </c>
+      <c r="F12" s="112">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>526</v>
+      </c>
+      <c r="C13" s="112">
+        <v>-66.900000000000006</v>
+      </c>
+      <c r="D13" s="112">
+        <v>-86.1</v>
+      </c>
+      <c r="E13" s="112">
+        <v>-83.5</v>
+      </c>
+      <c r="F13" s="112">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>515</v>
+      </c>
+      <c r="C14" s="112">
+        <v>-64.2</v>
+      </c>
+      <c r="D14" s="112">
+        <v>-70.900000000000006</v>
+      </c>
+      <c r="E14" s="112">
+        <v>-46.1</v>
+      </c>
+      <c r="F14" s="112">
+        <v>460</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7495890C-77D0-4EFC-B806-50C2928C6692}">
+  <dimension ref="B2:V25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="O10" sqref="O10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="13" max="13" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C2" s="126" t="s">
+        <v>527</v>
+      </c>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126" t="s">
+        <v>528</v>
+      </c>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126" t="s">
+        <v>529</v>
+      </c>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126" t="s">
+        <v>530</v>
+      </c>
+      <c r="J2" s="126"/>
+      <c r="O2" s="113" t="s">
+        <v>527</v>
+      </c>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113" t="s">
+        <v>528</v>
+      </c>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113" t="s">
+        <v>529</v>
+      </c>
+      <c r="T2" s="113"/>
+      <c r="U2" s="113" t="s">
+        <v>530</v>
+      </c>
+      <c r="V2" s="113"/>
+    </row>
+    <row r="3" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="114" t="s">
+        <v>531</v>
+      </c>
+      <c r="D3" s="114" t="s">
+        <v>532</v>
+      </c>
+      <c r="E3" s="114" t="s">
+        <v>531</v>
+      </c>
+      <c r="F3" s="114" t="s">
+        <v>532</v>
+      </c>
+      <c r="G3" s="114" t="s">
+        <v>531</v>
+      </c>
+      <c r="H3" s="114" t="s">
+        <v>532</v>
+      </c>
+      <c r="I3" s="114" t="s">
+        <v>531</v>
+      </c>
+      <c r="J3" s="114" t="s">
+        <v>532</v>
+      </c>
+      <c r="O3" s="114" t="s">
+        <v>531</v>
+      </c>
+      <c r="P3" s="114" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q3" s="114" t="s">
+        <v>531</v>
+      </c>
+      <c r="R3" s="114" t="s">
+        <v>532</v>
+      </c>
+      <c r="S3" s="114" t="s">
+        <v>531</v>
+      </c>
+      <c r="T3" s="114" t="s">
+        <v>532</v>
+      </c>
+      <c r="U3" s="114" t="s">
+        <v>531</v>
+      </c>
+      <c r="V3" s="114" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="115" t="s">
+        <v>533</v>
+      </c>
+      <c r="C4" s="127">
+        <v>0</v>
+      </c>
+      <c r="D4" s="128">
+        <v>202000</v>
+      </c>
+      <c r="E4" s="129">
+        <v>0</v>
+      </c>
+      <c r="F4" s="129">
+        <v>174000</v>
+      </c>
+      <c r="G4" s="130">
+        <v>0</v>
+      </c>
+      <c r="H4" s="130">
+        <v>145000</v>
+      </c>
+      <c r="I4" s="131">
+        <v>0</v>
+      </c>
+      <c r="J4" s="131">
+        <v>88100</v>
+      </c>
+      <c r="N4" s="115" t="s">
+        <v>573</v>
+      </c>
+      <c r="O4" s="116">
+        <v>78600</v>
+      </c>
+      <c r="P4" s="141"/>
+      <c r="Q4" s="117">
+        <v>63000</v>
+      </c>
+      <c r="R4" s="142"/>
+      <c r="S4" s="118">
+        <v>47300</v>
+      </c>
+      <c r="T4" s="143"/>
+      <c r="U4" s="119">
+        <v>45100</v>
+      </c>
+      <c r="V4" s="144"/>
+    </row>
+    <row r="5" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="120" t="s">
+        <v>534</v>
+      </c>
+      <c r="C5" s="132">
+        <v>202000</v>
+      </c>
+      <c r="D5" s="133">
+        <v>480000</v>
+      </c>
+      <c r="E5" s="134">
+        <v>174000</v>
+      </c>
+      <c r="F5" s="134">
+        <v>403000</v>
+      </c>
+      <c r="G5" s="135">
+        <v>145000</v>
+      </c>
+      <c r="H5" s="135">
+        <v>327000</v>
+      </c>
+      <c r="I5" s="136">
+        <v>88100</v>
+      </c>
+      <c r="J5" s="136">
+        <v>173000</v>
+      </c>
+      <c r="N5" s="120" t="s">
+        <v>574</v>
+      </c>
+      <c r="O5" s="121">
+        <v>6300</v>
+      </c>
+      <c r="P5" s="122">
+        <v>78600</v>
+      </c>
+      <c r="Q5" s="123">
+        <v>6200</v>
+      </c>
+      <c r="R5" s="123">
+        <v>63000</v>
+      </c>
+      <c r="S5" s="124">
+        <v>6100</v>
+      </c>
+      <c r="T5" s="124">
+        <v>47300</v>
+      </c>
+      <c r="U5" s="125">
+        <v>6000</v>
+      </c>
+      <c r="V5" s="125">
+        <v>45100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="120" t="s">
+        <v>535</v>
+      </c>
+      <c r="C6" s="132">
+        <v>480000</v>
+      </c>
+      <c r="D6" s="133">
+        <v>758000</v>
+      </c>
+      <c r="E6" s="134">
+        <v>403000</v>
+      </c>
+      <c r="F6" s="134">
+        <v>633000</v>
+      </c>
+      <c r="G6" s="135">
+        <v>327000</v>
+      </c>
+      <c r="H6" s="135">
+        <v>508000</v>
+      </c>
+      <c r="I6" s="136">
+        <v>173000</v>
+      </c>
+      <c r="J6" s="136">
+        <v>258000</v>
+      </c>
+      <c r="N6" s="120" t="s">
+        <v>575</v>
+      </c>
+      <c r="O6" s="121">
+        <v>1400</v>
+      </c>
+      <c r="P6" s="122">
+        <v>6300</v>
+      </c>
+      <c r="Q6" s="123">
+        <v>1350</v>
+      </c>
+      <c r="R6" s="123">
+        <v>6200</v>
+      </c>
+      <c r="S6" s="124">
+        <v>1300</v>
+      </c>
+      <c r="T6" s="124">
+        <v>6100</v>
+      </c>
+      <c r="U6" s="125">
+        <v>1300</v>
+      </c>
+      <c r="V6" s="125">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="120" t="s">
+        <v>536</v>
+      </c>
+      <c r="C7" s="132">
+        <v>758000</v>
+      </c>
+      <c r="D7" s="133">
+        <v>1040000</v>
+      </c>
+      <c r="E7" s="134">
+        <v>633000</v>
+      </c>
+      <c r="F7" s="134">
+        <v>863000</v>
+      </c>
+      <c r="G7" s="135">
+        <v>508000</v>
+      </c>
+      <c r="H7" s="135">
+        <v>690000</v>
+      </c>
+      <c r="I7" s="136">
+        <v>258000</v>
+      </c>
+      <c r="J7" s="136">
+        <v>343000</v>
+      </c>
+      <c r="N7" s="120" t="s">
+        <v>576</v>
+      </c>
+      <c r="O7" s="145">
+        <v>0</v>
+      </c>
+      <c r="P7" s="122">
+        <v>1400</v>
+      </c>
+      <c r="Q7" s="146">
+        <v>0</v>
+      </c>
+      <c r="R7" s="123">
+        <v>1350</v>
+      </c>
+      <c r="S7" s="147">
+        <v>0</v>
+      </c>
+      <c r="T7" s="124">
+        <v>1300</v>
+      </c>
+      <c r="U7" s="148">
+        <v>0</v>
+      </c>
+      <c r="V7" s="125">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="120" t="s">
+        <v>537</v>
+      </c>
+      <c r="C8" s="132">
+        <v>1040000</v>
+      </c>
+      <c r="D8" s="133">
+        <v>1310000</v>
+      </c>
+      <c r="E8" s="134">
+        <v>863000</v>
+      </c>
+      <c r="F8" s="134">
+        <v>1090000</v>
+      </c>
+      <c r="G8" s="135">
+        <v>690000</v>
+      </c>
+      <c r="H8" s="135">
+        <v>871000</v>
+      </c>
+      <c r="I8" s="136">
+        <v>343000</v>
+      </c>
+      <c r="J8" s="136">
+        <v>428000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="120" t="s">
+        <v>538</v>
+      </c>
+      <c r="C9" s="132">
+        <v>1310000</v>
+      </c>
+      <c r="D9" s="133">
+        <v>1590000</v>
+      </c>
+      <c r="E9" s="134">
+        <v>1090000</v>
+      </c>
+      <c r="F9" s="134">
+        <v>1320000</v>
+      </c>
+      <c r="G9" s="135">
+        <v>871000</v>
+      </c>
+      <c r="H9" s="135">
+        <v>1050000</v>
+      </c>
+      <c r="I9" s="136">
+        <v>428000</v>
+      </c>
+      <c r="J9" s="136">
+        <v>513000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="120" t="s">
+        <v>539</v>
+      </c>
+      <c r="C10" s="132">
+        <v>1590000</v>
+      </c>
+      <c r="D10" s="133">
+        <v>1870000</v>
+      </c>
+      <c r="E10" s="134">
+        <v>1320000</v>
+      </c>
+      <c r="F10" s="134">
+        <v>1550000</v>
+      </c>
+      <c r="G10" s="135">
+        <v>1050000</v>
+      </c>
+      <c r="H10" s="135">
+        <v>1230000</v>
+      </c>
+      <c r="I10" s="136">
+        <v>513000</v>
+      </c>
+      <c r="J10" s="136">
+        <v>598000</v>
+      </c>
+      <c r="O10" s="149" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="120" t="s">
+        <v>540</v>
+      </c>
+      <c r="C11" s="132">
+        <v>1870000</v>
+      </c>
+      <c r="D11" s="137"/>
+      <c r="E11" s="134">
+        <v>1550000</v>
+      </c>
+      <c r="F11" s="138"/>
+      <c r="G11" s="135">
+        <v>1230000</v>
+      </c>
+      <c r="H11" s="139"/>
+      <c r="I11" s="136">
+        <v>598000</v>
+      </c>
+      <c r="J11" s="140"/>
+    </row>
+    <row r="14" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>527</v>
+      </c>
+      <c r="E14" t="s">
+        <v>528</v>
+      </c>
+      <c r="G14" t="s">
+        <v>529</v>
+      </c>
+      <c r="I14" t="s">
+        <v>530</v>
+      </c>
+      <c r="N14" s="113" t="s">
+        <v>527</v>
+      </c>
+      <c r="O14" s="113" t="s">
+        <v>528</v>
+      </c>
+      <c r="P14" s="113" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q14" s="113" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="115" t="s">
+        <v>533</v>
+      </c>
+      <c r="C15" t="str">
+        <f>C4&amp;" to "&amp;D4</f>
+        <v>0 to 202000</v>
+      </c>
+      <c r="E15" t="str">
+        <f>E4&amp;" to "&amp;F4</f>
+        <v>0 to 174000</v>
+      </c>
+      <c r="G15" t="str">
+        <f>G4&amp;" to "&amp;H4</f>
+        <v>0 to 145000</v>
+      </c>
+      <c r="I15" t="str">
+        <f>I4&amp;" to "&amp;J4</f>
+        <v>0 to 88100</v>
+      </c>
+      <c r="M15" s="115" t="s">
+        <v>573</v>
+      </c>
+      <c r="N15" s="109">
+        <f>O4</f>
+        <v>78600</v>
+      </c>
+      <c r="O15" s="109">
+        <f>Q4</f>
+        <v>63000</v>
+      </c>
+      <c r="P15" s="109">
+        <f>S4</f>
+        <v>47300</v>
+      </c>
+      <c r="Q15" s="109">
+        <f>U4</f>
+        <v>45100</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="120" t="s">
+        <v>534</v>
+      </c>
+      <c r="C16" t="str">
+        <f>C5&amp;" to "&amp;D5</f>
+        <v>202000 to 480000</v>
+      </c>
+      <c r="E16" t="str">
+        <f>E5&amp;" to "&amp;F5</f>
+        <v>174000 to 403000</v>
+      </c>
+      <c r="G16" t="str">
+        <f>G5&amp;" to "&amp;H5</f>
+        <v>145000 to 327000</v>
+      </c>
+      <c r="I16" t="str">
+        <f>I5&amp;" to "&amp;J5</f>
+        <v>88100 to 173000</v>
+      </c>
+      <c r="M16" s="120" t="s">
+        <v>574</v>
+      </c>
+      <c r="N16" t="str">
+        <f>O5&amp;" to "&amp;P5</f>
+        <v>6300 to 78600</v>
+      </c>
+      <c r="O16" t="str">
+        <f>Q5&amp;" to "&amp;R5</f>
+        <v>6200 to 63000</v>
+      </c>
+      <c r="P16" t="str">
+        <f>S5&amp;" to "&amp;T5</f>
+        <v>6100 to 47300</v>
+      </c>
+      <c r="Q16" t="str">
+        <f>U5&amp;" to "&amp;V5</f>
+        <v>6000 to 45100</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="120" t="s">
+        <v>535</v>
+      </c>
+      <c r="C17" t="str">
+        <f>C6&amp;" to "&amp;D6</f>
+        <v>480000 to 758000</v>
+      </c>
+      <c r="E17" t="str">
+        <f>E6&amp;" to "&amp;F6</f>
+        <v>403000 to 633000</v>
+      </c>
+      <c r="G17" t="str">
+        <f>G6&amp;" to "&amp;H6</f>
+        <v>327000 to 508000</v>
+      </c>
+      <c r="I17" t="str">
+        <f>I6&amp;" to "&amp;J6</f>
+        <v>173000 to 258000</v>
+      </c>
+      <c r="M17" s="120" t="s">
+        <v>575</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" ref="N17:N18" si="0">O6&amp;" to "&amp;P6</f>
+        <v>1400 to 6300</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" ref="O17:O18" si="1">Q6&amp;" to "&amp;R6</f>
+        <v>1350 to 6200</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" ref="P17:P18" si="2">S6&amp;" to "&amp;T6</f>
+        <v>1300 to 6100</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" ref="Q17:Q18" si="3">U6&amp;" to "&amp;V6</f>
+        <v>1300 to 6000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="120" t="s">
+        <v>536</v>
+      </c>
+      <c r="C18" t="str">
+        <f>C7&amp;" to "&amp;D7</f>
+        <v>758000 to 1040000</v>
+      </c>
+      <c r="E18" t="str">
+        <f>E7&amp;" to "&amp;F7</f>
+        <v>633000 to 863000</v>
+      </c>
+      <c r="G18" t="str">
+        <f>G7&amp;" to "&amp;H7</f>
+        <v>508000 to 690000</v>
+      </c>
+      <c r="I18" t="str">
+        <f>I7&amp;" to "&amp;J7</f>
+        <v>258000 to 343000</v>
+      </c>
+      <c r="M18" s="120" t="s">
+        <v>576</v>
+      </c>
+      <c r="N18" s="109">
+        <f>P7</f>
+        <v>1400</v>
+      </c>
+      <c r="O18" s="109">
+        <f>R7</f>
+        <v>1350</v>
+      </c>
+      <c r="P18" s="109">
+        <f>T7</f>
+        <v>1300</v>
+      </c>
+      <c r="Q18" s="109">
+        <f>V7</f>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="120" t="s">
+        <v>537</v>
+      </c>
+      <c r="C19" t="str">
+        <f>C8&amp;" to "&amp;D8</f>
+        <v>1040000 to 1310000</v>
+      </c>
+      <c r="E19" t="str">
+        <f>E8&amp;" to "&amp;F8</f>
+        <v>863000 to 1090000</v>
+      </c>
+      <c r="G19" t="str">
+        <f>G8&amp;" to "&amp;H8</f>
+        <v>690000 to 871000</v>
+      </c>
+      <c r="I19" t="str">
+        <f>I8&amp;" to "&amp;J8</f>
+        <v>343000 to 428000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="120" t="s">
+        <v>538</v>
+      </c>
+      <c r="C20" t="str">
+        <f>C9&amp;" to "&amp;D9</f>
+        <v>1310000 to 1590000</v>
+      </c>
+      <c r="E20" t="str">
+        <f>E9&amp;" to "&amp;F9</f>
+        <v>1090000 to 1320000</v>
+      </c>
+      <c r="G20" t="str">
+        <f>G9&amp;" to "&amp;H9</f>
+        <v>871000 to 1050000</v>
+      </c>
+      <c r="I20" t="str">
+        <f>I9&amp;" to "&amp;J9</f>
+        <v>428000 to 513000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="120" t="s">
+        <v>539</v>
+      </c>
+      <c r="C21" t="str">
+        <f>C10&amp;" to "&amp;D10</f>
+        <v>1590000 to 1870000</v>
+      </c>
+      <c r="E21" t="str">
+        <f>E10&amp;" to "&amp;F10</f>
+        <v>1320000 to 1550000</v>
+      </c>
+      <c r="G21" t="str">
+        <f>G10&amp;" to "&amp;H10</f>
+        <v>1050000 to 1230000</v>
+      </c>
+      <c r="I21" t="str">
+        <f>I10&amp;" to "&amp;J10</f>
+        <v>513000 to 598000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="120" t="s">
+        <v>540</v>
+      </c>
+      <c r="C22" t="str">
+        <f>C11&amp;""</f>
+        <v>1870000</v>
+      </c>
+      <c r="E22" t="str">
+        <f>E11&amp;""</f>
+        <v>1550000</v>
+      </c>
+      <c r="G22" t="str">
+        <f>G11&amp;""</f>
+        <v>1230000</v>
+      </c>
+      <c r="I22" t="str">
+        <f>I11&amp;""</f>
+        <v>598000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C25" s="149" t="s">
+        <v>588</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF03E16-6481-44BC-89B4-27A98D72160C}">
+  <dimension ref="B2:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="110" t="s">
+        <v>586</v>
+      </c>
+      <c r="C2" s="110" t="s">
+        <v>527</v>
+      </c>
+      <c r="D2" s="110" t="s">
+        <v>528</v>
+      </c>
+      <c r="E2" s="110" t="s">
+        <v>529</v>
+      </c>
+      <c r="F2" s="110" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="83" t="s">
+        <v>533</v>
+      </c>
+      <c r="C3" t="s">
+        <v>541</v>
+      </c>
+      <c r="D3" t="s">
+        <v>542</v>
+      </c>
+      <c r="E3" t="s">
+        <v>543</v>
+      </c>
+      <c r="F3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="83" t="s">
+        <v>534</v>
+      </c>
+      <c r="C4" t="s">
+        <v>545</v>
+      </c>
+      <c r="D4" t="s">
+        <v>546</v>
+      </c>
+      <c r="E4" t="s">
+        <v>547</v>
+      </c>
+      <c r="F4" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="83" t="s">
+        <v>535</v>
+      </c>
+      <c r="C5" t="s">
+        <v>549</v>
+      </c>
+      <c r="D5" t="s">
+        <v>550</v>
+      </c>
+      <c r="E5" t="s">
+        <v>551</v>
+      </c>
+      <c r="F5" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="83" t="s">
+        <v>536</v>
+      </c>
+      <c r="C6" t="s">
+        <v>553</v>
+      </c>
+      <c r="D6" t="s">
+        <v>554</v>
+      </c>
+      <c r="E6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F6" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="83" t="s">
+        <v>537</v>
+      </c>
+      <c r="C7" t="s">
+        <v>557</v>
+      </c>
+      <c r="D7" t="s">
+        <v>558</v>
+      </c>
+      <c r="E7" t="s">
+        <v>559</v>
+      </c>
+      <c r="F7" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="83" t="s">
+        <v>538</v>
+      </c>
+      <c r="C8" t="s">
+        <v>561</v>
+      </c>
+      <c r="D8" t="s">
+        <v>562</v>
+      </c>
+      <c r="E8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="83" t="s">
+        <v>539</v>
+      </c>
+      <c r="C9" t="s">
+        <v>565</v>
+      </c>
+      <c r="D9" t="s">
+        <v>566</v>
+      </c>
+      <c r="E9" t="s">
+        <v>567</v>
+      </c>
+      <c r="F9" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="83" t="s">
+        <v>540</v>
+      </c>
+      <c r="C10" t="s">
+        <v>569</v>
+      </c>
+      <c r="D10" t="s">
+        <v>570</v>
+      </c>
+      <c r="E10" t="s">
+        <v>571</v>
+      </c>
+      <c r="F10" t="s">
+        <v>572</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60761244-E2EA-4DCB-98B0-B2653577D4BA}">
+  <dimension ref="B2:F6"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="110" t="s">
+        <v>585</v>
+      </c>
+      <c r="C2" s="110" t="s">
+        <v>527</v>
+      </c>
+      <c r="D2" s="110" t="s">
+        <v>528</v>
+      </c>
+      <c r="E2" s="110" t="s">
+        <v>529</v>
+      </c>
+      <c r="F2" s="110" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="83" t="s">
+        <v>573</v>
+      </c>
+      <c r="C3">
+        <v>78600</v>
+      </c>
+      <c r="D3">
+        <v>63000</v>
+      </c>
+      <c r="E3">
+        <v>47300</v>
+      </c>
+      <c r="F3">
+        <v>45100</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="83" t="s">
+        <v>574</v>
+      </c>
+      <c r="C4" t="s">
+        <v>577</v>
+      </c>
+      <c r="D4" t="s">
+        <v>578</v>
+      </c>
+      <c r="E4" t="s">
+        <v>579</v>
+      </c>
+      <c r="F4" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="83" t="s">
+        <v>575</v>
+      </c>
+      <c r="C5" t="s">
+        <v>581</v>
+      </c>
+      <c r="D5" t="s">
+        <v>582</v>
+      </c>
+      <c r="E5" t="s">
+        <v>583</v>
+      </c>
+      <c r="F5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="83" t="s">
+        <v>576</v>
+      </c>
+      <c r="C6">
+        <v>1400</v>
+      </c>
+      <c r="D6">
+        <v>1350</v>
+      </c>
+      <c r="E6">
+        <v>1300</v>
+      </c>
+      <c r="F6">
+        <v>1300</v>
       </c>
     </row>
   </sheetData>

--- a/tables/23-sediment_biogeochemistry/UserManual.xlsx
+++ b/tables/23-sediment_biogeochemistry/UserManual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00074264\AED Dropbox\AED_Coorong_db\5_reporting\CDM Manual\DanDrafts\aed-science\tables\23-sediment_biogeochemistry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81362A43-3D76-4E96-B950-53615F9670D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8395618E-50A3-4CC5-9497-1CD8ABA5EFF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31515" yWindow="-2970" windowWidth="26205" windowHeight="16440" activeTab="7" xr2:uid="{24890297-503A-4F29-AEBF-DF10B16371ED}"/>
+    <workbookView xWindow="31515" yWindow="-2970" windowWidth="26205" windowHeight="16440" firstSheet="6" activeTab="11" xr2:uid="{24890297-503A-4F29-AEBF-DF10B16371ED}"/>
   </bookViews>
   <sheets>
     <sheet name="BoundaryInitial" sheetId="1" r:id="rId1"/>
@@ -24,23 +24,25 @@
     <sheet name="OMChem3" sheetId="34" r:id="rId9"/>
     <sheet name="NRates" sheetId="13" r:id="rId10"/>
     <sheet name="SecondChem" sheetId="8" r:id="rId11"/>
-    <sheet name="SecondRates" sheetId="14" r:id="rId12"/>
-    <sheet name="Geochem" sheetId="15" r:id="rId13"/>
-    <sheet name="MnOFeO" sheetId="16" r:id="rId14"/>
-    <sheet name="FeS" sheetId="17" r:id="rId15"/>
-    <sheet name="CO3" sheetId="18" r:id="rId16"/>
-    <sheet name="rxn_mode" sheetId="19" r:id="rId17"/>
-    <sheet name="ads" sheetId="21" r:id="rId18"/>
-    <sheet name="MAG" sheetId="22" r:id="rId19"/>
-    <sheet name="MPBG" sheetId="23" r:id="rId20"/>
-    <sheet name="VCW1" sheetId="25" r:id="rId21"/>
-    <sheet name="UAE" sheetId="26" r:id="rId22"/>
-    <sheet name="UAE2" sheetId="27" r:id="rId23"/>
-    <sheet name="UAE3" sheetId="28" r:id="rId24"/>
-    <sheet name="UAE4" sheetId="29" r:id="rId25"/>
-    <sheet name="UAE5" sheetId="30" r:id="rId26"/>
-    <sheet name="UAE6" sheetId="31" r:id="rId27"/>
-    <sheet name="UAE7" sheetId="32" r:id="rId28"/>
+    <sheet name="SecondChem (2)" sheetId="35" r:id="rId12"/>
+    <sheet name="SecondChem (3)" sheetId="36" r:id="rId13"/>
+    <sheet name="SecondRates" sheetId="14" r:id="rId14"/>
+    <sheet name="Geochem" sheetId="15" r:id="rId15"/>
+    <sheet name="MnOFeO" sheetId="16" r:id="rId16"/>
+    <sheet name="FeS" sheetId="17" r:id="rId17"/>
+    <sheet name="CO3" sheetId="18" r:id="rId18"/>
+    <sheet name="rxn_mode" sheetId="19" r:id="rId19"/>
+    <sheet name="ads" sheetId="21" r:id="rId20"/>
+    <sheet name="MAG" sheetId="22" r:id="rId21"/>
+    <sheet name="MPBG" sheetId="23" r:id="rId22"/>
+    <sheet name="VCW1" sheetId="25" r:id="rId23"/>
+    <sheet name="UAE" sheetId="26" r:id="rId24"/>
+    <sheet name="UAE2" sheetId="27" r:id="rId25"/>
+    <sheet name="UAE3" sheetId="28" r:id="rId26"/>
+    <sheet name="UAE4" sheetId="29" r:id="rId27"/>
+    <sheet name="UAE5" sheetId="30" r:id="rId28"/>
+    <sheet name="UAE6" sheetId="31" r:id="rId29"/>
+    <sheet name="UAE7" sheetId="32" r:id="rId30"/>
   </sheets>
   <definedNames>
     <definedName name="_Ref386302068" localSheetId="4">OMModel!#REF!</definedName>
@@ -69,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="738">
   <si>
     <t>Same for all zones</t>
   </si>
@@ -6705,12 +6707,998 @@
   <si>
     <t>\\ \\  \frac{2x}{3} NH_4^+ (reduction  \ \ product)</t>
   </si>
+  <si>
+    <t>Reductant</t>
+  </si>
+  <si>
+    <r>
+      <t>*Mn^</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2+^*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> oxidation by *O~</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*Fe^</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2+^*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> oxidation by *O~</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*H~</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>S* oxidation by *O~</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*CH~</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4~*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> oxidation by *O~</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*FeS* oxidation by *O~</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*FeS~</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> oxidation by *O~</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*Mn^</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2+^*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> oxidation by *NO~</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3~^</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-^*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*Fe^</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2+^*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> oxidation by *NO~</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3~^</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-^*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∑*H~</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>S* oxidation by *NO~</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3~^</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-^*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*Fe^</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2+^*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> oxidation by *MnO~</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2A,~ ~B~*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∑*H~</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>S* oxidation by *MnO~</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2A,~ ~B~*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*FeS* oxidation by *MnO~</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2A,~ ~B~*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∑*H~</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>S* oxidation by *Fe(OH)~</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3A,~ ~B~*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*FeS* oxidation by *Fe(OH)~</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3A,~ ~B~*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*CH~</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4~*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> oxidation by *SO~</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4~^</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2-^*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*H~</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> oxidation by *SO~</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4~^</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2-^*</t>
+    </r>
+  </si>
+  <si>
+    <t>NH_4^+</t>
+  </si>
+  <si>
+    <t>H_2S</t>
+  </si>
+  <si>
+    <t>CH_4</t>
+  </si>
+  <si>
+    <t>+ O_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + 2HCO_3^-</t>
+  </si>
+  <si>
+    <t>NO_3^-</t>
+  </si>
+  <si>
+    <t>+ 2CO_2 + 3H_2O</t>
+  </si>
+  <si>
+    <r>
+      <t>Simple *NH~</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4~^</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+^*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> oxidation by *O~</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>+ 2O_2</t>
+  </si>
+  <si>
+    <t>+ 2CO_2 + H_2O</t>
+  </si>
+  <si>
+    <t>4Fe^{2+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + 4CO_2 + 2H_2O</t>
+  </si>
+  <si>
+    <t>4Fe^{3+}</t>
+  </si>
+  <si>
+    <t>+ 4HCO_3^-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\
+\(\displaystyle
+\ </t>
+  </si>
+  <si>
+    <t>+ 2CO_2 + 2H_2O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \rightarrow </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + 2HCO_3^-  </t>
+  </si>
+  <si>
+    <t>+ 3.5O_2</t>
+  </si>
+  <si>
+    <t>+ CO_2 + H_2O</t>
+  </si>
+  <si>
+    <t>Fe^{2+} + _{Xfm}X +2SO_4^{2-}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + 2H_2O</t>
+  </si>
+  <si>
+    <t>5Mn^{2+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + 2NO_3^-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + 8HCO_3^- + _{xmk}X</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + 8CO_2 + 4H_2O + N_2</t>
+  </si>
+  <si>
+    <t>SO_4^{2-} + Fe^{2+} + _{Xfm}X</t>
+  </si>
+  <si>
+    <t>Mn^{2+} + _{Xmk}X</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MnO_{2A}-X_{Xmk}</t>
+  </si>
+  <si>
+    <t>FeS-X_{Xfm}</t>
+  </si>
+  <si>
+    <t>FeS_2- X_{Xfm}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5MnO_{2A}-_{xmk}X</t>
+  </si>
+  <si>
+    <t>5Fe^{2+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + NO_3^-</t>
+  </si>
+  <si>
+    <t>+ CO_2 + 3H_2O</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \frac{1}{2}N_2  + Fe^{3+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + 6HCO_3^-</t>
+  </si>
+  <si>
+    <t>+ \frac{1}{2}O_2</t>
+  </si>
+  <si>
+    <t>SO_4^{2-}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NH_4^+ </t>
+  </si>
+  <si>
+    <t>\frac{5}{2}H_2S</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + 4NO_3^-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + HCO_3^-</t>
+  </si>
+  <si>
+    <t>\frac{5}{2} SO_4^{2-} +2N_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  + CO_2 + 3H_2O</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + 2HCO_3^- + 2H_2O</t>
+  </si>
+  <si>
+    <t>2Fe(OH)_{3A}-X_{xfl} + Mn^{2+} + kX</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + CO_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2Fe^{2+} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">H_2S </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + 4(MnO_{2A}-X_{Xmk} + MnO_{2A}-X_{Xmk})  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + 21X + (MnO_{2A}-X_{Xmk} + MnO_{2B}-X_{Xmk})</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + 6CO_2 + 2H_2O </t>
+  </si>
+  <si>
+    <t>SO_4^{2-} + 4Mn^{2+}+ 4 _{Xmk}X</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + 8(Fe(OH)_{3A}-X_{Xfl} + Fe(OH)_{3B}-X_{Xfl} )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + 14CO_2</t>
+  </si>
+  <si>
+    <t>SO_4^{2-} + 9 Fe^{2+} + 8_{XmK} X</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + 16HCO_3^- + 4H_2O</t>
+  </si>
+  <si>
+    <t>FeS-X_{Xfl}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + 8(Fe(OH)_{3A}-X_{Xfl} + Fe(OH)_{3A}-X_{Xfl}) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + 16CO_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO_4^{2-} + 9 Fe^{2+} + (m+8Xfl)X </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + SO_4^{2-} </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + 4(MnO_{2A}-X_{Xmk} + MnO_{2B}-X_{Xmk} )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + 8CO_2 + 4H_2O </t>
+  </si>
+  <si>
+    <t>SO_4^{2-} + 4Mn^{2+} + Fe^{2+} + (m + 4Xfm) X + 8HCO_3^-</t>
+  </si>
+  <si>
+    <t>5H_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +SO_4^{2-} </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + 4H_2O</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> N_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + NO_2^- </t>
+  </si>
+  <si>
+    <t>NO_2^-</t>
+  </si>
+  <si>
+    <t>+ 2CO_2 + 5H_2O</t>
+  </si>
+  <si>
+    <t>+ \frac{1}{2} O_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*NH~4~^+^* oxidation by *O~2~*: nitrousation </t>
+  </si>
+  <si>
+    <t>+ \frac{3}{2} O_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*NH~4~^+^* oxidation by *O~2~*: nitritation </t>
+  </si>
+  <si>
+    <t>*NO~2~^-^* oxidation by *O~2~*: nitratation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2NH_4^+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N_2O </t>
+  </si>
+  <si>
+    <t>\(\displaystyle
+R_{NO2O2} = k_{NO2O2}[NO_2^-][O_2]
+\)</t>
+  </si>
+  <si>
+    <t>Ammonium oxidation</t>
+  </si>
+  <si>
+    <r>
+      <t>*NH~</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4~^</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+^*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> oxidation by *NO~</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2~^</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">-^* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Deammonification, anammox)</t>
+    </r>
+  </si>
+  <si>
+    <t>\(\displaystyle
+R_{Ammonium \  \ oxidation} = k_{NH4O2}[NH_4^+][O_2]
+\)</t>
+  </si>
+  <si>
+    <t>\(\displaystyle
+R_{NH4Ox} = R_{Ammonium \  \ oxidation} \frac{O_2}{K_{part \  \ ammox} + O_2}
+\)</t>
+  </si>
+  <si>
+    <t>\(\displaystyle
+R_{Nitrousation} = R_{Ammonium \  \ oxidation} \frac{K_{part \  \ ammox}}{K_{part\  \ ammox} + O_2}
+\)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6952,8 +7940,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7035,6 +8052,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7211,7 +8234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7540,6 +8563,19 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7561,21 +8597,42 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8154,7 +9211,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8513,6 +9570,1969 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747185F4-C622-45B4-8322-1554E18394D3}">
+  <dimension ref="B2:V27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" customWidth="1"/>
+    <col min="4" max="4" width="74.140625" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" customWidth="1"/>
+    <col min="6" max="6" width="38.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="80.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="67" t="s">
+        <v>275</v>
+      </c>
+      <c r="G2" s="143"/>
+      <c r="H2" s="144" t="s">
+        <v>635</v>
+      </c>
+      <c r="I2" s="145" t="s">
+        <v>594</v>
+      </c>
+      <c r="J2" s="145" t="s">
+        <v>595</v>
+      </c>
+      <c r="K2" s="145" t="s">
+        <v>596</v>
+      </c>
+      <c r="L2" s="145" t="s">
+        <v>597</v>
+      </c>
+      <c r="M2" s="145" t="s">
+        <v>595</v>
+      </c>
+      <c r="N2" s="146"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="146"/>
+      <c r="S2" s="146"/>
+      <c r="T2" s="146"/>
+      <c r="U2" s="146"/>
+      <c r="V2" s="146"/>
+    </row>
+    <row r="3" spans="2:22" ht="48" x14ac:dyDescent="0.25">
+      <c r="B3" s="141" t="s">
+        <v>659</v>
+      </c>
+      <c r="C3" s="61"/>
+      <c r="D3" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="G3" s="143" t="s">
+        <v>666</v>
+      </c>
+      <c r="H3" s="148" t="s">
+        <v>652</v>
+      </c>
+      <c r="I3" s="149" t="s">
+        <v>660</v>
+      </c>
+      <c r="J3" s="149" t="s">
+        <v>656</v>
+      </c>
+      <c r="K3" s="149" t="s">
+        <v>668</v>
+      </c>
+      <c r="L3" s="149" t="s">
+        <v>657</v>
+      </c>
+      <c r="M3" s="149" t="s">
+        <v>658</v>
+      </c>
+      <c r="N3" s="145" t="s">
+        <v>591</v>
+      </c>
+      <c r="O3" s="146" t="str">
+        <f>G3&amp;H3&amp;I3&amp;J3&amp;K3&amp;L3&amp;M3&amp;N3</f>
+        <v>\
+\(\displaystyle
+\ NH_4^++ 2O_2 + 2HCO_3^-  \rightarrow NO_3^-+ 2CO_2 + 3H_2O\)
+\
+\</v>
+      </c>
+      <c r="P3" s="146"/>
+      <c r="Q3" s="146"/>
+      <c r="R3" s="146"/>
+      <c r="S3" s="146"/>
+      <c r="T3" s="146"/>
+      <c r="U3" s="146"/>
+      <c r="V3" s="146"/>
+    </row>
+    <row r="4" spans="2:22" ht="48" x14ac:dyDescent="0.25">
+      <c r="B4" s="141" t="s">
+        <v>729</v>
+      </c>
+      <c r="C4" s="61"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="60" t="s">
+        <v>732</v>
+      </c>
+      <c r="G4" s="143" t="s">
+        <v>666</v>
+      </c>
+      <c r="H4" s="148" t="s">
+        <v>723</v>
+      </c>
+      <c r="I4" s="149" t="s">
+        <v>725</v>
+      </c>
+      <c r="J4" s="149"/>
+      <c r="K4" s="149" t="s">
+        <v>668</v>
+      </c>
+      <c r="L4" s="149" t="s">
+        <v>657</v>
+      </c>
+      <c r="M4" s="149"/>
+      <c r="N4" s="145" t="str">
+        <f>N7</f>
+        <v>\)
+\
+\</v>
+      </c>
+      <c r="O4" s="146" t="str">
+        <f>G4&amp;H4&amp;I4&amp;J4&amp;K4&amp;L4&amp;M4&amp;N4</f>
+        <v>\
+\(\displaystyle
+\ NO_2^-+ \frac{1}{2} O_2  \rightarrow NO_3^-\)
+\
+\</v>
+      </c>
+      <c r="P4" s="146"/>
+      <c r="Q4" s="146"/>
+      <c r="R4" s="146"/>
+      <c r="S4" s="146"/>
+      <c r="T4" s="146"/>
+      <c r="U4" s="146"/>
+      <c r="V4" s="146"/>
+    </row>
+    <row r="5" spans="2:22" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="141" t="s">
+        <v>733</v>
+      </c>
+      <c r="C5" s="61"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="60" t="s">
+        <v>735</v>
+      </c>
+      <c r="G5" s="143" t="s">
+        <v>666</v>
+      </c>
+      <c r="H5" s="148"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="149"/>
+      <c r="K5" s="149"/>
+      <c r="L5" s="149"/>
+      <c r="M5" s="149"/>
+      <c r="N5" s="145"/>
+      <c r="O5" s="146"/>
+      <c r="P5" s="146"/>
+      <c r="Q5" s="146"/>
+      <c r="R5" s="146"/>
+      <c r="S5" s="146"/>
+      <c r="T5" s="146"/>
+      <c r="U5" s="146"/>
+      <c r="V5" s="146"/>
+    </row>
+    <row r="6" spans="2:22" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="141" t="s">
+        <v>728</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="60" t="s">
+        <v>736</v>
+      </c>
+      <c r="G6" s="143" t="s">
+        <v>666</v>
+      </c>
+      <c r="H6" s="148" t="s">
+        <v>652</v>
+      </c>
+      <c r="I6" s="149" t="s">
+        <v>727</v>
+      </c>
+      <c r="J6" s="149" t="s">
+        <v>656</v>
+      </c>
+      <c r="K6" s="149" t="s">
+        <v>668</v>
+      </c>
+      <c r="L6" s="149" t="s">
+        <v>723</v>
+      </c>
+      <c r="M6" s="149" t="s">
+        <v>658</v>
+      </c>
+      <c r="N6" s="145" t="str">
+        <f>N4</f>
+        <v>\)
+\
+\</v>
+      </c>
+      <c r="O6" s="146" t="str">
+        <f>G6&amp;H6&amp;I6&amp;J6&amp;K6&amp;L6&amp;M6&amp;N6</f>
+        <v>\
+\(\displaystyle
+\ NH_4^++ \frac{3}{2} O_2 + 2HCO_3^-  \rightarrow NO_2^-+ 2CO_2 + 3H_2O\)
+\
+\</v>
+      </c>
+      <c r="P6" s="146"/>
+      <c r="Q6" s="146"/>
+      <c r="R6" s="146"/>
+      <c r="S6" s="146"/>
+      <c r="T6" s="146"/>
+      <c r="U6" s="146"/>
+      <c r="V6" s="146"/>
+    </row>
+    <row r="7" spans="2:22" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="141" t="s">
+        <v>726</v>
+      </c>
+      <c r="C7" s="61"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="60" t="s">
+        <v>737</v>
+      </c>
+      <c r="G7" s="143" t="s">
+        <v>666</v>
+      </c>
+      <c r="H7" s="148" t="s">
+        <v>730</v>
+      </c>
+      <c r="I7" s="149" t="s">
+        <v>660</v>
+      </c>
+      <c r="J7" s="149" t="s">
+        <v>656</v>
+      </c>
+      <c r="K7" s="149" t="s">
+        <v>668</v>
+      </c>
+      <c r="L7" s="149" t="s">
+        <v>731</v>
+      </c>
+      <c r="M7" s="149" t="s">
+        <v>724</v>
+      </c>
+      <c r="N7" s="145" t="str">
+        <f>N3</f>
+        <v>\)
+\
+\</v>
+      </c>
+      <c r="O7" s="146" t="str">
+        <f>G7&amp;H7&amp;I7&amp;J7&amp;K7&amp;L7&amp;M7&amp;N7</f>
+        <v>\
+\(\displaystyle
+\ 2NH_4^+ + 2O_2 + 2HCO_3^-  \rightarrow N_2O + 2CO_2 + 5H_2O\)
+\
+\</v>
+      </c>
+      <c r="P7" s="146"/>
+      <c r="Q7" s="146"/>
+      <c r="R7" s="146"/>
+      <c r="S7" s="146"/>
+      <c r="T7" s="146"/>
+      <c r="U7" s="146"/>
+      <c r="V7" s="146"/>
+    </row>
+    <row r="8" spans="2:22" ht="48" x14ac:dyDescent="0.25">
+      <c r="B8" s="141" t="s">
+        <v>734</v>
+      </c>
+      <c r="C8" s="61"/>
+      <c r="D8" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="60" t="s">
+        <v>264</v>
+      </c>
+      <c r="G8" s="143" t="str">
+        <f>G14</f>
+        <v xml:space="preserve">\
+\(\displaystyle
+\ </v>
+      </c>
+      <c r="H8" s="153" t="s">
+        <v>691</v>
+      </c>
+      <c r="I8" s="154" t="s">
+        <v>722</v>
+      </c>
+      <c r="J8" s="153"/>
+      <c r="K8" s="153" t="str">
+        <f>K14</f>
+        <v xml:space="preserve">  \rightarrow </v>
+      </c>
+      <c r="L8" s="153" t="s">
+        <v>721</v>
+      </c>
+      <c r="M8" s="154" t="s">
+        <v>673</v>
+      </c>
+      <c r="N8" s="145" t="str">
+        <f>N6</f>
+        <v>\)
+\
+\</v>
+      </c>
+      <c r="O8" s="146" t="str">
+        <f>G8&amp;H8&amp;I8&amp;J8&amp;K8&amp;L8&amp;M8&amp;N8</f>
+        <v>\
+\(\displaystyle
+\ NH_4^+  + NO_2^-   \rightarrow  N_2 + 2H_2O\)
+\
+\</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" ht="48" x14ac:dyDescent="0.25">
+      <c r="B9" s="141" t="s">
+        <v>636</v>
+      </c>
+      <c r="C9" s="61"/>
+      <c r="D9" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="60" t="s">
+        <v>257</v>
+      </c>
+      <c r="G9" s="143" t="str">
+        <f>G3</f>
+        <v xml:space="preserve">\
+\(\displaystyle
+\ </v>
+      </c>
+      <c r="H9" s="150" t="s">
+        <v>679</v>
+      </c>
+      <c r="I9" s="149" t="s">
+        <v>689</v>
+      </c>
+      <c r="J9" s="149" t="s">
+        <v>669</v>
+      </c>
+      <c r="K9" s="150" t="str">
+        <f>K3</f>
+        <v xml:space="preserve">  \rightarrow </v>
+      </c>
+      <c r="L9" s="152" t="s">
+        <v>680</v>
+      </c>
+      <c r="M9" s="149" t="s">
+        <v>661</v>
+      </c>
+      <c r="N9" s="145" t="str">
+        <f t="shared" ref="N9:N24" si="0">N8</f>
+        <v>\)
+\
+\</v>
+      </c>
+      <c r="O9" s="146" t="str">
+        <f>G9&amp;H9&amp;I9&amp;J9&amp;K9&amp;L9&amp;M9&amp;N9</f>
+        <v>\
+\(\displaystyle
+\ Mn^{2+} + _{Xmk}X+ \frac{1}{2}O_2 + 2HCO_3^-    \rightarrow  MnO_{2A}-X_{Xmk}+ 2CO_2 + H_2O\)
+\
+\</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" ht="48" x14ac:dyDescent="0.25">
+      <c r="B10" s="141" t="s">
+        <v>637</v>
+      </c>
+      <c r="C10" s="61"/>
+      <c r="D10" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="60" t="s">
+        <v>259</v>
+      </c>
+      <c r="G10" s="143" t="str">
+        <f t="shared" ref="G10:G24" si="1">G9</f>
+        <v xml:space="preserve">\
+\(\displaystyle
+\ </v>
+      </c>
+      <c r="H10" s="150" t="s">
+        <v>662</v>
+      </c>
+      <c r="I10" s="149" t="s">
+        <v>689</v>
+      </c>
+      <c r="J10" s="149" t="s">
+        <v>663</v>
+      </c>
+      <c r="K10" s="150" t="str">
+        <f t="shared" ref="K10:K24" si="2">K9</f>
+        <v xml:space="preserve">  \rightarrow </v>
+      </c>
+      <c r="L10" s="151" t="s">
+        <v>664</v>
+      </c>
+      <c r="M10" s="152" t="s">
+        <v>665</v>
+      </c>
+      <c r="N10" s="145" t="str">
+        <f t="shared" si="0"/>
+        <v>\)
+\
+\</v>
+      </c>
+      <c r="O10" s="146" t="str">
+        <f t="shared" ref="O10:O24" si="3">G10&amp;H10&amp;I10&amp;J10&amp;K10&amp;L10&amp;M10&amp;N10</f>
+        <v>\
+\(\displaystyle
+\ 4Fe^{2+}+ \frac{1}{2}O_2 + 4CO_2 + 2H_2O  \rightarrow 4Fe^{3+}+ 4HCO_3^-\)
+\
+\</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" ht="48" x14ac:dyDescent="0.25">
+      <c r="B11" s="141" t="s">
+        <v>638</v>
+      </c>
+      <c r="C11" s="61"/>
+      <c r="D11" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="60" t="s">
+        <v>260</v>
+      </c>
+      <c r="G11" s="143" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">\
+\(\displaystyle
+\ </v>
+      </c>
+      <c r="H11" s="150" t="s">
+        <v>653</v>
+      </c>
+      <c r="I11" s="149" t="s">
+        <v>660</v>
+      </c>
+      <c r="J11" s="149" t="s">
+        <v>656</v>
+      </c>
+      <c r="K11" s="150" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  \rightarrow </v>
+      </c>
+      <c r="L11" s="150" t="s">
+        <v>690</v>
+      </c>
+      <c r="M11" s="149" t="s">
+        <v>667</v>
+      </c>
+      <c r="N11" s="145" t="str">
+        <f t="shared" si="0"/>
+        <v>\)
+\
+\</v>
+      </c>
+      <c r="O11" s="146" t="str">
+        <f t="shared" si="3"/>
+        <v>\
+\(\displaystyle
+\ H_2S+ 2O_2 + 2HCO_3^-  \rightarrow SO_4^{2-}+ 2CO_2 + 2H_2O\)
+\
+\</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" ht="48" x14ac:dyDescent="0.25">
+      <c r="B12" s="141" t="s">
+        <v>639</v>
+      </c>
+      <c r="C12" s="61"/>
+      <c r="D12" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="60" t="s">
+        <v>261</v>
+      </c>
+      <c r="G12" s="143" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">\
+\(\displaystyle
+\ </v>
+      </c>
+      <c r="H12" s="150" t="s">
+        <v>654</v>
+      </c>
+      <c r="I12" s="149" t="s">
+        <v>655</v>
+      </c>
+      <c r="J12" s="150"/>
+      <c r="K12" s="150" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  \rightarrow </v>
+      </c>
+      <c r="L12" s="150"/>
+      <c r="M12" s="149" t="s">
+        <v>671</v>
+      </c>
+      <c r="N12" s="145" t="str">
+        <f t="shared" si="0"/>
+        <v>\)
+\
+\</v>
+      </c>
+      <c r="O12" s="146" t="str">
+        <f t="shared" si="3"/>
+        <v>\
+\(\displaystyle
+\ CH_4+ O_2  \rightarrow + CO_2 + H_2O\)
+\
+\</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" ht="48" x14ac:dyDescent="0.25">
+      <c r="B13" s="141" t="s">
+        <v>640</v>
+      </c>
+      <c r="C13" s="61"/>
+      <c r="D13" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="60" t="s">
+        <v>262</v>
+      </c>
+      <c r="G13" s="143" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">\
+\(\displaystyle
+\ </v>
+      </c>
+      <c r="H13" s="153" t="s">
+        <v>681</v>
+      </c>
+      <c r="I13" s="149" t="s">
+        <v>655</v>
+      </c>
+      <c r="J13" s="153"/>
+      <c r="K13" s="153" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  \rightarrow </v>
+      </c>
+      <c r="L13" s="153" t="s">
+        <v>678</v>
+      </c>
+      <c r="M13" s="153"/>
+      <c r="N13" s="145" t="str">
+        <f t="shared" si="0"/>
+        <v>\)
+\
+\</v>
+      </c>
+      <c r="O13" s="146" t="str">
+        <f t="shared" si="3"/>
+        <v>\
+\(\displaystyle
+\ FeS-X_{Xfm}+ O_2  \rightarrow SO_4^{2-} + Fe^{2+} + _{Xfm}X\)
+\
+\</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" ht="48" x14ac:dyDescent="0.25">
+      <c r="B14" s="141" t="s">
+        <v>641</v>
+      </c>
+      <c r="C14" s="61"/>
+      <c r="D14" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="60" t="s">
+        <v>263</v>
+      </c>
+      <c r="G14" s="143" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">\
+\(\displaystyle
+\ </v>
+      </c>
+      <c r="H14" s="153" t="s">
+        <v>682</v>
+      </c>
+      <c r="I14" s="149" t="s">
+        <v>670</v>
+      </c>
+      <c r="J14" s="149" t="s">
+        <v>656</v>
+      </c>
+      <c r="K14" s="153" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  \rightarrow </v>
+      </c>
+      <c r="L14" s="153" t="s">
+        <v>672</v>
+      </c>
+      <c r="M14" s="149" t="s">
+        <v>661</v>
+      </c>
+      <c r="N14" s="145" t="str">
+        <f t="shared" si="0"/>
+        <v>\)
+\
+\</v>
+      </c>
+      <c r="O14" s="146" t="str">
+        <f t="shared" si="3"/>
+        <v>\
+\(\displaystyle
+\ FeS_2- X_{Xfm}+ 3.5O_2 + 2HCO_3^-  \rightarrow Fe^{2+} + _{Xfm}X +2SO_4^{2-}+ 2CO_2 + H_2O\)
+\
+\</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" ht="48" x14ac:dyDescent="0.25">
+      <c r="B15" s="141" t="s">
+        <v>642</v>
+      </c>
+      <c r="C15" s="61"/>
+      <c r="D15" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="60" t="s">
+        <v>265</v>
+      </c>
+      <c r="G15" s="143" t="str">
+        <f>G8</f>
+        <v xml:space="preserve">\
+\(\displaystyle
+\ </v>
+      </c>
+      <c r="H15" s="153" t="s">
+        <v>674</v>
+      </c>
+      <c r="I15" s="154" t="s">
+        <v>675</v>
+      </c>
+      <c r="J15" s="154" t="s">
+        <v>676</v>
+      </c>
+      <c r="K15" s="153" t="str">
+        <f>K8</f>
+        <v xml:space="preserve">  \rightarrow </v>
+      </c>
+      <c r="L15" s="154" t="s">
+        <v>683</v>
+      </c>
+      <c r="M15" s="154" t="s">
+        <v>677</v>
+      </c>
+      <c r="N15" s="145" t="str">
+        <f t="shared" si="0"/>
+        <v>\)
+\
+\</v>
+      </c>
+      <c r="O15" s="146" t="str">
+        <f t="shared" si="3"/>
+        <v>\
+\(\displaystyle
+\ 5Mn^{2+} + 2NO_3^- + 8HCO_3^- + _{xmk}X  \rightarrow  5MnO_{2A}-_{xmk}X + 8CO_2 + 4H_2O + N_2\)
+\
+\</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" ht="48" x14ac:dyDescent="0.25">
+      <c r="B16" s="141" t="s">
+        <v>643</v>
+      </c>
+      <c r="C16" s="61"/>
+      <c r="D16" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="60" t="s">
+        <v>266</v>
+      </c>
+      <c r="G16" s="143" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">\
+\(\displaystyle
+\ </v>
+      </c>
+      <c r="H16" s="153" t="s">
+        <v>684</v>
+      </c>
+      <c r="I16" s="154" t="s">
+        <v>685</v>
+      </c>
+      <c r="J16" s="154" t="s">
+        <v>686</v>
+      </c>
+      <c r="K16" s="153" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  \rightarrow </v>
+      </c>
+      <c r="L16" s="153" t="s">
+        <v>687</v>
+      </c>
+      <c r="M16" s="154" t="s">
+        <v>688</v>
+      </c>
+      <c r="N16" s="145" t="str">
+        <f t="shared" si="0"/>
+        <v>\)
+\
+\</v>
+      </c>
+      <c r="O16" s="146" t="str">
+        <f t="shared" si="3"/>
+        <v>\
+\(\displaystyle
+\ 5Fe^{2+} + NO_3^-+ CO_2 + 3H_2O  \rightarrow  \frac{1}{2}N_2  + Fe^{3+} + 6HCO_3^-\)
+\
+\</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" ht="48" x14ac:dyDescent="0.25">
+      <c r="B17" s="141" t="s">
+        <v>644</v>
+      </c>
+      <c r="C17" s="61"/>
+      <c r="D17" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="60" t="s">
+        <v>267</v>
+      </c>
+      <c r="G17" s="143" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">\
+\(\displaystyle
+\ </v>
+      </c>
+      <c r="H17" s="153" t="s">
+        <v>692</v>
+      </c>
+      <c r="I17" s="154" t="s">
+        <v>693</v>
+      </c>
+      <c r="J17" s="154" t="s">
+        <v>694</v>
+      </c>
+      <c r="K17" s="153" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  \rightarrow </v>
+      </c>
+      <c r="L17" s="153" t="s">
+        <v>695</v>
+      </c>
+      <c r="M17" s="154" t="s">
+        <v>696</v>
+      </c>
+      <c r="N17" s="145" t="str">
+        <f t="shared" si="0"/>
+        <v>\)
+\
+\</v>
+      </c>
+      <c r="O17" s="146" t="str">
+        <f t="shared" si="3"/>
+        <v>\
+\(\displaystyle
+\ \frac{5}{2}H_2S + 4NO_3^- + HCO_3^-  \rightarrow \frac{5}{2} SO_4^{2-} +2N_2  + CO_2 + 3H_2O\)
+\
+\</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="141" t="s">
+        <v>645</v>
+      </c>
+      <c r="C18" s="61"/>
+      <c r="D18" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="60" t="s">
+        <v>268</v>
+      </c>
+      <c r="G18" s="143" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">\
+\(\displaystyle
+\ </v>
+      </c>
+      <c r="H18" s="153" t="s">
+        <v>700</v>
+      </c>
+      <c r="I18" s="154" t="s">
+        <v>703</v>
+      </c>
+      <c r="J18" s="154" t="s">
+        <v>697</v>
+      </c>
+      <c r="K18" s="153" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  \rightarrow </v>
+      </c>
+      <c r="L18" s="153" t="s">
+        <v>698</v>
+      </c>
+      <c r="M18" s="154" t="s">
+        <v>699</v>
+      </c>
+      <c r="N18" s="145" t="str">
+        <f t="shared" si="0"/>
+        <v>\)
+\
+\</v>
+      </c>
+      <c r="O18" s="146" t="str">
+        <f t="shared" si="3"/>
+        <v>\
+\(\displaystyle
+\ 2Fe^{2+}  + 21X + (MnO_{2A}-X_{Xmk} + MnO_{2B}-X_{Xmk}) + 2HCO_3^- + 2H_2O  \rightarrow 2Fe(OH)_{3A}-X_{xfl} + Mn^{2+} + kX + CO_2\)
+\
+\</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" ht="72.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="141" t="s">
+        <v>646</v>
+      </c>
+      <c r="C19" s="61"/>
+      <c r="D19" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="60" t="s">
+        <v>269</v>
+      </c>
+      <c r="G19" s="143" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">\
+\(\displaystyle
+\ </v>
+      </c>
+      <c r="H19" s="153" t="s">
+        <v>701</v>
+      </c>
+      <c r="I19" s="154" t="s">
+        <v>702</v>
+      </c>
+      <c r="J19" s="154" t="s">
+        <v>704</v>
+      </c>
+      <c r="K19" s="153" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  \rightarrow </v>
+      </c>
+      <c r="L19" s="153" t="s">
+        <v>705</v>
+      </c>
+      <c r="M19" s="154" t="s">
+        <v>688</v>
+      </c>
+      <c r="N19" s="145" t="str">
+        <f t="shared" si="0"/>
+        <v>\)
+\
+\</v>
+      </c>
+      <c r="O19" s="146" t="str">
+        <f t="shared" si="3"/>
+        <v>\
+\(\displaystyle
+\ H_2S  + 4(MnO_{2A}-X_{Xmk} + MnO_{2A}-X_{Xmk})   + 6CO_2 + 2H_2O   \rightarrow SO_4^{2-} + 4Mn^{2+}+ 4 _{Xmk}X + 6HCO_3^-\)
+\
+\</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" ht="72.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="141" t="s">
+        <v>647</v>
+      </c>
+      <c r="C20" s="61"/>
+      <c r="D20" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="60" t="s">
+        <v>270</v>
+      </c>
+      <c r="G20" s="143" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">\
+\(\displaystyle
+\ </v>
+      </c>
+      <c r="H20" s="153" t="s">
+        <v>681</v>
+      </c>
+      <c r="I20" s="154" t="s">
+        <v>715</v>
+      </c>
+      <c r="J20" s="154" t="s">
+        <v>716</v>
+      </c>
+      <c r="K20" s="153" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  \rightarrow </v>
+      </c>
+      <c r="L20" s="153" t="s">
+        <v>717</v>
+      </c>
+      <c r="M20" s="153"/>
+      <c r="N20" s="145" t="str">
+        <f t="shared" si="0"/>
+        <v>\)
+\
+\</v>
+      </c>
+      <c r="O20" s="146" t="str">
+        <f t="shared" si="3"/>
+        <v>\
+\(\displaystyle
+\ FeS-X_{Xfm} + 4(MnO_{2A}-X_{Xmk} + MnO_{2B}-X_{Xmk} ) + 8CO_2 + 4H_2O   \rightarrow SO_4^{2-} + 4Mn^{2+} + Fe^{2+} + (m + 4Xfm) X + 8HCO_3^-\)
+\
+\</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" ht="72.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="141" t="s">
+        <v>648</v>
+      </c>
+      <c r="C21" s="61"/>
+      <c r="D21" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="60" t="s">
+        <v>271</v>
+      </c>
+      <c r="G21" s="143" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">\
+\(\displaystyle
+\ </v>
+      </c>
+      <c r="H21" s="153" t="s">
+        <v>701</v>
+      </c>
+      <c r="I21" s="154" t="s">
+        <v>706</v>
+      </c>
+      <c r="J21" s="154" t="s">
+        <v>707</v>
+      </c>
+      <c r="K21" s="153" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  \rightarrow </v>
+      </c>
+      <c r="L21" s="153" t="s">
+        <v>708</v>
+      </c>
+      <c r="M21" s="154" t="s">
+        <v>709</v>
+      </c>
+      <c r="N21" s="145" t="str">
+        <f t="shared" si="0"/>
+        <v>\)
+\
+\</v>
+      </c>
+      <c r="O21" s="146" t="str">
+        <f t="shared" si="3"/>
+        <v>\
+\(\displaystyle
+\ H_2S  + 8(Fe(OH)_{3A}-X_{Xfl} + Fe(OH)_{3B}-X_{Xfl} ) + 14CO_2  \rightarrow SO_4^{2-} + 9 Fe^{2+} + 8_{XmK} X + 16HCO_3^- + 4H_2O\)
+\
+\</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" ht="72.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="141" t="s">
+        <v>649</v>
+      </c>
+      <c r="C22" s="61"/>
+      <c r="D22" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="60" t="s">
+        <v>272</v>
+      </c>
+      <c r="G22" s="143" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">\
+\(\displaystyle
+\ </v>
+      </c>
+      <c r="H22" s="153" t="s">
+        <v>710</v>
+      </c>
+      <c r="I22" s="154" t="s">
+        <v>711</v>
+      </c>
+      <c r="J22" s="154" t="s">
+        <v>712</v>
+      </c>
+      <c r="K22" s="153" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  \rightarrow </v>
+      </c>
+      <c r="L22" s="153" t="s">
+        <v>713</v>
+      </c>
+      <c r="M22" s="154" t="s">
+        <v>709</v>
+      </c>
+      <c r="N22" s="145" t="str">
+        <f t="shared" si="0"/>
+        <v>\)
+\
+\</v>
+      </c>
+      <c r="O22" s="146" t="str">
+        <f t="shared" si="3"/>
+        <v>\
+\(\displaystyle
+\ FeS-X_{Xfl} + 8(Fe(OH)_{3A}-X_{Xfl} + Fe(OH)_{3A}-X_{Xfl})  + 16CO_2  \rightarrow SO_4^{2-} + 9 Fe^{2+} + (m+8Xfl)X  + 16HCO_3^- + 4H_2O\)
+\
+\</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="142" t="s">
+        <v>650</v>
+      </c>
+      <c r="C23" s="62"/>
+      <c r="D23" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="63"/>
+      <c r="F23" s="60" t="s">
+        <v>273</v>
+      </c>
+      <c r="G23" s="143" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">\
+\(\displaystyle
+\ </v>
+      </c>
+      <c r="H23" s="153" t="s">
+        <v>654</v>
+      </c>
+      <c r="I23" s="154" t="s">
+        <v>714</v>
+      </c>
+      <c r="J23" s="154" t="s">
+        <v>699</v>
+      </c>
+      <c r="K23" s="153" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  \rightarrow </v>
+      </c>
+      <c r="L23" s="153" t="s">
+        <v>701</v>
+      </c>
+      <c r="M23" s="154" t="s">
+        <v>656</v>
+      </c>
+      <c r="N23" s="145" t="str">
+        <f t="shared" si="0"/>
+        <v>\)
+\
+\</v>
+      </c>
+      <c r="O23" s="146" t="str">
+        <f t="shared" si="3"/>
+        <v>\
+\(\displaystyle
+\ CH_4 + SO_4^{2-}  + CO_2  \rightarrow H_2S  + 2HCO_3^-\)
+\
+\</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" ht="48" x14ac:dyDescent="0.25">
+      <c r="B24" s="141" t="s">
+        <v>651</v>
+      </c>
+      <c r="C24" s="61"/>
+      <c r="D24" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="60" t="s">
+        <v>274</v>
+      </c>
+      <c r="G24" s="143" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">\
+\(\displaystyle
+\ </v>
+      </c>
+      <c r="H24" s="153" t="s">
+        <v>718</v>
+      </c>
+      <c r="I24" s="154" t="s">
+        <v>719</v>
+      </c>
+      <c r="J24" s="153"/>
+      <c r="K24" s="153" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  \rightarrow </v>
+      </c>
+      <c r="L24" s="153" t="s">
+        <v>701</v>
+      </c>
+      <c r="M24" s="154" t="s">
+        <v>720</v>
+      </c>
+      <c r="N24" s="145" t="str">
+        <f t="shared" si="0"/>
+        <v>\)
+\
+\</v>
+      </c>
+      <c r="O24" s="146" t="str">
+        <f t="shared" si="3"/>
+        <v>\
+\(\displaystyle
+\ 5H_2 +SO_4^{2-}   \rightarrow H_2S  + 4H_2O\)
+\
+\</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="142"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="153"/>
+      <c r="I25" s="153"/>
+      <c r="J25" s="153"/>
+      <c r="K25" s="153"/>
+      <c r="L25" s="153"/>
+      <c r="M25" s="153"/>
+      <c r="N25" s="143"/>
+      <c r="O25" s="146"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="143"/>
+      <c r="J26" s="143"/>
+      <c r="K26" s="143"/>
+      <c r="L26" s="143"/>
+      <c r="M26" s="143"/>
+      <c r="N26" s="143"/>
+      <c r="O26" s="143"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G27" s="143"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="143"/>
+      <c r="K27" s="143"/>
+      <c r="L27" s="143"/>
+      <c r="M27" s="143"/>
+      <c r="N27" s="143"/>
+      <c r="O27" s="143"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8F2236-79D6-438F-8440-5893942C5CA4}">
+  <dimension ref="B2:V25"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" customWidth="1"/>
+    <col min="4" max="4" width="74.140625" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" customWidth="1"/>
+    <col min="6" max="6" width="38.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="80.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="67" t="s">
+        <v>275</v>
+      </c>
+      <c r="G2" s="143"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="146"/>
+      <c r="S2" s="146"/>
+      <c r="T2" s="146"/>
+      <c r="U2" s="146"/>
+      <c r="V2" s="146"/>
+    </row>
+    <row r="3" spans="2:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="B3" s="141" t="str">
+        <f>'SecondChem (2)'!B3</f>
+        <v>Simple *NH~4~^+^* oxidation by *O~2~*</v>
+      </c>
+      <c r="C3" s="61"/>
+      <c r="D3" s="11" t="str">
+        <f>'SecondChem (2)'!O3</f>
+        <v>\
+\(\displaystyle
+\ NH_4^++ 2O_2 + 2HCO_3^-  \rightarrow NO_3^-+ 2CO_2 + 3H_2O\)
+\
+\</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="60" t="str">
+        <f>'SecondChem (2)'!F3</f>
+        <v>\(\displaystyle
+R_{NH4Ox} = k_{NH4Ox}[NH_4^+][O_2]
+\)</v>
+      </c>
+      <c r="G3" s="143"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="147"/>
+      <c r="L3" s="147"/>
+      <c r="M3" s="147"/>
+      <c r="N3" s="145"/>
+      <c r="O3" s="146"/>
+      <c r="P3" s="146"/>
+      <c r="Q3" s="146"/>
+      <c r="R3" s="146"/>
+      <c r="S3" s="146"/>
+      <c r="T3" s="146"/>
+      <c r="U3" s="146"/>
+      <c r="V3" s="146"/>
+    </row>
+    <row r="4" spans="2:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="B4" s="141" t="str">
+        <f>'SecondChem (2)'!B5</f>
+        <v>Ammonium oxidation</v>
+      </c>
+      <c r="C4" s="61"/>
+      <c r="D4" s="11">
+        <f>'SecondChem (2)'!O5</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="60" t="str">
+        <f>'SecondChem (2)'!F5</f>
+        <v>\(\displaystyle
+R_{Ammonium \  \ oxidation} = k_{NH4O2}[NH_4^+][O_2]
+\)</v>
+      </c>
+      <c r="G4" s="143"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="143"/>
+      <c r="L4" s="143"/>
+      <c r="M4" s="147"/>
+      <c r="N4" s="143"/>
+      <c r="O4" s="146"/>
+    </row>
+    <row r="5" spans="2:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="B5" s="141" t="str">
+        <f>'SecondChem (2)'!B7</f>
+        <v xml:space="preserve">*NH~4~^+^* oxidation by *O~2~*: nitrousation </v>
+      </c>
+      <c r="C5" s="61"/>
+      <c r="D5" s="11" t="str">
+        <f>'SecondChem (2)'!O7</f>
+        <v>\
+\(\displaystyle
+\ 2NH_4^+ + 2O_2 + 2HCO_3^-  \rightarrow N_2O + 2CO_2 + 5H_2O\)
+\
+\</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="60" t="str">
+        <f>'SecondChem (2)'!F7</f>
+        <v>\(\displaystyle
+R_{Nitrousation} = R_{Ammonium \  \ oxidation} \frac{K_{part \  \ ammox}}{K_{part\  \ ammox} + O_2}
+\)</v>
+      </c>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="143"/>
+      <c r="K5" s="143"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="143"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="146"/>
+    </row>
+    <row r="6" spans="2:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="B6" s="141" t="str">
+        <f>'SecondChem (2)'!B4</f>
+        <v>*NO~2~^-^* oxidation by *O~2~*: nitratation</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="11" t="str">
+        <f>'SecondChem (2)'!O4</f>
+        <v>\
+\(\displaystyle
+\ NO_2^-+ \frac{1}{2} O_2  \rightarrow NO_3^-\)
+\
+\</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="60" t="str">
+        <f>'SecondChem (2)'!F4</f>
+        <v>\(\displaystyle
+R_{NO2O2} = k_{NO2O2}[NO_2^-][O_2]
+\)</v>
+      </c>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143"/>
+      <c r="O6" s="146"/>
+    </row>
+    <row r="7" spans="2:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="B7" s="141" t="str">
+        <f>'SecondChem (2)'!B6</f>
+        <v xml:space="preserve">*NH~4~^+^* oxidation by *O~2~*: nitritation </v>
+      </c>
+      <c r="C7" s="61"/>
+      <c r="D7" s="11" t="str">
+        <f>'SecondChem (2)'!O6</f>
+        <v>\
+\(\displaystyle
+\ NH_4^++ \frac{3}{2} O_2 + 2HCO_3^-  \rightarrow NO_2^-+ 2CO_2 + 3H_2O\)
+\
+\</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="60" t="str">
+        <f>'SecondChem (2)'!F6</f>
+        <v>\(\displaystyle
+R_{NH4Ox} = R_{Ammonium \  \ oxidation} \frac{O_2}{K_{part \  \ ammox} + O_2}
+\)</v>
+      </c>
+      <c r="G7" s="143"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="143"/>
+      <c r="N7" s="143"/>
+      <c r="O7" s="146"/>
+    </row>
+    <row r="8" spans="2:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="B8" s="141" t="str">
+        <f>'SecondChem (2)'!B8</f>
+        <v>*NH~4~^+^* oxidation by *NO~2~^-^* (Deammonification, anammox)</v>
+      </c>
+      <c r="C8" s="61"/>
+      <c r="D8" s="11" t="str">
+        <f>'SecondChem (2)'!O8</f>
+        <v>\
+\(\displaystyle
+\ NH_4^+  + NO_2^-   \rightarrow  N_2 + 2H_2O\)
+\
+\</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="60" t="str">
+        <f>'SecondChem (2)'!F8</f>
+        <v>\(\displaystyle
+R_{NH4NO2} = k_{NH4NO2}[NH_4^+][O_2]
+\)</v>
+      </c>
+      <c r="G8" s="143"/>
+      <c r="H8" s="143"/>
+      <c r="I8" s="143"/>
+      <c r="J8" s="143"/>
+      <c r="K8" s="143"/>
+      <c r="L8" s="143"/>
+      <c r="M8" s="143"/>
+      <c r="N8" s="143"/>
+      <c r="O8" s="146"/>
+    </row>
+    <row r="9" spans="2:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="B9" s="141" t="str">
+        <f>'SecondChem (2)'!B9</f>
+        <v>*Mn^2+^* oxidation by *O~2~*</v>
+      </c>
+      <c r="C9" s="61"/>
+      <c r="D9" s="11" t="str">
+        <f>'SecondChem (2)'!O9</f>
+        <v>\
+\(\displaystyle
+\ Mn^{2+} + _{Xmk}X+ \frac{1}{2}O_2 + 2HCO_3^-    \rightarrow  MnO_{2A}-X_{Xmk}+ 2CO_2 + H_2O\)
+\
+\</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="60" t="str">
+        <f>'SecondChem (2)'!F9</f>
+        <v>\(\displaystyle
+R_{MnOx} = k_{MnOx}[Mn^{2+}][O_2]
+\)</v>
+      </c>
+      <c r="G9" s="143"/>
+      <c r="H9" s="143"/>
+      <c r="I9" s="143"/>
+      <c r="J9" s="143"/>
+      <c r="K9" s="143"/>
+      <c r="L9" s="143"/>
+      <c r="M9" s="143"/>
+      <c r="N9" s="143"/>
+      <c r="O9" s="146"/>
+    </row>
+    <row r="10" spans="2:22" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="141" t="str">
+        <f>'SecondChem (2)'!B10</f>
+        <v>*Fe^2+^* oxidation by *O~2~*</v>
+      </c>
+      <c r="C10" s="61"/>
+      <c r="D10" s="11" t="str">
+        <f>'SecondChem (2)'!O10</f>
+        <v>\
+\(\displaystyle
+\ 4Fe^{2+}+ \frac{1}{2}O_2 + 4CO_2 + 2H_2O  \rightarrow 4Fe^{3+}+ 4HCO_3^-\)
+\
+\</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="60" t="str">
+        <f>'SecondChem (2)'!F10</f>
+        <v>\(\displaystyle
+R_{FeOx} = k_{FeOx}[Fe^{2+}][O_2]
+\)</v>
+      </c>
+      <c r="G10" s="143"/>
+      <c r="H10" s="143"/>
+      <c r="I10" s="143"/>
+      <c r="J10" s="143"/>
+      <c r="K10" s="143"/>
+      <c r="L10" s="143"/>
+      <c r="M10" s="143"/>
+      <c r="N10" s="143"/>
+      <c r="O10" s="146"/>
+    </row>
+    <row r="11" spans="2:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="B11" s="141" t="str">
+        <f>'SecondChem (2)'!B11</f>
+        <v>*H~2~S* oxidation by *O~2~*</v>
+      </c>
+      <c r="C11" s="61"/>
+      <c r="D11" s="11" t="str">
+        <f>'SecondChem (2)'!O11</f>
+        <v>\
+\(\displaystyle
+\ H_2S+ 2O_2 + 2HCO_3^-  \rightarrow SO_4^{2-}+ 2CO_2 + 2H_2O\)
+\
+\</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="60" t="str">
+        <f>'SecondChem (2)'!F11</f>
+        <v>\(\displaystyle
+R_{TSOx} = k_{TSOx}[H_2S][O_2]
+\)</v>
+      </c>
+      <c r="G11" s="143"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="143"/>
+      <c r="K11" s="143"/>
+      <c r="L11" s="143"/>
+      <c r="M11" s="143"/>
+      <c r="N11" s="143"/>
+      <c r="O11" s="146"/>
+    </row>
+    <row r="12" spans="2:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="B12" s="141" t="str">
+        <f>'SecondChem (2)'!B12</f>
+        <v>*CH~4~* oxidation by *O~2~*</v>
+      </c>
+      <c r="C12" s="61"/>
+      <c r="D12" s="11" t="str">
+        <f>'SecondChem (2)'!O12</f>
+        <v>\
+\(\displaystyle
+\ CH_4+ O_2  \rightarrow + CO_2 + H_2O\)
+\
+\</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="60" t="str">
+        <f>'SecondChem (2)'!F12</f>
+        <v>\(\displaystyle
+R_{CH4Ox} = k_{CH4Ox}[CH_4][O_2]
+\)</v>
+      </c>
+      <c r="G12" s="143"/>
+      <c r="H12" s="143"/>
+      <c r="I12" s="143"/>
+      <c r="J12" s="143"/>
+      <c r="K12" s="143"/>
+      <c r="L12" s="143"/>
+      <c r="M12" s="143"/>
+      <c r="N12" s="143"/>
+      <c r="O12" s="146"/>
+    </row>
+    <row r="13" spans="2:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="B13" s="141" t="str">
+        <f>'SecondChem (2)'!B13</f>
+        <v>*FeS* oxidation by *O~2~*</v>
+      </c>
+      <c r="C13" s="61"/>
+      <c r="D13" s="11" t="str">
+        <f>'SecondChem (2)'!O13</f>
+        <v>\
+\(\displaystyle
+\ FeS-X_{Xfm}+ O_2  \rightarrow SO_4^{2-} + Fe^{2+} + _{Xfm}X\)
+\
+\</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="60" t="str">
+        <f>'SecondChem (2)'!F13</f>
+        <v>\(\displaystyle
+R_{FeSOx} = k_{FeSOx}[FeS][O_2]
+\)</v>
+      </c>
+      <c r="G13" s="143"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="143"/>
+      <c r="J13" s="143"/>
+      <c r="K13" s="143"/>
+      <c r="L13" s="143"/>
+      <c r="M13" s="143"/>
+      <c r="N13" s="143"/>
+      <c r="O13" s="146"/>
+    </row>
+    <row r="14" spans="2:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="B14" s="141" t="str">
+        <f>'SecondChem (2)'!B14</f>
+        <v>*FeS~2~* oxidation by *O~2~*</v>
+      </c>
+      <c r="C14" s="61"/>
+      <c r="D14" s="11" t="str">
+        <f>'SecondChem (2)'!O14</f>
+        <v>\
+\(\displaystyle
+\ FeS_2- X_{Xfm}+ 3.5O_2 + 2HCO_3^-  \rightarrow Fe^{2+} + _{Xfm}X +2SO_4^{2-}+ 2CO_2 + H_2O\)
+\
+\</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="60" t="str">
+        <f>'SecondChem (2)'!F14</f>
+        <v>\(\displaystyle
+R_{FeS2Ox} = k_{FeS2Ox}[FeS_2][O_2]
+\)</v>
+      </c>
+      <c r="G14" s="143"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="143"/>
+      <c r="J14" s="143"/>
+      <c r="K14" s="143"/>
+      <c r="L14" s="143"/>
+      <c r="M14" s="143"/>
+      <c r="N14" s="143"/>
+      <c r="O14" s="146"/>
+    </row>
+    <row r="15" spans="2:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="B15" s="141" t="str">
+        <f>'SecondChem (2)'!B15</f>
+        <v>*Mn^2+^* oxidation by *NO~3~^-^*</v>
+      </c>
+      <c r="C15" s="61"/>
+      <c r="D15" s="11" t="str">
+        <f>'SecondChem (2)'!O15</f>
+        <v>\
+\(\displaystyle
+\ 5Mn^{2+} + 2NO_3^- + 8HCO_3^- + _{xmk}X  \rightarrow  5MnO_{2A}-_{xmk}X + 8CO_2 + 4H_2O + N_2\)
+\
+\</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="60" t="str">
+        <f>'SecondChem (2)'!F15</f>
+        <v>\(\displaystyle
+R_{MnNO3} = k_{MnNO3}[Mn^{2+}][NO_3^-]
+\)</v>
+      </c>
+      <c r="G15" s="143"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="143"/>
+      <c r="K15" s="143"/>
+      <c r="L15" s="143"/>
+      <c r="M15" s="143"/>
+      <c r="N15" s="143"/>
+      <c r="O15" s="146"/>
+    </row>
+    <row r="16" spans="2:22" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="141" t="str">
+        <f>'SecondChem (2)'!B16</f>
+        <v>*Fe^2+^* oxidation by *NO~3~^-^*</v>
+      </c>
+      <c r="C16" s="61"/>
+      <c r="D16" s="11" t="str">
+        <f>'SecondChem (2)'!O16</f>
+        <v>\
+\(\displaystyle
+\ 5Fe^{2+} + NO_3^-+ CO_2 + 3H_2O  \rightarrow  \frac{1}{2}N_2  + Fe^{3+} + 6HCO_3^-\)
+\
+\</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="60" t="str">
+        <f>'SecondChem (2)'!F16</f>
+        <v>\(\displaystyle
+R_{FeNO3} = k_{FeNO3}[Fe^{2+}][NO_3^-]
+\)</v>
+      </c>
+      <c r="G16" s="143"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="143"/>
+      <c r="J16" s="143"/>
+      <c r="K16" s="143"/>
+      <c r="L16" s="143"/>
+      <c r="M16" s="143"/>
+      <c r="N16" s="143"/>
+      <c r="O16" s="146"/>
+    </row>
+    <row r="17" spans="2:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="B17" s="141" t="str">
+        <f>'SecondChem (2)'!B17</f>
+        <v>∑*H~2~S* oxidation by *NO~3~^-^*</v>
+      </c>
+      <c r="C17" s="61"/>
+      <c r="D17" s="11" t="str">
+        <f>'SecondChem (2)'!O17</f>
+        <v>\
+\(\displaystyle
+\ \frac{5}{2}H_2S + 4NO_3^- + HCO_3^-  \rightarrow \frac{5}{2} SO_4^{2-} +2N_2  + CO_2 + 3H_2O\)
+\
+\</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="60" t="str">
+        <f>'SecondChem (2)'!F17</f>
+        <v>\(\displaystyle
+R_{TSNO3} = k_{TSNO3}[H_2S][NO_3^-]
+\)</v>
+      </c>
+      <c r="G17" s="143"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="143"/>
+      <c r="K17" s="143"/>
+      <c r="L17" s="143"/>
+      <c r="M17" s="143"/>
+      <c r="N17" s="143"/>
+      <c r="O17" s="146"/>
+    </row>
+    <row r="18" spans="2:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="B18" s="141" t="str">
+        <f>'SecondChem (2)'!B18</f>
+        <v>*Fe^2+^* oxidation by *MnO~2A,~ ~B~*</v>
+      </c>
+      <c r="C18" s="61"/>
+      <c r="D18" s="11" t="str">
+        <f>'SecondChem (2)'!O18</f>
+        <v>\
+\(\displaystyle
+\ 2Fe^{2+}  + 21X + (MnO_{2A}-X_{Xmk} + MnO_{2B}-X_{Xmk}) + 2HCO_3^- + 2H_2O  \rightarrow 2Fe(OH)_{3A}-X_{xfl} + Mn^{2+} + kX + CO_2\)
+\
+\</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="60" t="str">
+        <f>'SecondChem (2)'!F18</f>
+        <v>\(\displaystyle
+R_{FeMn} = k_{FeMn}[Fe^{2+}][MnO_{2A, B}]
+\)</v>
+      </c>
+      <c r="G18" s="143"/>
+      <c r="H18" s="143"/>
+      <c r="I18" s="143"/>
+      <c r="J18" s="143"/>
+      <c r="K18" s="143"/>
+      <c r="L18" s="143"/>
+      <c r="M18" s="143"/>
+      <c r="N18" s="143"/>
+      <c r="O18" s="146"/>
+    </row>
+    <row r="19" spans="2:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="B19" s="141" t="str">
+        <f>'SecondChem (2)'!B19</f>
+        <v>∑*H~2~S* oxidation by *MnO~2A,~ ~B~*</v>
+      </c>
+      <c r="C19" s="61"/>
+      <c r="D19" s="11" t="str">
+        <f>'SecondChem (2)'!O19</f>
+        <v>\
+\(\displaystyle
+\ H_2S  + 4(MnO_{2A}-X_{Xmk} + MnO_{2A}-X_{Xmk})   + 6CO_2 + 2H_2O   \rightarrow SO_4^{2-} + 4Mn^{2+}+ 4 _{Xmk}X + 6HCO_3^-\)
+\
+\</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="60" t="str">
+        <f>'SecondChem (2)'!F19</f>
+        <v>\(\displaystyle
+R_{TSMnO2} = k_{TSMnO2}[H_2S][MnO_{2A, B}]
+\)</v>
+      </c>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="143"/>
+      <c r="K19" s="143"/>
+      <c r="L19" s="143"/>
+      <c r="M19" s="143"/>
+      <c r="N19" s="143"/>
+      <c r="O19" s="146"/>
+    </row>
+    <row r="20" spans="2:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="B20" s="141" t="str">
+        <f>'SecondChem (2)'!B20</f>
+        <v>*FeS* oxidation by *MnO~2A,~ ~B~*</v>
+      </c>
+      <c r="C20" s="61"/>
+      <c r="D20" s="11" t="str">
+        <f>'SecondChem (2)'!O20</f>
+        <v>\
+\(\displaystyle
+\ FeS-X_{Xfm} + 4(MnO_{2A}-X_{Xmk} + MnO_{2B}-X_{Xmk} ) + 8CO_2 + 4H_2O   \rightarrow SO_4^{2-} + 4Mn^{2+} + Fe^{2+} + (m + 4Xfm) X + 8HCO_3^-\)
+\
+\</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="60" t="str">
+        <f>'SecondChem (2)'!F20</f>
+        <v>\(\displaystyle
+R_{FeSMn} = k_{FeSMn}[FeS][MnO_{2A, B}]
+\)</v>
+      </c>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="143"/>
+      <c r="K20" s="143"/>
+      <c r="L20" s="143"/>
+      <c r="M20" s="143"/>
+      <c r="N20" s="143"/>
+      <c r="O20" s="146"/>
+    </row>
+    <row r="21" spans="2:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="B21" s="141" t="str">
+        <f>'SecondChem (2)'!B21</f>
+        <v>∑*H~2~S* oxidation by *Fe(OH)~3A,~ ~B~*</v>
+      </c>
+      <c r="C21" s="61"/>
+      <c r="D21" s="11" t="str">
+        <f>'SecondChem (2)'!O21</f>
+        <v>\
+\(\displaystyle
+\ H_2S  + 8(Fe(OH)_{3A}-X_{Xfl} + Fe(OH)_{3B}-X_{Xfl} ) + 14CO_2  \rightarrow SO_4^{2-} + 9 Fe^{2+} + 8_{XmK} X + 16HCO_3^- + 4H_2O\)
+\
+\</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="60" t="str">
+        <f>'SecondChem (2)'!F21</f>
+        <v>\(\displaystyle
+R_{TSFe} = k_{TSFe}[H_2S][Fe(OH)_{3A, B}]
+\)</v>
+      </c>
+      <c r="G21" s="143"/>
+      <c r="H21" s="143"/>
+      <c r="I21" s="143"/>
+      <c r="J21" s="143"/>
+      <c r="K21" s="143"/>
+      <c r="L21" s="143"/>
+      <c r="M21" s="143"/>
+      <c r="N21" s="143"/>
+      <c r="O21" s="146"/>
+    </row>
+    <row r="22" spans="2:15" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="141" t="str">
+        <f>'SecondChem (2)'!B22</f>
+        <v>*FeS* oxidation by *Fe(OH)~3A,~ ~B~*</v>
+      </c>
+      <c r="C22" s="61"/>
+      <c r="D22" s="11" t="str">
+        <f>'SecondChem (2)'!O22</f>
+        <v>\
+\(\displaystyle
+\ FeS-X_{Xfl} + 8(Fe(OH)_{3A}-X_{Xfl} + Fe(OH)_{3A}-X_{Xfl})  + 16CO_2  \rightarrow SO_4^{2-} + 9 Fe^{2+} + (m+8Xfl)X  + 16HCO_3^- + 4H_2O\)
+\
+\</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="60" t="str">
+        <f>'SecondChem (2)'!F22</f>
+        <v>\(\displaystyle
+R_{FeSFe} = k_{FeSFe}[FeS][Fe(OH)_{3A, B}]
+\)</v>
+      </c>
+      <c r="G22" s="143"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="143"/>
+      <c r="J22" s="143"/>
+      <c r="K22" s="143"/>
+      <c r="L22" s="143"/>
+      <c r="M22" s="143"/>
+      <c r="N22" s="143"/>
+      <c r="O22" s="143"/>
+    </row>
+    <row r="23" spans="2:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="B23" s="141" t="str">
+        <f>'SecondChem (2)'!B23</f>
+        <v>*CH~4~* oxidation by *SO~4~^2-^*</v>
+      </c>
+      <c r="C23" s="61"/>
+      <c r="D23" s="11" t="str">
+        <f>'SecondChem (2)'!O23</f>
+        <v>\
+\(\displaystyle
+\ CH_4 + SO_4^{2-}  + CO_2  \rightarrow H_2S  + 2HCO_3^-\)
+\
+\</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="60" t="str">
+        <f>'SecondChem (2)'!F23</f>
+        <v>\(\displaystyle
+R_{CH4SO4} = k_{CH4SO4}[CH_4][SO_2^{2-}]
+\)</v>
+      </c>
+      <c r="G23" s="143"/>
+      <c r="H23" s="143"/>
+      <c r="I23" s="143"/>
+      <c r="J23" s="143"/>
+      <c r="K23" s="143"/>
+      <c r="L23" s="143"/>
+      <c r="M23" s="143"/>
+      <c r="N23" s="143"/>
+      <c r="O23" s="143"/>
+    </row>
+    <row r="24" spans="2:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="B24" s="141" t="str">
+        <f>'SecondChem (2)'!B24</f>
+        <v>*H~2~* oxidation by *SO~4~^2-^*</v>
+      </c>
+      <c r="C24" s="61"/>
+      <c r="D24" s="11" t="str">
+        <f>'SecondChem (2)'!O24</f>
+        <v>\
+\(\displaystyle
+\ 5H_2 +SO_4^{2-}   \rightarrow H_2S  + 4H_2O\)
+\
+\</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="60" t="str">
+        <f>'SecondChem (2)'!F24</f>
+        <v>\(\displaystyle
+R_{HSO} = k_{HSO}[H_2][SO_4^{2-}]
+\)</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="141"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="60"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D39702-7F6C-4E77-B128-9B5539B55C21}">
   <dimension ref="B2:E21"/>
   <sheetViews>
@@ -8644,7 +11664,7 @@
       </c>
       <c r="D14" s="38"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" ht="27" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>110</v>
       </c>
@@ -8713,7 +11733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C5C115-0656-4E87-B01A-1390B4A383FF}">
   <dimension ref="B2:F18"/>
   <sheetViews>
@@ -8886,7 +11906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B560C3-603A-4072-964D-8AC36A7F1082}">
   <dimension ref="B2:I26"/>
   <sheetViews>
@@ -9198,7 +12218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD0E9BC-2EA0-4A56-9CC5-8E3BC1C05EEF}">
   <dimension ref="B2:E12"/>
   <sheetViews>
@@ -9298,7 +12318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25450DC4-1D8E-418F-8914-A22446A51CB2}">
   <dimension ref="B2:I30"/>
   <sheetViews>
@@ -9548,7 +12568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE4CBC3-07DC-423B-806D-A8AE36FA71B5}">
   <dimension ref="B2:S51"/>
   <sheetViews>
@@ -10284,7 +13304,439 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBA0FB1-7A19-4ECF-8FF5-02D3A0E6D618}">
+  <dimension ref="A1:M41"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="53.42578125" customWidth="1"/>
+    <col min="3" max="3" width="51" customWidth="1"/>
+    <col min="10" max="10" width="35" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J11" s="71" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>311</v>
+      </c>
+      <c r="I14" s="68" t="s">
+        <v>312</v>
+      </c>
+      <c r="J14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>314</v>
+      </c>
+      <c r="I15" s="69" t="s">
+        <v>315</v>
+      </c>
+      <c r="J15" t="s">
+        <v>316</v>
+      </c>
+      <c r="K15" s="74"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>317</v>
+      </c>
+      <c r="I16" s="69" t="s">
+        <v>318</v>
+      </c>
+      <c r="J16" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="17" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>320</v>
+      </c>
+      <c r="I17" s="69" t="s">
+        <v>321</v>
+      </c>
+      <c r="J17" t="s">
+        <v>322</v>
+      </c>
+      <c r="K17" s="46">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>323</v>
+      </c>
+      <c r="I18" s="69" t="s">
+        <v>324</v>
+      </c>
+      <c r="J18" t="s">
+        <v>325</v>
+      </c>
+      <c r="L18" s="72">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>326</v>
+      </c>
+      <c r="I19" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="20" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H20" s="70" t="s">
+        <v>328</v>
+      </c>
+      <c r="I20" s="70" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="21" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>330</v>
+      </c>
+      <c r="I21" t="s">
+        <v>331</v>
+      </c>
+      <c r="J21" t="s">
+        <v>332</v>
+      </c>
+      <c r="K21" s="74"/>
+    </row>
+    <row r="22" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>333</v>
+      </c>
+      <c r="I22" t="s">
+        <v>334</v>
+      </c>
+      <c r="J22" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="23" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>336</v>
+      </c>
+      <c r="I23" t="s">
+        <v>337</v>
+      </c>
+      <c r="J23" t="s">
+        <v>338</v>
+      </c>
+      <c r="K23" s="46">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>339</v>
+      </c>
+      <c r="I24" t="s">
+        <v>340</v>
+      </c>
+      <c r="J24" t="s">
+        <v>341</v>
+      </c>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>342</v>
+      </c>
+      <c r="I25" t="s">
+        <v>343</v>
+      </c>
+      <c r="J25" t="s">
+        <v>344</v>
+      </c>
+      <c r="K25" s="74"/>
+    </row>
+    <row r="26" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>345</v>
+      </c>
+      <c r="I26" t="s">
+        <v>346</v>
+      </c>
+      <c r="J26" t="s">
+        <v>347</v>
+      </c>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>348</v>
+      </c>
+      <c r="I27" t="s">
+        <v>349</v>
+      </c>
+      <c r="J27" t="s">
+        <v>350</v>
+      </c>
+      <c r="L27" s="73">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="28" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>351</v>
+      </c>
+      <c r="I28" t="s">
+        <v>352</v>
+      </c>
+      <c r="J28" t="s">
+        <v>353</v>
+      </c>
+      <c r="L28" s="73">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H29" s="70" t="s">
+        <v>354</v>
+      </c>
+      <c r="I29" s="70" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="30" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>356</v>
+      </c>
+      <c r="I30" t="s">
+        <v>357</v>
+      </c>
+      <c r="J30" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="31" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>359</v>
+      </c>
+      <c r="I31" t="s">
+        <v>360</v>
+      </c>
+      <c r="J31" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="32" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>362</v>
+      </c>
+      <c r="I32" t="s">
+        <v>363</v>
+      </c>
+      <c r="J32" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="33" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>365</v>
+      </c>
+      <c r="I33" t="s">
+        <v>366</v>
+      </c>
+      <c r="J33" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="34" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>368</v>
+      </c>
+      <c r="I34" t="s">
+        <v>369</v>
+      </c>
+      <c r="J34" t="s">
+        <v>370</v>
+      </c>
+      <c r="K34" s="74"/>
+    </row>
+    <row r="35" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>371</v>
+      </c>
+      <c r="I35" t="s">
+        <v>372</v>
+      </c>
+      <c r="J35" t="s">
+        <v>373</v>
+      </c>
+      <c r="K35" s="74"/>
+    </row>
+    <row r="36" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>374</v>
+      </c>
+      <c r="I36" t="s">
+        <v>375</v>
+      </c>
+      <c r="J36" t="s">
+        <v>376</v>
+      </c>
+      <c r="K36" s="74"/>
+    </row>
+    <row r="37" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H37" s="70" t="s">
+        <v>377</v>
+      </c>
+      <c r="I37" s="70" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="38" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>379</v>
+      </c>
+      <c r="I38" s="69" t="s">
+        <v>380</v>
+      </c>
+      <c r="J38" t="s">
+        <v>381</v>
+      </c>
+      <c r="K38" s="74"/>
+    </row>
+    <row r="39" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>382</v>
+      </c>
+      <c r="I39" t="s">
+        <v>383</v>
+      </c>
+      <c r="J39" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="40" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H40" s="74" t="s">
+        <v>385</v>
+      </c>
+      <c r="I40" s="74" t="s">
+        <v>386</v>
+      </c>
+      <c r="J40" s="74" t="s">
+        <v>387</v>
+      </c>
+      <c r="K40" s="74"/>
+      <c r="L40" s="74"/>
+      <c r="M40" s="74"/>
+    </row>
+    <row r="41" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>388</v>
+      </c>
+      <c r="I41" t="s">
+        <v>389</v>
+      </c>
+      <c r="J41" t="s">
+        <v>390</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF787CF5-9889-4ECA-A90E-89E1F3698E15}">
   <dimension ref="B2:G2"/>
   <sheetViews>
@@ -10327,7 +13779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747BAD0A-72B9-41AC-8108-F7D4CE328F54}">
   <dimension ref="B2:G11"/>
   <sheetViews>
@@ -10490,439 +13942,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBA0FB1-7A19-4ECF-8FF5-02D3A0E6D618}">
-  <dimension ref="A1:M41"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33.5703125" customWidth="1"/>
-    <col min="2" max="2" width="53.42578125" customWidth="1"/>
-    <col min="3" max="3" width="51" customWidth="1"/>
-    <col min="10" max="10" width="35" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J11" s="71" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H14" t="s">
-        <v>311</v>
-      </c>
-      <c r="I14" s="68" t="s">
-        <v>312</v>
-      </c>
-      <c r="J14" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H15" t="s">
-        <v>314</v>
-      </c>
-      <c r="I15" s="69" t="s">
-        <v>315</v>
-      </c>
-      <c r="J15" t="s">
-        <v>316</v>
-      </c>
-      <c r="K15" s="74"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H16" t="s">
-        <v>317</v>
-      </c>
-      <c r="I16" s="69" t="s">
-        <v>318</v>
-      </c>
-      <c r="J16" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="17" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H17" t="s">
-        <v>320</v>
-      </c>
-      <c r="I17" s="69" t="s">
-        <v>321</v>
-      </c>
-      <c r="J17" t="s">
-        <v>322</v>
-      </c>
-      <c r="K17" s="46">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H18" t="s">
-        <v>323</v>
-      </c>
-      <c r="I18" s="69" t="s">
-        <v>324</v>
-      </c>
-      <c r="J18" t="s">
-        <v>325</v>
-      </c>
-      <c r="L18" s="72">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H19" t="s">
-        <v>326</v>
-      </c>
-      <c r="I19" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="20" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H20" s="70" t="s">
-        <v>328</v>
-      </c>
-      <c r="I20" s="70" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="21" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H21" t="s">
-        <v>330</v>
-      </c>
-      <c r="I21" t="s">
-        <v>331</v>
-      </c>
-      <c r="J21" t="s">
-        <v>332</v>
-      </c>
-      <c r="K21" s="74"/>
-    </row>
-    <row r="22" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H22" t="s">
-        <v>333</v>
-      </c>
-      <c r="I22" t="s">
-        <v>334</v>
-      </c>
-      <c r="J22" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="23" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H23" t="s">
-        <v>336</v>
-      </c>
-      <c r="I23" t="s">
-        <v>337</v>
-      </c>
-      <c r="J23" t="s">
-        <v>338</v>
-      </c>
-      <c r="K23" s="46">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="24" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H24" t="s">
-        <v>339</v>
-      </c>
-      <c r="I24" t="s">
-        <v>340</v>
-      </c>
-      <c r="J24" t="s">
-        <v>341</v>
-      </c>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H25" t="s">
-        <v>342</v>
-      </c>
-      <c r="I25" t="s">
-        <v>343</v>
-      </c>
-      <c r="J25" t="s">
-        <v>344</v>
-      </c>
-      <c r="K25" s="74"/>
-    </row>
-    <row r="26" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H26" t="s">
-        <v>345</v>
-      </c>
-      <c r="I26" t="s">
-        <v>346</v>
-      </c>
-      <c r="J26" t="s">
-        <v>347</v>
-      </c>
-      <c r="K26" s="73"/>
-      <c r="L26" s="73">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="27" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H27" t="s">
-        <v>348</v>
-      </c>
-      <c r="I27" t="s">
-        <v>349</v>
-      </c>
-      <c r="J27" t="s">
-        <v>350</v>
-      </c>
-      <c r="L27" s="73">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="28" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H28" t="s">
-        <v>351</v>
-      </c>
-      <c r="I28" t="s">
-        <v>352</v>
-      </c>
-      <c r="J28" t="s">
-        <v>353</v>
-      </c>
-      <c r="L28" s="73">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H29" s="70" t="s">
-        <v>354</v>
-      </c>
-      <c r="I29" s="70" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="30" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H30" t="s">
-        <v>356</v>
-      </c>
-      <c r="I30" t="s">
-        <v>357</v>
-      </c>
-      <c r="J30" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="31" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H31" t="s">
-        <v>359</v>
-      </c>
-      <c r="I31" t="s">
-        <v>360</v>
-      </c>
-      <c r="J31" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="32" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H32" t="s">
-        <v>362</v>
-      </c>
-      <c r="I32" t="s">
-        <v>363</v>
-      </c>
-      <c r="J32" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="33" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H33" t="s">
-        <v>365</v>
-      </c>
-      <c r="I33" t="s">
-        <v>366</v>
-      </c>
-      <c r="J33" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="34" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H34" t="s">
-        <v>368</v>
-      </c>
-      <c r="I34" t="s">
-        <v>369</v>
-      </c>
-      <c r="J34" t="s">
-        <v>370</v>
-      </c>
-      <c r="K34" s="74"/>
-    </row>
-    <row r="35" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H35" t="s">
-        <v>371</v>
-      </c>
-      <c r="I35" t="s">
-        <v>372</v>
-      </c>
-      <c r="J35" t="s">
-        <v>373</v>
-      </c>
-      <c r="K35" s="74"/>
-    </row>
-    <row r="36" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H36" t="s">
-        <v>374</v>
-      </c>
-      <c r="I36" t="s">
-        <v>375</v>
-      </c>
-      <c r="J36" t="s">
-        <v>376</v>
-      </c>
-      <c r="K36" s="74"/>
-    </row>
-    <row r="37" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H37" s="70" t="s">
-        <v>377</v>
-      </c>
-      <c r="I37" s="70" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="38" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H38" t="s">
-        <v>379</v>
-      </c>
-      <c r="I38" s="69" t="s">
-        <v>380</v>
-      </c>
-      <c r="J38" t="s">
-        <v>381</v>
-      </c>
-      <c r="K38" s="74"/>
-    </row>
-    <row r="39" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H39" t="s">
-        <v>382</v>
-      </c>
-      <c r="I39" t="s">
-        <v>383</v>
-      </c>
-      <c r="J39" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="40" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H40" s="74" t="s">
-        <v>385</v>
-      </c>
-      <c r="I40" s="74" t="s">
-        <v>386</v>
-      </c>
-      <c r="J40" s="74" t="s">
-        <v>387</v>
-      </c>
-      <c r="K40" s="74"/>
-      <c r="L40" s="74"/>
-      <c r="M40" s="74"/>
-    </row>
-    <row r="41" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H41" t="s">
-        <v>388</v>
-      </c>
-      <c r="I41" t="s">
-        <v>389</v>
-      </c>
-      <c r="J41" t="s">
-        <v>390</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F5F234-170D-4B45-A1EA-28BAE31F5675}">
   <dimension ref="B2:E11"/>
   <sheetViews>
@@ -11026,7 +14046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97FAB4B4-8799-48FC-8A76-89433647002B}">
   <dimension ref="B2:L13"/>
   <sheetViews>
@@ -11227,7 +14247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5638044B-CB4C-4C94-A755-7C200927062F}">
   <dimension ref="A2:F21"/>
   <sheetViews>
@@ -11471,7 +14491,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79383B76-50C0-490F-AC19-3FE2C2CA6837}">
   <dimension ref="B2:G10"/>
   <sheetViews>
@@ -11510,7 +14530,7 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="128" t="s">
+      <c r="C3" s="133" t="s">
         <v>480</v>
       </c>
       <c r="D3" s="85" t="s">
@@ -11527,7 +14547,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="128"/>
+      <c r="C4" s="133"/>
       <c r="D4" s="85" t="s">
         <v>484</v>
       </c>
@@ -11542,7 +14562,7 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="129"/>
+      <c r="C5" s="134"/>
       <c r="D5" s="86" t="s">
         <v>484</v>
       </c>
@@ -11560,19 +14580,19 @@
       <c r="B6" s="84" t="s">
         <v>496</v>
       </c>
-      <c r="C6" s="130" t="s">
+      <c r="C6" s="135" t="s">
         <v>490</v>
       </c>
-      <c r="D6" s="133" t="s">
+      <c r="D6" s="138" t="s">
         <v>491</v>
       </c>
-      <c r="E6" s="135" t="s">
+      <c r="E6" s="131" t="s">
         <v>491</v>
       </c>
-      <c r="F6" s="135" t="s">
+      <c r="F6" s="131" t="s">
         <v>491</v>
       </c>
-      <c r="G6" s="135" t="s">
+      <c r="G6" s="131" t="s">
         <v>491</v>
       </c>
     </row>
@@ -11580,17 +14600,17 @@
       <c r="B7" s="83" t="s">
         <v>497</v>
       </c>
-      <c r="C7" s="131"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="83" t="s">
         <v>498</v>
       </c>
-      <c r="C8" s="131"/>
+      <c r="C8" s="136"/>
       <c r="D8" s="86" t="s">
         <v>491</v>
       </c>
@@ -11608,7 +14628,7 @@
       <c r="B9" s="84" t="s">
         <v>499</v>
       </c>
-      <c r="C9" s="131"/>
+      <c r="C9" s="136"/>
       <c r="D9" s="85" t="s">
         <v>491</v>
       </c>
@@ -11626,7 +14646,7 @@
       <c r="B10" s="83" t="s">
         <v>500</v>
       </c>
-      <c r="C10" s="132"/>
+      <c r="C10" s="137"/>
       <c r="D10" s="86" t="s">
         <v>491</v>
       </c>
@@ -11653,7 +14673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63589976-2265-419F-872C-FD2246847E9E}">
   <dimension ref="A1:P20"/>
   <sheetViews>
@@ -12402,7 +15422,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD67E78-D613-46E1-844C-AD6CD38E1719}">
   <dimension ref="B2:F14"/>
   <sheetViews>
@@ -12645,7 +15665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7495890C-77D0-4EFC-B806-50C2928C6692}">
   <dimension ref="B2:V25"/>
   <sheetViews>
@@ -12664,22 +15684,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C2" s="137" t="s">
+      <c r="C2" s="140" t="s">
         <v>523</v>
       </c>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137" t="s">
+      <c r="D2" s="140"/>
+      <c r="E2" s="140" t="s">
         <v>524</v>
       </c>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137" t="s">
+      <c r="F2" s="140"/>
+      <c r="G2" s="140" t="s">
         <v>525</v>
       </c>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137" t="s">
+      <c r="H2" s="140"/>
+      <c r="I2" s="140" t="s">
         <v>526</v>
       </c>
-      <c r="J2" s="137"/>
+      <c r="J2" s="140"/>
       <c r="O2" s="92" t="s">
         <v>523</v>
       </c>
@@ -13361,7 +16381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF03E16-6481-44BC-89B4-27A98D72160C}">
   <dimension ref="B2:F10"/>
   <sheetViews>
@@ -13527,113 +16547,6 @@
       </c>
       <c r="F10" t="s">
         <v>568</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60761244-E2EA-4DCB-98B0-B2653577D4BA}">
-  <dimension ref="B2:F6"/>
-  <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="89" t="s">
-        <v>581</v>
-      </c>
-      <c r="C2" s="89" t="s">
-        <v>523</v>
-      </c>
-      <c r="D2" s="89" t="s">
-        <v>524</v>
-      </c>
-      <c r="E2" s="89" t="s">
-        <v>525</v>
-      </c>
-      <c r="F2" s="89" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="71" t="s">
-        <v>569</v>
-      </c>
-      <c r="C3">
-        <v>78600</v>
-      </c>
-      <c r="D3">
-        <v>63000</v>
-      </c>
-      <c r="E3">
-        <v>47300</v>
-      </c>
-      <c r="F3">
-        <v>45100</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="71" t="s">
-        <v>570</v>
-      </c>
-      <c r="C4" t="s">
-        <v>573</v>
-      </c>
-      <c r="D4" t="s">
-        <v>574</v>
-      </c>
-      <c r="E4" t="s">
-        <v>575</v>
-      </c>
-      <c r="F4" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="71" t="s">
-        <v>571</v>
-      </c>
-      <c r="C5" t="s">
-        <v>577</v>
-      </c>
-      <c r="D5" t="s">
-        <v>578</v>
-      </c>
-      <c r="E5" t="s">
-        <v>579</v>
-      </c>
-      <c r="F5" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="71" t="s">
-        <v>572</v>
-      </c>
-      <c r="C6">
-        <v>1400</v>
-      </c>
-      <c r="D6">
-        <v>1350</v>
-      </c>
-      <c r="E6">
-        <v>1300</v>
-      </c>
-      <c r="F6">
-        <v>1300</v>
       </c>
     </row>
   </sheetData>
@@ -13789,6 +16702,113 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="70"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60761244-E2EA-4DCB-98B0-B2653577D4BA}">
+  <dimension ref="B2:F6"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="89" t="s">
+        <v>581</v>
+      </c>
+      <c r="C2" s="89" t="s">
+        <v>523</v>
+      </c>
+      <c r="D2" s="89" t="s">
+        <v>524</v>
+      </c>
+      <c r="E2" s="89" t="s">
+        <v>525</v>
+      </c>
+      <c r="F2" s="89" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="71" t="s">
+        <v>569</v>
+      </c>
+      <c r="C3">
+        <v>78600</v>
+      </c>
+      <c r="D3">
+        <v>63000</v>
+      </c>
+      <c r="E3">
+        <v>47300</v>
+      </c>
+      <c r="F3">
+        <v>45100</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="71" t="s">
+        <v>570</v>
+      </c>
+      <c r="C4" t="s">
+        <v>573</v>
+      </c>
+      <c r="D4" t="s">
+        <v>574</v>
+      </c>
+      <c r="E4" t="s">
+        <v>575</v>
+      </c>
+      <c r="F4" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="71" t="s">
+        <v>571</v>
+      </c>
+      <c r="C5" t="s">
+        <v>577</v>
+      </c>
+      <c r="D5" t="s">
+        <v>578</v>
+      </c>
+      <c r="E5" t="s">
+        <v>579</v>
+      </c>
+      <c r="F5" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="71" t="s">
+        <v>572</v>
+      </c>
+      <c r="C6">
+        <v>1400</v>
+      </c>
+      <c r="D6">
+        <v>1350</v>
+      </c>
+      <c r="E6">
+        <v>1300</v>
+      </c>
+      <c r="F6">
+        <v>1300</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14342,8 +17362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DAD8804-6DBA-4339-9C6F-EF6AC20C6A5F}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14373,7 +17393,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="29"/>
-      <c r="E2" s="140" t="s">
+      <c r="E2" s="130" t="s">
         <v>593</v>
       </c>
       <c r="F2" s="36" t="s">
@@ -14399,13 +17419,13 @@
       <c r="B3" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="138" t="s">
+      <c r="C3" s="128" t="s">
         <v>585</v>
       </c>
       <c r="D3" s="27" t="s">
         <v>590</v>
       </c>
-      <c r="E3" s="139" t="s">
+      <c r="E3" s="129" t="s">
         <v>610</v>
       </c>
       <c r="F3" s="64" t="s">
@@ -14449,7 +17469,7 @@
       <c r="D4" s="27" t="s">
         <v>590</v>
       </c>
-      <c r="E4" s="139" t="str">
+      <c r="E4" s="129" t="str">
         <f>E3</f>
         <v xml:space="preserve">(CH_2O)_x(NH_3)_y(PO_4)_z </v>
       </c>
@@ -14485,13 +17505,13 @@
       <c r="B5" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="138" t="s">
+      <c r="C5" s="128" t="s">
         <v>587</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>590</v>
       </c>
-      <c r="E5" s="139" t="str">
+      <c r="E5" s="129" t="str">
         <f t="shared" ref="E5:E11" si="0">E4</f>
         <v xml:space="preserve">(CH_2O)_x(NH_3)_y(PO_4)_z </v>
       </c>
@@ -14530,13 +17550,13 @@
       <c r="B6" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="138" t="s">
+      <c r="C6" s="128" t="s">
         <v>589</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>590</v>
       </c>
-      <c r="E6" s="139" t="str">
+      <c r="E6" s="129" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">(CH_2O)_x(NH_3)_y(PO_4)_z </v>
       </c>
@@ -14575,13 +17595,13 @@
       <c r="B7" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="C7" s="138" t="s">
+      <c r="C7" s="128" t="s">
         <v>588</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>590</v>
       </c>
-      <c r="E7" s="139" t="str">
+      <c r="E7" s="129" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">(CH_2O)_x(NH_3)_y(PO_4)_z </v>
       </c>
@@ -14615,7 +17635,7 @@
 \</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="106.5" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="24" t="s">
         <v>85</v>
@@ -14626,7 +17646,7 @@
       <c r="D8" s="27" t="s">
         <v>590</v>
       </c>
-      <c r="E8" s="139" t="str">
+      <c r="E8" s="129" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">(CH_2O)_x(NH_3)_y(PO_4)_z </v>
       </c>
@@ -14660,7 +17680,7 @@
 \</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="117.75" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="24" t="s">
         <v>86</v>
@@ -14671,7 +17691,7 @@
       <c r="D9" s="27" t="s">
         <v>590</v>
       </c>
-      <c r="E9" s="139" t="str">
+      <c r="E9" s="129" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">(CH_2O)_x(NH_3)_y(PO_4)_z </v>
       </c>
@@ -14705,7 +17725,7 @@
 \</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="111" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="24" t="s">
         <v>87</v>
@@ -14716,7 +17736,7 @@
       <c r="D10" s="27" t="s">
         <v>590</v>
       </c>
-      <c r="E10" s="139" t="str">
+      <c r="E10" s="129" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">(CH_2O)_x(NH_3)_y(PO_4)_z </v>
       </c>
@@ -14750,7 +17770,7 @@
 \</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="90.75" x14ac:dyDescent="0.25">
       <c r="B11" s="25" t="s">
         <v>88</v>
       </c>
@@ -14760,7 +17780,7 @@
       <c r="D11" s="27" t="s">
         <v>590</v>
       </c>
-      <c r="E11" s="139" t="str">
+      <c r="E11" s="129" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">(CH_2O)_x(NH_3)_y(PO_4)_z </v>
       </c>

--- a/tables/23-sediment_biogeochemistry/UserManual.xlsx
+++ b/tables/23-sediment_biogeochemistry/UserManual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00074264\AED Dropbox\AED_Coorong_db\5_reporting\CDM Manual\DanDrafts\aed-science\tables\23-sediment_biogeochemistry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8395618E-50A3-4CC5-9497-1CD8ABA5EFF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888C33FD-A598-4F68-A5CD-9BDF00435236}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31515" yWindow="-2970" windowWidth="26205" windowHeight="16440" firstSheet="6" activeTab="11" xr2:uid="{24890297-503A-4F29-AEBF-DF10B16371ED}"/>
+    <workbookView xWindow="31515" yWindow="-2970" windowWidth="26205" windowHeight="16440" activeTab="4" xr2:uid="{24890297-503A-4F29-AEBF-DF10B16371ED}"/>
   </bookViews>
   <sheets>
     <sheet name="BoundaryInitial" sheetId="1" r:id="rId1"/>
@@ -23,26 +23,27 @@
     <sheet name="OMChem (2)" sheetId="33" r:id="rId8"/>
     <sheet name="OMChem3" sheetId="34" r:id="rId9"/>
     <sheet name="NRates" sheetId="13" r:id="rId10"/>
-    <sheet name="SecondChem" sheetId="8" r:id="rId11"/>
-    <sheet name="SecondChem (2)" sheetId="35" r:id="rId12"/>
-    <sheet name="SecondChem (3)" sheetId="36" r:id="rId13"/>
-    <sheet name="SecondRates" sheetId="14" r:id="rId14"/>
-    <sheet name="Geochem" sheetId="15" r:id="rId15"/>
-    <sheet name="MnOFeO" sheetId="16" r:id="rId16"/>
-    <sheet name="FeS" sheetId="17" r:id="rId17"/>
-    <sheet name="CO3" sheetId="18" r:id="rId18"/>
-    <sheet name="rxn_mode" sheetId="19" r:id="rId19"/>
-    <sheet name="ads" sheetId="21" r:id="rId20"/>
-    <sheet name="MAG" sheetId="22" r:id="rId21"/>
-    <sheet name="MPBG" sheetId="23" r:id="rId22"/>
-    <sheet name="VCW1" sheetId="25" r:id="rId23"/>
-    <sheet name="UAE" sheetId="26" r:id="rId24"/>
-    <sheet name="UAE2" sheetId="27" r:id="rId25"/>
-    <sheet name="UAE3" sheetId="28" r:id="rId26"/>
-    <sheet name="UAE4" sheetId="29" r:id="rId27"/>
-    <sheet name="UAE5" sheetId="30" r:id="rId28"/>
-    <sheet name="UAE6" sheetId="31" r:id="rId29"/>
-    <sheet name="UAE7" sheetId="32" r:id="rId30"/>
+    <sheet name="OMBalance" sheetId="37" r:id="rId11"/>
+    <sheet name="SecondChem" sheetId="8" r:id="rId12"/>
+    <sheet name="SecondChem (2)" sheetId="35" r:id="rId13"/>
+    <sheet name="SecondChem (3)" sheetId="36" r:id="rId14"/>
+    <sheet name="SecondRates" sheetId="14" r:id="rId15"/>
+    <sheet name="Geochem" sheetId="15" r:id="rId16"/>
+    <sheet name="MnOFeO" sheetId="16" r:id="rId17"/>
+    <sheet name="FeS" sheetId="17" r:id="rId18"/>
+    <sheet name="CO3" sheetId="18" r:id="rId19"/>
+    <sheet name="rxn_mode" sheetId="19" r:id="rId20"/>
+    <sheet name="ads" sheetId="21" r:id="rId21"/>
+    <sheet name="MAG" sheetId="22" r:id="rId22"/>
+    <sheet name="MPBG" sheetId="23" r:id="rId23"/>
+    <sheet name="VCW1" sheetId="25" r:id="rId24"/>
+    <sheet name="UAE" sheetId="26" r:id="rId25"/>
+    <sheet name="UAE2" sheetId="27" r:id="rId26"/>
+    <sheet name="UAE3" sheetId="28" r:id="rId27"/>
+    <sheet name="UAE4" sheetId="29" r:id="rId28"/>
+    <sheet name="UAE5" sheetId="30" r:id="rId29"/>
+    <sheet name="UAE6" sheetId="31" r:id="rId30"/>
+    <sheet name="UAE7" sheetId="32" r:id="rId31"/>
   </sheets>
   <definedNames>
     <definedName name="_Ref386302068" localSheetId="4">OMModel!#REF!</definedName>
@@ -51,7 +52,7 @@
     <definedName name="_Ref386302075" localSheetId="4">OMModel!#REF!</definedName>
     <definedName name="_Ref386302076" localSheetId="4">OMModel!$G$11</definedName>
     <definedName name="_Ref386302078" localSheetId="4">OMModel!$G$12</definedName>
-    <definedName name="OLE_LINK1" localSheetId="4">OMModel!$D$8</definedName>
+    <definedName name="OLE_LINK1" localSheetId="4">OMModel!$D$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="741">
   <si>
     <t>Same for all zones</t>
   </si>
@@ -478,21 +479,6 @@
   </si>
   <si>
     <t>DHyd $\rightarrow$ OAc + H~2~</t>
-  </si>
-  <si>
-    <t>*k~DOMLab~∑R~Oxi~*</t>
-  </si>
-  <si>
-    <t>*k~DOMRef~∑R~Oxi~*</t>
-  </si>
-  <si>
-    <t>*k~Hydrolysis~(POM~Lab~)*</t>
-  </si>
-  <si>
-    <t>*k~Hydrolysis~(POM~Ref~)*</t>
-  </si>
-  <si>
-    <t>*k~Hydrolysis~(POM~Lab~)F~BHyd~*</t>
   </si>
   <si>
     <t>*k~growth~B~Fer~F~T~ ~Fer~F~DHyd~*</t>
@@ -7692,6 +7678,30 @@
     <t>\(\displaystyle
 R_{Nitrousation} = R_{Ammonium \  \ oxidation} \frac{K_{part \  \ ammox}}{K_{part\  \ ammox} + O_2}
 \)</t>
+  </si>
+  <si>
+    <t>k~POM i~ *(POM~i~)F~BHyd~*</t>
+  </si>
+  <si>
+    <t>*poml2dic ∑R~Oxi~*</t>
+  </si>
+  <si>
+    <t>*pomr2dic ∑R~Oxi~*</t>
+  </si>
+  <si>
+    <t>*pomspecial2dic  ∑R~Oxi~*</t>
+  </si>
+  <si>
+    <t>*docl2dic ∑R~Oxi~*</t>
+  </si>
+  <si>
+    <t>*docr2dic ∑R~Oxi~*</t>
+  </si>
+  <si>
+    <t>*pocr2docr (POC~R~)*</t>
+  </si>
+  <si>
+    <t>*pocl2docl (POC~L~)*</t>
   </si>
 </sst>
 </file>
@@ -8570,36 +8580,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -8634,6 +8614,36 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8656,15 +8666,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1243379</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>298206</xdr:rowOff>
+      <xdr:colOff>1236052</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>188302</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>271092</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>171142</xdr:rowOff>
+      <xdr:colOff>263765</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>178469</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8687,7 +8697,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1851514" y="3031148"/>
+          <a:off x="1844187" y="3419475"/>
           <a:ext cx="5893040" cy="2466667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9015,10 +9025,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -9222,7 +9232,7 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" s="67" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C1" s="67" t="s">
         <v>36</v>
@@ -9230,50 +9240,50 @@
     </row>
     <row r="2" spans="2:3" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>143</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="90" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="90" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="90" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="90" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="180" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -9283,6 +9293,18 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47629159-FA50-46BF-BE69-E18B78AFAAEE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEF5F1D-5D87-4D91-925C-5537E51FFCCB}">
   <dimension ref="B2:F21"/>
   <sheetViews>
@@ -9310,252 +9332,252 @@
         <v>18</v>
       </c>
       <c r="D2" s="67" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E2" s="67" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="67" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="36.75" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C3" s="61"/>
       <c r="D3" s="11" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="60" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="36.75" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C4" s="61"/>
       <c r="D4" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="60" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="36.75" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C5" s="61"/>
       <c r="D5" s="11" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="60" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="36.75" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C6" s="61"/>
       <c r="D6" s="11" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="60" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="36.75" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C7" s="61"/>
       <c r="D7" s="11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="60" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="36.75" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C8" s="61"/>
       <c r="D8" s="11" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="60" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="36.75" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C9" s="61"/>
       <c r="D9" s="11" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="60" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="36.75" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C10" s="61"/>
       <c r="D10" s="11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="60" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="36.75" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C11" s="61"/>
       <c r="D11" s="11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="60" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="36.75" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C12" s="61"/>
       <c r="D12" s="9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="60" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="36.75" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C13" s="61"/>
       <c r="D13" s="9" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="60" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="36.75" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C14" s="61"/>
       <c r="D14" s="9" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="60" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="48.75" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C15" s="61"/>
       <c r="D15" s="9" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="60" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="36.75" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C16" s="61"/>
       <c r="D16" s="9" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="60" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="36.75" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C17" s="61"/>
       <c r="D17" s="11" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="60" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="36.75" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C18" s="61"/>
       <c r="D18" s="9" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="60" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="37.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="17" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C19" s="62"/>
       <c r="D19" s="20" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E19" s="63"/>
       <c r="F19" s="60" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="36.75" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C20" s="61"/>
       <c r="D20" s="11" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="60" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="17" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C21" s="62"/>
       <c r="D21" s="20"/>
@@ -9569,15 +9591,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747185F4-C622-45B4-8322-1554E18394D3}">
   <dimension ref="B2:V27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9600,80 +9622,80 @@
         <v>18</v>
       </c>
       <c r="D2" s="67" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E2" s="67" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="67" t="s">
-        <v>275</v>
-      </c>
-      <c r="G2" s="143"/>
-      <c r="H2" s="144" t="s">
-        <v>635</v>
-      </c>
-      <c r="I2" s="145" t="s">
-        <v>594</v>
-      </c>
-      <c r="J2" s="145" t="s">
-        <v>595</v>
-      </c>
-      <c r="K2" s="145" t="s">
-        <v>596</v>
-      </c>
-      <c r="L2" s="145" t="s">
-        <v>597</v>
-      </c>
-      <c r="M2" s="145" t="s">
-        <v>595</v>
-      </c>
-      <c r="N2" s="146"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="146"/>
-      <c r="Q2" s="146"/>
-      <c r="R2" s="146"/>
-      <c r="S2" s="146"/>
-      <c r="T2" s="146"/>
-      <c r="U2" s="146"/>
-      <c r="V2" s="146"/>
+        <v>270</v>
+      </c>
+      <c r="G2" s="133"/>
+      <c r="H2" s="134" t="s">
+        <v>630</v>
+      </c>
+      <c r="I2" s="135" t="s">
+        <v>589</v>
+      </c>
+      <c r="J2" s="135" t="s">
+        <v>590</v>
+      </c>
+      <c r="K2" s="135" t="s">
+        <v>591</v>
+      </c>
+      <c r="L2" s="135" t="s">
+        <v>592</v>
+      </c>
+      <c r="M2" s="135" t="s">
+        <v>590</v>
+      </c>
+      <c r="N2" s="136"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="136"/>
+      <c r="R2" s="136"/>
+      <c r="S2" s="136"/>
+      <c r="T2" s="136"/>
+      <c r="U2" s="136"/>
+      <c r="V2" s="136"/>
     </row>
     <row r="3" spans="2:22" ht="48" x14ac:dyDescent="0.25">
-      <c r="B3" s="141" t="s">
-        <v>659</v>
+      <c r="B3" s="131" t="s">
+        <v>654</v>
       </c>
       <c r="C3" s="61"/>
       <c r="D3" s="11" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="60" t="s">
-        <v>258</v>
-      </c>
-      <c r="G3" s="143" t="s">
-        <v>666</v>
-      </c>
-      <c r="H3" s="148" t="s">
+        <v>253</v>
+      </c>
+      <c r="G3" s="133" t="s">
+        <v>661</v>
+      </c>
+      <c r="H3" s="138" t="s">
+        <v>647</v>
+      </c>
+      <c r="I3" s="139" t="s">
+        <v>655</v>
+      </c>
+      <c r="J3" s="139" t="s">
+        <v>651</v>
+      </c>
+      <c r="K3" s="139" t="s">
+        <v>663</v>
+      </c>
+      <c r="L3" s="139" t="s">
         <v>652</v>
       </c>
-      <c r="I3" s="149" t="s">
-        <v>660</v>
-      </c>
-      <c r="J3" s="149" t="s">
-        <v>656</v>
-      </c>
-      <c r="K3" s="149" t="s">
-        <v>668</v>
-      </c>
-      <c r="L3" s="149" t="s">
-        <v>657</v>
-      </c>
-      <c r="M3" s="149" t="s">
-        <v>658</v>
-      </c>
-      <c r="N3" s="145" t="s">
-        <v>591</v>
-      </c>
-      <c r="O3" s="146" t="str">
+      <c r="M3" s="139" t="s">
+        <v>653</v>
+      </c>
+      <c r="N3" s="135" t="s">
+        <v>586</v>
+      </c>
+      <c r="O3" s="136" t="str">
         <f>G3&amp;H3&amp;I3&amp;J3&amp;K3&amp;L3&amp;M3&amp;N3</f>
         <v>\
 \(\displaystyle
@@ -9681,48 +9703,48 @@
 \
 \</v>
       </c>
-      <c r="P3" s="146"/>
-      <c r="Q3" s="146"/>
-      <c r="R3" s="146"/>
-      <c r="S3" s="146"/>
-      <c r="T3" s="146"/>
-      <c r="U3" s="146"/>
-      <c r="V3" s="146"/>
+      <c r="P3" s="136"/>
+      <c r="Q3" s="136"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="136"/>
+      <c r="T3" s="136"/>
+      <c r="U3" s="136"/>
+      <c r="V3" s="136"/>
     </row>
     <row r="4" spans="2:22" ht="48" x14ac:dyDescent="0.25">
-      <c r="B4" s="141" t="s">
-        <v>729</v>
+      <c r="B4" s="131" t="s">
+        <v>724</v>
       </c>
       <c r="C4" s="61"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="60" t="s">
-        <v>732</v>
-      </c>
-      <c r="G4" s="143" t="s">
-        <v>666</v>
-      </c>
-      <c r="H4" s="148" t="s">
-        <v>723</v>
-      </c>
-      <c r="I4" s="149" t="s">
-        <v>725</v>
-      </c>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149" t="s">
-        <v>668</v>
-      </c>
-      <c r="L4" s="149" t="s">
-        <v>657</v>
-      </c>
-      <c r="M4" s="149"/>
-      <c r="N4" s="145" t="str">
+        <v>727</v>
+      </c>
+      <c r="G4" s="133" t="s">
+        <v>661</v>
+      </c>
+      <c r="H4" s="138" t="s">
+        <v>718</v>
+      </c>
+      <c r="I4" s="139" t="s">
+        <v>720</v>
+      </c>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139" t="s">
+        <v>663</v>
+      </c>
+      <c r="L4" s="139" t="s">
+        <v>652</v>
+      </c>
+      <c r="M4" s="139"/>
+      <c r="N4" s="135" t="str">
         <f>N7</f>
         <v>\)
 \
 \</v>
       </c>
-      <c r="O4" s="146" t="str">
+      <c r="O4" s="136" t="str">
         <f>G4&amp;H4&amp;I4&amp;J4&amp;K4&amp;L4&amp;M4&amp;N4</f>
         <v>\
 \(\displaystyle
@@ -9730,81 +9752,81 @@
 \
 \</v>
       </c>
-      <c r="P4" s="146"/>
-      <c r="Q4" s="146"/>
-      <c r="R4" s="146"/>
-      <c r="S4" s="146"/>
-      <c r="T4" s="146"/>
-      <c r="U4" s="146"/>
-      <c r="V4" s="146"/>
+      <c r="P4" s="136"/>
+      <c r="Q4" s="136"/>
+      <c r="R4" s="136"/>
+      <c r="S4" s="136"/>
+      <c r="T4" s="136"/>
+      <c r="U4" s="136"/>
+      <c r="V4" s="136"/>
     </row>
     <row r="5" spans="2:22" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="141" t="s">
-        <v>733</v>
+      <c r="B5" s="131" t="s">
+        <v>728</v>
       </c>
       <c r="C5" s="61"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="60" t="s">
-        <v>735</v>
-      </c>
-      <c r="G5" s="143" t="s">
-        <v>666</v>
-      </c>
-      <c r="H5" s="148"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="149"/>
-      <c r="K5" s="149"/>
-      <c r="L5" s="149"/>
-      <c r="M5" s="149"/>
-      <c r="N5" s="145"/>
-      <c r="O5" s="146"/>
-      <c r="P5" s="146"/>
-      <c r="Q5" s="146"/>
-      <c r="R5" s="146"/>
-      <c r="S5" s="146"/>
-      <c r="T5" s="146"/>
-      <c r="U5" s="146"/>
-      <c r="V5" s="146"/>
+        <v>730</v>
+      </c>
+      <c r="G5" s="133" t="s">
+        <v>661</v>
+      </c>
+      <c r="H5" s="138"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="139"/>
+      <c r="K5" s="139"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="139"/>
+      <c r="N5" s="135"/>
+      <c r="O5" s="136"/>
+      <c r="P5" s="136"/>
+      <c r="Q5" s="136"/>
+      <c r="R5" s="136"/>
+      <c r="S5" s="136"/>
+      <c r="T5" s="136"/>
+      <c r="U5" s="136"/>
+      <c r="V5" s="136"/>
     </row>
     <row r="6" spans="2:22" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="141" t="s">
-        <v>728</v>
+      <c r="B6" s="131" t="s">
+        <v>723</v>
       </c>
       <c r="C6" s="61"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="60" t="s">
-        <v>736</v>
-      </c>
-      <c r="G6" s="143" t="s">
-        <v>666</v>
-      </c>
-      <c r="H6" s="148" t="s">
-        <v>652</v>
-      </c>
-      <c r="I6" s="149" t="s">
-        <v>727</v>
-      </c>
-      <c r="J6" s="149" t="s">
-        <v>656</v>
-      </c>
-      <c r="K6" s="149" t="s">
-        <v>668</v>
-      </c>
-      <c r="L6" s="149" t="s">
-        <v>723</v>
-      </c>
-      <c r="M6" s="149" t="s">
-        <v>658</v>
-      </c>
-      <c r="N6" s="145" t="str">
+        <v>731</v>
+      </c>
+      <c r="G6" s="133" t="s">
+        <v>661</v>
+      </c>
+      <c r="H6" s="138" t="s">
+        <v>647</v>
+      </c>
+      <c r="I6" s="139" t="s">
+        <v>722</v>
+      </c>
+      <c r="J6" s="139" t="s">
+        <v>651</v>
+      </c>
+      <c r="K6" s="139" t="s">
+        <v>663</v>
+      </c>
+      <c r="L6" s="139" t="s">
+        <v>718</v>
+      </c>
+      <c r="M6" s="139" t="s">
+        <v>653</v>
+      </c>
+      <c r="N6" s="135" t="str">
         <f>N4</f>
         <v>\)
 \
 \</v>
       </c>
-      <c r="O6" s="146" t="str">
+      <c r="O6" s="136" t="str">
         <f>G6&amp;H6&amp;I6&amp;J6&amp;K6&amp;L6&amp;M6&amp;N6</f>
         <v>\
 \(\displaystyle
@@ -9812,52 +9834,52 @@
 \
 \</v>
       </c>
-      <c r="P6" s="146"/>
-      <c r="Q6" s="146"/>
-      <c r="R6" s="146"/>
-      <c r="S6" s="146"/>
-      <c r="T6" s="146"/>
-      <c r="U6" s="146"/>
-      <c r="V6" s="146"/>
+      <c r="P6" s="136"/>
+      <c r="Q6" s="136"/>
+      <c r="R6" s="136"/>
+      <c r="S6" s="136"/>
+      <c r="T6" s="136"/>
+      <c r="U6" s="136"/>
+      <c r="V6" s="136"/>
     </row>
     <row r="7" spans="2:22" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="141" t="s">
-        <v>726</v>
+      <c r="B7" s="131" t="s">
+        <v>721</v>
       </c>
       <c r="C7" s="61"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="60" t="s">
-        <v>737</v>
-      </c>
-      <c r="G7" s="143" t="s">
-        <v>666</v>
-      </c>
-      <c r="H7" s="148" t="s">
-        <v>730</v>
-      </c>
-      <c r="I7" s="149" t="s">
-        <v>660</v>
-      </c>
-      <c r="J7" s="149" t="s">
-        <v>656</v>
-      </c>
-      <c r="K7" s="149" t="s">
-        <v>668</v>
-      </c>
-      <c r="L7" s="149" t="s">
-        <v>731</v>
-      </c>
-      <c r="M7" s="149" t="s">
-        <v>724</v>
-      </c>
-      <c r="N7" s="145" t="str">
+        <v>732</v>
+      </c>
+      <c r="G7" s="133" t="s">
+        <v>661</v>
+      </c>
+      <c r="H7" s="138" t="s">
+        <v>725</v>
+      </c>
+      <c r="I7" s="139" t="s">
+        <v>655</v>
+      </c>
+      <c r="J7" s="139" t="s">
+        <v>651</v>
+      </c>
+      <c r="K7" s="139" t="s">
+        <v>663</v>
+      </c>
+      <c r="L7" s="139" t="s">
+        <v>726</v>
+      </c>
+      <c r="M7" s="139" t="s">
+        <v>719</v>
+      </c>
+      <c r="N7" s="135" t="str">
         <f>N3</f>
         <v>\)
 \
 \</v>
       </c>
-      <c r="O7" s="146" t="str">
+      <c r="O7" s="136" t="str">
         <f>G7&amp;H7&amp;I7&amp;J7&amp;K7&amp;L7&amp;M7&amp;N7</f>
         <v>\
 \(\displaystyle
@@ -9865,56 +9887,56 @@
 \
 \</v>
       </c>
-      <c r="P7" s="146"/>
-      <c r="Q7" s="146"/>
-      <c r="R7" s="146"/>
-      <c r="S7" s="146"/>
-      <c r="T7" s="146"/>
-      <c r="U7" s="146"/>
-      <c r="V7" s="146"/>
+      <c r="P7" s="136"/>
+      <c r="Q7" s="136"/>
+      <c r="R7" s="136"/>
+      <c r="S7" s="136"/>
+      <c r="T7" s="136"/>
+      <c r="U7" s="136"/>
+      <c r="V7" s="136"/>
     </row>
     <row r="8" spans="2:22" ht="48" x14ac:dyDescent="0.25">
-      <c r="B8" s="141" t="s">
-        <v>734</v>
+      <c r="B8" s="131" t="s">
+        <v>729</v>
       </c>
       <c r="C8" s="61"/>
       <c r="D8" s="11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="60" t="s">
-        <v>264</v>
-      </c>
-      <c r="G8" s="143" t="str">
+        <v>259</v>
+      </c>
+      <c r="G8" s="133" t="str">
         <f>G14</f>
         <v xml:space="preserve">\
 \(\displaystyle
 \ </v>
       </c>
-      <c r="H8" s="153" t="s">
-        <v>691</v>
-      </c>
-      <c r="I8" s="154" t="s">
-        <v>722</v>
-      </c>
-      <c r="J8" s="153"/>
-      <c r="K8" s="153" t="str">
+      <c r="H8" s="143" t="s">
+        <v>686</v>
+      </c>
+      <c r="I8" s="144" t="s">
+        <v>717</v>
+      </c>
+      <c r="J8" s="143"/>
+      <c r="K8" s="143" t="str">
         <f>K14</f>
         <v xml:space="preserve">  \rightarrow </v>
       </c>
-      <c r="L8" s="153" t="s">
-        <v>721</v>
-      </c>
-      <c r="M8" s="154" t="s">
-        <v>673</v>
-      </c>
-      <c r="N8" s="145" t="str">
+      <c r="L8" s="143" t="s">
+        <v>716</v>
+      </c>
+      <c r="M8" s="144" t="s">
+        <v>668</v>
+      </c>
+      <c r="N8" s="135" t="str">
         <f>N6</f>
         <v>\)
 \
 \</v>
       </c>
-      <c r="O8" s="146" t="str">
+      <c r="O8" s="136" t="str">
         <f>G8&amp;H8&amp;I8&amp;J8&amp;K8&amp;L8&amp;M8&amp;N8</f>
         <v>\
 \(\displaystyle
@@ -9924,49 +9946,49 @@
       </c>
     </row>
     <row r="9" spans="2:22" ht="48" x14ac:dyDescent="0.25">
-      <c r="B9" s="141" t="s">
-        <v>636</v>
+      <c r="B9" s="131" t="s">
+        <v>631</v>
       </c>
       <c r="C9" s="61"/>
       <c r="D9" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="60" t="s">
-        <v>257</v>
-      </c>
-      <c r="G9" s="143" t="str">
+        <v>252</v>
+      </c>
+      <c r="G9" s="133" t="str">
         <f>G3</f>
         <v xml:space="preserve">\
 \(\displaystyle
 \ </v>
       </c>
-      <c r="H9" s="150" t="s">
-        <v>679</v>
-      </c>
-      <c r="I9" s="149" t="s">
-        <v>689</v>
-      </c>
-      <c r="J9" s="149" t="s">
-        <v>669</v>
-      </c>
-      <c r="K9" s="150" t="str">
+      <c r="H9" s="140" t="s">
+        <v>674</v>
+      </c>
+      <c r="I9" s="139" t="s">
+        <v>684</v>
+      </c>
+      <c r="J9" s="139" t="s">
+        <v>664</v>
+      </c>
+      <c r="K9" s="140" t="str">
         <f>K3</f>
         <v xml:space="preserve">  \rightarrow </v>
       </c>
-      <c r="L9" s="152" t="s">
-        <v>680</v>
-      </c>
-      <c r="M9" s="149" t="s">
-        <v>661</v>
-      </c>
-      <c r="N9" s="145" t="str">
+      <c r="L9" s="142" t="s">
+        <v>675</v>
+      </c>
+      <c r="M9" s="139" t="s">
+        <v>656</v>
+      </c>
+      <c r="N9" s="135" t="str">
         <f t="shared" ref="N9:N24" si="0">N8</f>
         <v>\)
 \
 \</v>
       </c>
-      <c r="O9" s="146" t="str">
+      <c r="O9" s="136" t="str">
         <f>G9&amp;H9&amp;I9&amp;J9&amp;K9&amp;L9&amp;M9&amp;N9</f>
         <v>\
 \(\displaystyle
@@ -9976,49 +9998,49 @@
       </c>
     </row>
     <row r="10" spans="2:22" ht="48" x14ac:dyDescent="0.25">
-      <c r="B10" s="141" t="s">
-        <v>637</v>
+      <c r="B10" s="131" t="s">
+        <v>632</v>
       </c>
       <c r="C10" s="61"/>
       <c r="D10" s="11" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="60" t="s">
-        <v>259</v>
-      </c>
-      <c r="G10" s="143" t="str">
+        <v>254</v>
+      </c>
+      <c r="G10" s="133" t="str">
         <f t="shared" ref="G10:G24" si="1">G9</f>
         <v xml:space="preserve">\
 \(\displaystyle
 \ </v>
       </c>
-      <c r="H10" s="150" t="s">
-        <v>662</v>
-      </c>
-      <c r="I10" s="149" t="s">
-        <v>689</v>
-      </c>
-      <c r="J10" s="149" t="s">
-        <v>663</v>
-      </c>
-      <c r="K10" s="150" t="str">
+      <c r="H10" s="140" t="s">
+        <v>657</v>
+      </c>
+      <c r="I10" s="139" t="s">
+        <v>684</v>
+      </c>
+      <c r="J10" s="139" t="s">
+        <v>658</v>
+      </c>
+      <c r="K10" s="140" t="str">
         <f t="shared" ref="K10:K24" si="2">K9</f>
         <v xml:space="preserve">  \rightarrow </v>
       </c>
-      <c r="L10" s="151" t="s">
-        <v>664</v>
-      </c>
-      <c r="M10" s="152" t="s">
-        <v>665</v>
-      </c>
-      <c r="N10" s="145" t="str">
+      <c r="L10" s="141" t="s">
+        <v>659</v>
+      </c>
+      <c r="M10" s="142" t="s">
+        <v>660</v>
+      </c>
+      <c r="N10" s="135" t="str">
         <f t="shared" si="0"/>
         <v>\)
 \
 \</v>
       </c>
-      <c r="O10" s="146" t="str">
+      <c r="O10" s="136" t="str">
         <f t="shared" ref="O10:O24" si="3">G10&amp;H10&amp;I10&amp;J10&amp;K10&amp;L10&amp;M10&amp;N10</f>
         <v>\
 \(\displaystyle
@@ -10028,49 +10050,49 @@
       </c>
     </row>
     <row r="11" spans="2:22" ht="48" x14ac:dyDescent="0.25">
-      <c r="B11" s="141" t="s">
-        <v>638</v>
+      <c r="B11" s="131" t="s">
+        <v>633</v>
       </c>
       <c r="C11" s="61"/>
       <c r="D11" s="11" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="60" t="s">
-        <v>260</v>
-      </c>
-      <c r="G11" s="143" t="str">
+        <v>255</v>
+      </c>
+      <c r="G11" s="133" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">\
 \(\displaystyle
 \ </v>
       </c>
-      <c r="H11" s="150" t="s">
-        <v>653</v>
-      </c>
-      <c r="I11" s="149" t="s">
-        <v>660</v>
-      </c>
-      <c r="J11" s="149" t="s">
-        <v>656</v>
-      </c>
-      <c r="K11" s="150" t="str">
+      <c r="H11" s="140" t="s">
+        <v>648</v>
+      </c>
+      <c r="I11" s="139" t="s">
+        <v>655</v>
+      </c>
+      <c r="J11" s="139" t="s">
+        <v>651</v>
+      </c>
+      <c r="K11" s="140" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  \rightarrow </v>
       </c>
-      <c r="L11" s="150" t="s">
-        <v>690</v>
-      </c>
-      <c r="M11" s="149" t="s">
-        <v>667</v>
-      </c>
-      <c r="N11" s="145" t="str">
+      <c r="L11" s="140" t="s">
+        <v>685</v>
+      </c>
+      <c r="M11" s="139" t="s">
+        <v>662</v>
+      </c>
+      <c r="N11" s="135" t="str">
         <f t="shared" si="0"/>
         <v>\)
 \
 \</v>
       </c>
-      <c r="O11" s="146" t="str">
+      <c r="O11" s="136" t="str">
         <f t="shared" si="3"/>
         <v>\
 \(\displaystyle
@@ -10080,45 +10102,45 @@
       </c>
     </row>
     <row r="12" spans="2:22" ht="48" x14ac:dyDescent="0.25">
-      <c r="B12" s="141" t="s">
-        <v>639</v>
+      <c r="B12" s="131" t="s">
+        <v>634</v>
       </c>
       <c r="C12" s="61"/>
       <c r="D12" s="11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="60" t="s">
-        <v>261</v>
-      </c>
-      <c r="G12" s="143" t="str">
+        <v>256</v>
+      </c>
+      <c r="G12" s="133" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">\
 \(\displaystyle
 \ </v>
       </c>
-      <c r="H12" s="150" t="s">
-        <v>654</v>
-      </c>
-      <c r="I12" s="149" t="s">
-        <v>655</v>
-      </c>
-      <c r="J12" s="150"/>
-      <c r="K12" s="150" t="str">
+      <c r="H12" s="140" t="s">
+        <v>649</v>
+      </c>
+      <c r="I12" s="139" t="s">
+        <v>650</v>
+      </c>
+      <c r="J12" s="140"/>
+      <c r="K12" s="140" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  \rightarrow </v>
       </c>
-      <c r="L12" s="150"/>
-      <c r="M12" s="149" t="s">
-        <v>671</v>
-      </c>
-      <c r="N12" s="145" t="str">
+      <c r="L12" s="140"/>
+      <c r="M12" s="139" t="s">
+        <v>666</v>
+      </c>
+      <c r="N12" s="135" t="str">
         <f t="shared" si="0"/>
         <v>\)
 \
 \</v>
       </c>
-      <c r="O12" s="146" t="str">
+      <c r="O12" s="136" t="str">
         <f t="shared" si="3"/>
         <v>\
 \(\displaystyle
@@ -10128,45 +10150,45 @@
       </c>
     </row>
     <row r="13" spans="2:22" ht="48" x14ac:dyDescent="0.25">
-      <c r="B13" s="141" t="s">
-        <v>640</v>
+      <c r="B13" s="131" t="s">
+        <v>635</v>
       </c>
       <c r="C13" s="61"/>
       <c r="D13" s="11" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="60" t="s">
-        <v>262</v>
-      </c>
-      <c r="G13" s="143" t="str">
+        <v>257</v>
+      </c>
+      <c r="G13" s="133" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">\
 \(\displaystyle
 \ </v>
       </c>
-      <c r="H13" s="153" t="s">
-        <v>681</v>
-      </c>
-      <c r="I13" s="149" t="s">
-        <v>655</v>
-      </c>
-      <c r="J13" s="153"/>
-      <c r="K13" s="153" t="str">
+      <c r="H13" s="143" t="s">
+        <v>676</v>
+      </c>
+      <c r="I13" s="139" t="s">
+        <v>650</v>
+      </c>
+      <c r="J13" s="143"/>
+      <c r="K13" s="143" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  \rightarrow </v>
       </c>
-      <c r="L13" s="153" t="s">
-        <v>678</v>
-      </c>
-      <c r="M13" s="153"/>
-      <c r="N13" s="145" t="str">
+      <c r="L13" s="143" t="s">
+        <v>673</v>
+      </c>
+      <c r="M13" s="143"/>
+      <c r="N13" s="135" t="str">
         <f t="shared" si="0"/>
         <v>\)
 \
 \</v>
       </c>
-      <c r="O13" s="146" t="str">
+      <c r="O13" s="136" t="str">
         <f t="shared" si="3"/>
         <v>\
 \(\displaystyle
@@ -10176,49 +10198,49 @@
       </c>
     </row>
     <row r="14" spans="2:22" ht="48" x14ac:dyDescent="0.25">
-      <c r="B14" s="141" t="s">
-        <v>641</v>
+      <c r="B14" s="131" t="s">
+        <v>636</v>
       </c>
       <c r="C14" s="61"/>
       <c r="D14" s="11" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="60" t="s">
-        <v>263</v>
-      </c>
-      <c r="G14" s="143" t="str">
+        <v>258</v>
+      </c>
+      <c r="G14" s="133" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">\
 \(\displaystyle
 \ </v>
       </c>
-      <c r="H14" s="153" t="s">
-        <v>682</v>
-      </c>
-      <c r="I14" s="149" t="s">
-        <v>670</v>
-      </c>
-      <c r="J14" s="149" t="s">
-        <v>656</v>
-      </c>
-      <c r="K14" s="153" t="str">
+      <c r="H14" s="143" t="s">
+        <v>677</v>
+      </c>
+      <c r="I14" s="139" t="s">
+        <v>665</v>
+      </c>
+      <c r="J14" s="139" t="s">
+        <v>651</v>
+      </c>
+      <c r="K14" s="143" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  \rightarrow </v>
       </c>
-      <c r="L14" s="153" t="s">
-        <v>672</v>
-      </c>
-      <c r="M14" s="149" t="s">
-        <v>661</v>
-      </c>
-      <c r="N14" s="145" t="str">
+      <c r="L14" s="143" t="s">
+        <v>667</v>
+      </c>
+      <c r="M14" s="139" t="s">
+        <v>656</v>
+      </c>
+      <c r="N14" s="135" t="str">
         <f t="shared" si="0"/>
         <v>\)
 \
 \</v>
       </c>
-      <c r="O14" s="146" t="str">
+      <c r="O14" s="136" t="str">
         <f t="shared" si="3"/>
         <v>\
 \(\displaystyle
@@ -10228,49 +10250,49 @@
       </c>
     </row>
     <row r="15" spans="2:22" ht="48" x14ac:dyDescent="0.25">
-      <c r="B15" s="141" t="s">
-        <v>642</v>
+      <c r="B15" s="131" t="s">
+        <v>637</v>
       </c>
       <c r="C15" s="61"/>
       <c r="D15" s="11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="60" t="s">
-        <v>265</v>
-      </c>
-      <c r="G15" s="143" t="str">
+        <v>260</v>
+      </c>
+      <c r="G15" s="133" t="str">
         <f>G8</f>
         <v xml:space="preserve">\
 \(\displaystyle
 \ </v>
       </c>
-      <c r="H15" s="153" t="s">
-        <v>674</v>
-      </c>
-      <c r="I15" s="154" t="s">
-        <v>675</v>
-      </c>
-      <c r="J15" s="154" t="s">
-        <v>676</v>
-      </c>
-      <c r="K15" s="153" t="str">
+      <c r="H15" s="143" t="s">
+        <v>669</v>
+      </c>
+      <c r="I15" s="144" t="s">
+        <v>670</v>
+      </c>
+      <c r="J15" s="144" t="s">
+        <v>671</v>
+      </c>
+      <c r="K15" s="143" t="str">
         <f>K8</f>
         <v xml:space="preserve">  \rightarrow </v>
       </c>
-      <c r="L15" s="154" t="s">
-        <v>683</v>
-      </c>
-      <c r="M15" s="154" t="s">
-        <v>677</v>
-      </c>
-      <c r="N15" s="145" t="str">
+      <c r="L15" s="144" t="s">
+        <v>678</v>
+      </c>
+      <c r="M15" s="144" t="s">
+        <v>672</v>
+      </c>
+      <c r="N15" s="135" t="str">
         <f t="shared" si="0"/>
         <v>\)
 \
 \</v>
       </c>
-      <c r="O15" s="146" t="str">
+      <c r="O15" s="136" t="str">
         <f t="shared" si="3"/>
         <v>\
 \(\displaystyle
@@ -10280,49 +10302,49 @@
       </c>
     </row>
     <row r="16" spans="2:22" ht="48" x14ac:dyDescent="0.25">
-      <c r="B16" s="141" t="s">
-        <v>643</v>
+      <c r="B16" s="131" t="s">
+        <v>638</v>
       </c>
       <c r="C16" s="61"/>
       <c r="D16" s="9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="60" t="s">
-        <v>266</v>
-      </c>
-      <c r="G16" s="143" t="str">
+        <v>261</v>
+      </c>
+      <c r="G16" s="133" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">\
 \(\displaystyle
 \ </v>
       </c>
-      <c r="H16" s="153" t="s">
-        <v>684</v>
-      </c>
-      <c r="I16" s="154" t="s">
-        <v>685</v>
-      </c>
-      <c r="J16" s="154" t="s">
-        <v>686</v>
-      </c>
-      <c r="K16" s="153" t="str">
+      <c r="H16" s="143" t="s">
+        <v>679</v>
+      </c>
+      <c r="I16" s="144" t="s">
+        <v>680</v>
+      </c>
+      <c r="J16" s="144" t="s">
+        <v>681</v>
+      </c>
+      <c r="K16" s="143" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  \rightarrow </v>
       </c>
-      <c r="L16" s="153" t="s">
-        <v>687</v>
-      </c>
-      <c r="M16" s="154" t="s">
-        <v>688</v>
-      </c>
-      <c r="N16" s="145" t="str">
+      <c r="L16" s="143" t="s">
+        <v>682</v>
+      </c>
+      <c r="M16" s="144" t="s">
+        <v>683</v>
+      </c>
+      <c r="N16" s="135" t="str">
         <f t="shared" si="0"/>
         <v>\)
 \
 \</v>
       </c>
-      <c r="O16" s="146" t="str">
+      <c r="O16" s="136" t="str">
         <f t="shared" si="3"/>
         <v>\
 \(\displaystyle
@@ -10332,49 +10354,49 @@
       </c>
     </row>
     <row r="17" spans="2:15" ht="48" x14ac:dyDescent="0.25">
-      <c r="B17" s="141" t="s">
-        <v>644</v>
+      <c r="B17" s="131" t="s">
+        <v>639</v>
       </c>
       <c r="C17" s="61"/>
       <c r="D17" s="9" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="60" t="s">
-        <v>267</v>
-      </c>
-      <c r="G17" s="143" t="str">
+        <v>262</v>
+      </c>
+      <c r="G17" s="133" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">\
 \(\displaystyle
 \ </v>
       </c>
-      <c r="H17" s="153" t="s">
-        <v>692</v>
-      </c>
-      <c r="I17" s="154" t="s">
-        <v>693</v>
-      </c>
-      <c r="J17" s="154" t="s">
-        <v>694</v>
-      </c>
-      <c r="K17" s="153" t="str">
+      <c r="H17" s="143" t="s">
+        <v>687</v>
+      </c>
+      <c r="I17" s="144" t="s">
+        <v>688</v>
+      </c>
+      <c r="J17" s="144" t="s">
+        <v>689</v>
+      </c>
+      <c r="K17" s="143" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  \rightarrow </v>
       </c>
-      <c r="L17" s="153" t="s">
-        <v>695</v>
-      </c>
-      <c r="M17" s="154" t="s">
-        <v>696</v>
-      </c>
-      <c r="N17" s="145" t="str">
+      <c r="L17" s="143" t="s">
+        <v>690</v>
+      </c>
+      <c r="M17" s="144" t="s">
+        <v>691</v>
+      </c>
+      <c r="N17" s="135" t="str">
         <f t="shared" si="0"/>
         <v>\)
 \
 \</v>
       </c>
-      <c r="O17" s="146" t="str">
+      <c r="O17" s="136" t="str">
         <f t="shared" si="3"/>
         <v>\
 \(\displaystyle
@@ -10384,49 +10406,49 @@
       </c>
     </row>
     <row r="18" spans="2:15" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="141" t="s">
-        <v>645</v>
+      <c r="B18" s="131" t="s">
+        <v>640</v>
       </c>
       <c r="C18" s="61"/>
       <c r="D18" s="9" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="60" t="s">
-        <v>268</v>
-      </c>
-      <c r="G18" s="143" t="str">
+        <v>263</v>
+      </c>
+      <c r="G18" s="133" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">\
 \(\displaystyle
 \ </v>
       </c>
-      <c r="H18" s="153" t="s">
-        <v>700</v>
-      </c>
-      <c r="I18" s="154" t="s">
-        <v>703</v>
-      </c>
-      <c r="J18" s="154" t="s">
-        <v>697</v>
-      </c>
-      <c r="K18" s="153" t="str">
+      <c r="H18" s="143" t="s">
+        <v>695</v>
+      </c>
+      <c r="I18" s="144" t="s">
+        <v>698</v>
+      </c>
+      <c r="J18" s="144" t="s">
+        <v>692</v>
+      </c>
+      <c r="K18" s="143" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  \rightarrow </v>
       </c>
-      <c r="L18" s="153" t="s">
-        <v>698</v>
-      </c>
-      <c r="M18" s="154" t="s">
-        <v>699</v>
-      </c>
-      <c r="N18" s="145" t="str">
+      <c r="L18" s="143" t="s">
+        <v>693</v>
+      </c>
+      <c r="M18" s="144" t="s">
+        <v>694</v>
+      </c>
+      <c r="N18" s="135" t="str">
         <f t="shared" si="0"/>
         <v>\)
 \
 \</v>
       </c>
-      <c r="O18" s="146" t="str">
+      <c r="O18" s="136" t="str">
         <f t="shared" si="3"/>
         <v>\
 \(\displaystyle
@@ -10436,49 +10458,49 @@
       </c>
     </row>
     <row r="19" spans="2:15" ht="72.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="141" t="s">
-        <v>646</v>
+      <c r="B19" s="131" t="s">
+        <v>641</v>
       </c>
       <c r="C19" s="61"/>
       <c r="D19" s="9" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="60" t="s">
-        <v>269</v>
-      </c>
-      <c r="G19" s="143" t="str">
+        <v>264</v>
+      </c>
+      <c r="G19" s="133" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">\
 \(\displaystyle
 \ </v>
       </c>
-      <c r="H19" s="153" t="s">
-        <v>701</v>
-      </c>
-      <c r="I19" s="154" t="s">
-        <v>702</v>
-      </c>
-      <c r="J19" s="154" t="s">
-        <v>704</v>
-      </c>
-      <c r="K19" s="153" t="str">
+      <c r="H19" s="143" t="s">
+        <v>696</v>
+      </c>
+      <c r="I19" s="144" t="s">
+        <v>697</v>
+      </c>
+      <c r="J19" s="144" t="s">
+        <v>699</v>
+      </c>
+      <c r="K19" s="143" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  \rightarrow </v>
       </c>
-      <c r="L19" s="153" t="s">
-        <v>705</v>
-      </c>
-      <c r="M19" s="154" t="s">
-        <v>688</v>
-      </c>
-      <c r="N19" s="145" t="str">
+      <c r="L19" s="143" t="s">
+        <v>700</v>
+      </c>
+      <c r="M19" s="144" t="s">
+        <v>683</v>
+      </c>
+      <c r="N19" s="135" t="str">
         <f t="shared" si="0"/>
         <v>\)
 \
 \</v>
       </c>
-      <c r="O19" s="146" t="str">
+      <c r="O19" s="136" t="str">
         <f t="shared" si="3"/>
         <v>\
 \(\displaystyle
@@ -10488,47 +10510,47 @@
       </c>
     </row>
     <row r="20" spans="2:15" ht="72.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="141" t="s">
-        <v>647</v>
+      <c r="B20" s="131" t="s">
+        <v>642</v>
       </c>
       <c r="C20" s="61"/>
       <c r="D20" s="9" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="60" t="s">
-        <v>270</v>
-      </c>
-      <c r="G20" s="143" t="str">
+        <v>265</v>
+      </c>
+      <c r="G20" s="133" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">\
 \(\displaystyle
 \ </v>
       </c>
-      <c r="H20" s="153" t="s">
-        <v>681</v>
-      </c>
-      <c r="I20" s="154" t="s">
-        <v>715</v>
-      </c>
-      <c r="J20" s="154" t="s">
-        <v>716</v>
-      </c>
-      <c r="K20" s="153" t="str">
+      <c r="H20" s="143" t="s">
+        <v>676</v>
+      </c>
+      <c r="I20" s="144" t="s">
+        <v>710</v>
+      </c>
+      <c r="J20" s="144" t="s">
+        <v>711</v>
+      </c>
+      <c r="K20" s="143" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  \rightarrow </v>
       </c>
-      <c r="L20" s="153" t="s">
-        <v>717</v>
-      </c>
-      <c r="M20" s="153"/>
-      <c r="N20" s="145" t="str">
+      <c r="L20" s="143" t="s">
+        <v>712</v>
+      </c>
+      <c r="M20" s="143"/>
+      <c r="N20" s="135" t="str">
         <f t="shared" si="0"/>
         <v>\)
 \
 \</v>
       </c>
-      <c r="O20" s="146" t="str">
+      <c r="O20" s="136" t="str">
         <f t="shared" si="3"/>
         <v>\
 \(\displaystyle
@@ -10538,49 +10560,49 @@
       </c>
     </row>
     <row r="21" spans="2:15" ht="72.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="141" t="s">
-        <v>648</v>
+      <c r="B21" s="131" t="s">
+        <v>643</v>
       </c>
       <c r="C21" s="61"/>
       <c r="D21" s="11" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="60" t="s">
-        <v>271</v>
-      </c>
-      <c r="G21" s="143" t="str">
+        <v>266</v>
+      </c>
+      <c r="G21" s="133" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">\
 \(\displaystyle
 \ </v>
       </c>
-      <c r="H21" s="153" t="s">
+      <c r="H21" s="143" t="s">
+        <v>696</v>
+      </c>
+      <c r="I21" s="144" t="s">
         <v>701</v>
       </c>
-      <c r="I21" s="154" t="s">
-        <v>706</v>
-      </c>
-      <c r="J21" s="154" t="s">
-        <v>707</v>
-      </c>
-      <c r="K21" s="153" t="str">
+      <c r="J21" s="144" t="s">
+        <v>702</v>
+      </c>
+      <c r="K21" s="143" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  \rightarrow </v>
       </c>
-      <c r="L21" s="153" t="s">
-        <v>708</v>
-      </c>
-      <c r="M21" s="154" t="s">
-        <v>709</v>
-      </c>
-      <c r="N21" s="145" t="str">
+      <c r="L21" s="143" t="s">
+        <v>703</v>
+      </c>
+      <c r="M21" s="144" t="s">
+        <v>704</v>
+      </c>
+      <c r="N21" s="135" t="str">
         <f t="shared" si="0"/>
         <v>\)
 \
 \</v>
       </c>
-      <c r="O21" s="146" t="str">
+      <c r="O21" s="136" t="str">
         <f t="shared" si="3"/>
         <v>\
 \(\displaystyle
@@ -10590,49 +10612,49 @@
       </c>
     </row>
     <row r="22" spans="2:15" ht="72.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="141" t="s">
-        <v>649</v>
+      <c r="B22" s="131" t="s">
+        <v>644</v>
       </c>
       <c r="C22" s="61"/>
       <c r="D22" s="9" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="60" t="s">
-        <v>272</v>
-      </c>
-      <c r="G22" s="143" t="str">
+        <v>267</v>
+      </c>
+      <c r="G22" s="133" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">\
 \(\displaystyle
 \ </v>
       </c>
-      <c r="H22" s="153" t="s">
-        <v>710</v>
-      </c>
-      <c r="I22" s="154" t="s">
-        <v>711</v>
-      </c>
-      <c r="J22" s="154" t="s">
-        <v>712</v>
-      </c>
-      <c r="K22" s="153" t="str">
+      <c r="H22" s="143" t="s">
+        <v>705</v>
+      </c>
+      <c r="I22" s="144" t="s">
+        <v>706</v>
+      </c>
+      <c r="J22" s="144" t="s">
+        <v>707</v>
+      </c>
+      <c r="K22" s="143" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  \rightarrow </v>
       </c>
-      <c r="L22" s="153" t="s">
-        <v>713</v>
-      </c>
-      <c r="M22" s="154" t="s">
-        <v>709</v>
-      </c>
-      <c r="N22" s="145" t="str">
+      <c r="L22" s="143" t="s">
+        <v>708</v>
+      </c>
+      <c r="M22" s="144" t="s">
+        <v>704</v>
+      </c>
+      <c r="N22" s="135" t="str">
         <f t="shared" si="0"/>
         <v>\)
 \
 \</v>
       </c>
-      <c r="O22" s="146" t="str">
+      <c r="O22" s="136" t="str">
         <f t="shared" si="3"/>
         <v>\
 \(\displaystyle
@@ -10642,49 +10664,49 @@
       </c>
     </row>
     <row r="23" spans="2:15" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="142" t="s">
-        <v>650</v>
+      <c r="B23" s="132" t="s">
+        <v>645</v>
       </c>
       <c r="C23" s="62"/>
       <c r="D23" s="20" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E23" s="63"/>
       <c r="F23" s="60" t="s">
-        <v>273</v>
-      </c>
-      <c r="G23" s="143" t="str">
+        <v>268</v>
+      </c>
+      <c r="G23" s="133" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">\
 \(\displaystyle
 \ </v>
       </c>
-      <c r="H23" s="153" t="s">
-        <v>654</v>
-      </c>
-      <c r="I23" s="154" t="s">
-        <v>714</v>
-      </c>
-      <c r="J23" s="154" t="s">
-        <v>699</v>
-      </c>
-      <c r="K23" s="153" t="str">
+      <c r="H23" s="143" t="s">
+        <v>649</v>
+      </c>
+      <c r="I23" s="144" t="s">
+        <v>709</v>
+      </c>
+      <c r="J23" s="144" t="s">
+        <v>694</v>
+      </c>
+      <c r="K23" s="143" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  \rightarrow </v>
       </c>
-      <c r="L23" s="153" t="s">
-        <v>701</v>
-      </c>
-      <c r="M23" s="154" t="s">
-        <v>656</v>
-      </c>
-      <c r="N23" s="145" t="str">
+      <c r="L23" s="143" t="s">
+        <v>696</v>
+      </c>
+      <c r="M23" s="144" t="s">
+        <v>651</v>
+      </c>
+      <c r="N23" s="135" t="str">
         <f t="shared" si="0"/>
         <v>\)
 \
 \</v>
       </c>
-      <c r="O23" s="146" t="str">
+      <c r="O23" s="136" t="str">
         <f t="shared" si="3"/>
         <v>\
 \(\displaystyle
@@ -10694,47 +10716,47 @@
       </c>
     </row>
     <row r="24" spans="2:15" ht="48" x14ac:dyDescent="0.25">
-      <c r="B24" s="141" t="s">
-        <v>651</v>
+      <c r="B24" s="131" t="s">
+        <v>646</v>
       </c>
       <c r="C24" s="61"/>
       <c r="D24" s="11" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="60" t="s">
-        <v>274</v>
-      </c>
-      <c r="G24" s="143" t="str">
+        <v>269</v>
+      </c>
+      <c r="G24" s="133" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">\
 \(\displaystyle
 \ </v>
       </c>
-      <c r="H24" s="153" t="s">
-        <v>718</v>
-      </c>
-      <c r="I24" s="154" t="s">
-        <v>719</v>
-      </c>
-      <c r="J24" s="153"/>
-      <c r="K24" s="153" t="str">
+      <c r="H24" s="143" t="s">
+        <v>713</v>
+      </c>
+      <c r="I24" s="144" t="s">
+        <v>714</v>
+      </c>
+      <c r="J24" s="143"/>
+      <c r="K24" s="143" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  \rightarrow </v>
       </c>
-      <c r="L24" s="153" t="s">
-        <v>701</v>
-      </c>
-      <c r="M24" s="154" t="s">
-        <v>720</v>
-      </c>
-      <c r="N24" s="145" t="str">
+      <c r="L24" s="143" t="s">
+        <v>696</v>
+      </c>
+      <c r="M24" s="144" t="s">
+        <v>715</v>
+      </c>
+      <c r="N24" s="135" t="str">
         <f t="shared" si="0"/>
         <v>\)
 \
 \</v>
       </c>
-      <c r="O24" s="146" t="str">
+      <c r="O24" s="136" t="str">
         <f t="shared" si="3"/>
         <v>\
 \(\displaystyle
@@ -10744,42 +10766,42 @@
       </c>
     </row>
     <row r="25" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="142"/>
+      <c r="B25" s="132"/>
       <c r="C25" s="62"/>
       <c r="D25" s="20"/>
       <c r="E25" s="63"/>
       <c r="F25" s="60"/>
-      <c r="G25" s="143"/>
-      <c r="H25" s="153"/>
-      <c r="I25" s="153"/>
-      <c r="J25" s="153"/>
-      <c r="K25" s="153"/>
-      <c r="L25" s="153"/>
-      <c r="M25" s="153"/>
-      <c r="N25" s="143"/>
-      <c r="O25" s="146"/>
+      <c r="G25" s="133"/>
+      <c r="H25" s="143"/>
+      <c r="I25" s="143"/>
+      <c r="J25" s="143"/>
+      <c r="K25" s="143"/>
+      <c r="L25" s="143"/>
+      <c r="M25" s="143"/>
+      <c r="N25" s="133"/>
+      <c r="O25" s="136"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="G26" s="143"/>
-      <c r="H26" s="143"/>
-      <c r="I26" s="143"/>
-      <c r="J26" s="143"/>
-      <c r="K26" s="143"/>
-      <c r="L26" s="143"/>
-      <c r="M26" s="143"/>
-      <c r="N26" s="143"/>
-      <c r="O26" s="143"/>
+      <c r="G26" s="133"/>
+      <c r="H26" s="133"/>
+      <c r="I26" s="133"/>
+      <c r="J26" s="133"/>
+      <c r="K26" s="133"/>
+      <c r="L26" s="133"/>
+      <c r="M26" s="133"/>
+      <c r="N26" s="133"/>
+      <c r="O26" s="133"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="G27" s="143"/>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="143"/>
-      <c r="K27" s="143"/>
-      <c r="L27" s="143"/>
-      <c r="M27" s="143"/>
-      <c r="N27" s="143"/>
-      <c r="O27" s="143"/>
+      <c r="G27" s="133"/>
+      <c r="H27" s="133"/>
+      <c r="I27" s="133"/>
+      <c r="J27" s="133"/>
+      <c r="K27" s="133"/>
+      <c r="L27" s="133"/>
+      <c r="M27" s="133"/>
+      <c r="N27" s="133"/>
+      <c r="O27" s="133"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10787,7 +10809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8F2236-79D6-438F-8440-5893942C5CA4}">
   <dimension ref="B2:V25"/>
   <sheetViews>
@@ -10818,33 +10840,33 @@
         <v>18</v>
       </c>
       <c r="D2" s="67" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E2" s="67" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="67" t="s">
-        <v>275</v>
-      </c>
-      <c r="G2" s="143"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="146"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="146"/>
-      <c r="Q2" s="146"/>
-      <c r="R2" s="146"/>
-      <c r="S2" s="146"/>
-      <c r="T2" s="146"/>
-      <c r="U2" s="146"/>
-      <c r="V2" s="146"/>
+        <v>270</v>
+      </c>
+      <c r="G2" s="133"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="136"/>
+      <c r="R2" s="136"/>
+      <c r="S2" s="136"/>
+      <c r="T2" s="136"/>
+      <c r="U2" s="136"/>
+      <c r="V2" s="136"/>
     </row>
     <row r="3" spans="2:22" ht="60" x14ac:dyDescent="0.25">
-      <c r="B3" s="141" t="str">
+      <c r="B3" s="131" t="str">
         <f>'SecondChem (2)'!B3</f>
         <v>Simple *NH~4~^+^* oxidation by *O~2~*</v>
       </c>
@@ -10864,25 +10886,25 @@
 R_{NH4Ox} = k_{NH4Ox}[NH_4^+][O_2]
 \)</v>
       </c>
-      <c r="G3" s="143"/>
+      <c r="G3" s="133"/>
       <c r="H3" s="129"/>
-      <c r="I3" s="147"/>
-      <c r="J3" s="147"/>
-      <c r="K3" s="147"/>
-      <c r="L3" s="147"/>
-      <c r="M3" s="147"/>
-      <c r="N3" s="145"/>
-      <c r="O3" s="146"/>
-      <c r="P3" s="146"/>
-      <c r="Q3" s="146"/>
-      <c r="R3" s="146"/>
-      <c r="S3" s="146"/>
-      <c r="T3" s="146"/>
-      <c r="U3" s="146"/>
-      <c r="V3" s="146"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="135"/>
+      <c r="O3" s="136"/>
+      <c r="P3" s="136"/>
+      <c r="Q3" s="136"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="136"/>
+      <c r="T3" s="136"/>
+      <c r="U3" s="136"/>
+      <c r="V3" s="136"/>
     </row>
     <row r="4" spans="2:22" ht="60" x14ac:dyDescent="0.25">
-      <c r="B4" s="141" t="str">
+      <c r="B4" s="131" t="str">
         <f>'SecondChem (2)'!B5</f>
         <v>Ammonium oxidation</v>
       </c>
@@ -10898,18 +10920,18 @@
 R_{Ammonium \  \ oxidation} = k_{NH4O2}[NH_4^+][O_2]
 \)</v>
       </c>
-      <c r="G4" s="143"/>
-      <c r="H4" s="143"/>
-      <c r="I4" s="147"/>
-      <c r="J4" s="147"/>
-      <c r="K4" s="143"/>
-      <c r="L4" s="143"/>
-      <c r="M4" s="147"/>
-      <c r="N4" s="143"/>
-      <c r="O4" s="146"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="133"/>
+      <c r="L4" s="133"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="133"/>
+      <c r="O4" s="136"/>
     </row>
     <row r="5" spans="2:22" ht="60" x14ac:dyDescent="0.25">
-      <c r="B5" s="141" t="str">
+      <c r="B5" s="131" t="str">
         <f>'SecondChem (2)'!B7</f>
         <v xml:space="preserve">*NH~4~^+^* oxidation by *O~2~*: nitrousation </v>
       </c>
@@ -10929,18 +10951,18 @@
 R_{Nitrousation} = R_{Ammonium \  \ oxidation} \frac{K_{part \  \ ammox}}{K_{part\  \ ammox} + O_2}
 \)</v>
       </c>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="143"/>
-      <c r="K5" s="143"/>
-      <c r="L5" s="143"/>
-      <c r="M5" s="143"/>
-      <c r="N5" s="143"/>
-      <c r="O5" s="146"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="133"/>
+      <c r="L5" s="133"/>
+      <c r="M5" s="133"/>
+      <c r="N5" s="133"/>
+      <c r="O5" s="136"/>
     </row>
     <row r="6" spans="2:22" ht="60" x14ac:dyDescent="0.25">
-      <c r="B6" s="141" t="str">
+      <c r="B6" s="131" t="str">
         <f>'SecondChem (2)'!B4</f>
         <v>*NO~2~^-^* oxidation by *O~2~*: nitratation</v>
       </c>
@@ -10960,18 +10982,18 @@
 R_{NO2O2} = k_{NO2O2}[NO_2^-][O_2]
 \)</v>
       </c>
-      <c r="G6" s="143"/>
-      <c r="H6" s="143"/>
-      <c r="I6" s="143"/>
-      <c r="J6" s="143"/>
-      <c r="K6" s="143"/>
-      <c r="L6" s="143"/>
-      <c r="M6" s="143"/>
-      <c r="N6" s="143"/>
-      <c r="O6" s="146"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133"/>
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="133"/>
+      <c r="O6" s="136"/>
     </row>
     <row r="7" spans="2:22" ht="60" x14ac:dyDescent="0.25">
-      <c r="B7" s="141" t="str">
+      <c r="B7" s="131" t="str">
         <f>'SecondChem (2)'!B6</f>
         <v xml:space="preserve">*NH~4~^+^* oxidation by *O~2~*: nitritation </v>
       </c>
@@ -10991,18 +11013,18 @@
 R_{NH4Ox} = R_{Ammonium \  \ oxidation} \frac{O_2}{K_{part \  \ ammox} + O_2}
 \)</v>
       </c>
-      <c r="G7" s="143"/>
-      <c r="H7" s="143"/>
-      <c r="I7" s="143"/>
-      <c r="J7" s="143"/>
-      <c r="K7" s="143"/>
-      <c r="L7" s="143"/>
-      <c r="M7" s="143"/>
-      <c r="N7" s="143"/>
-      <c r="O7" s="146"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="133"/>
+      <c r="L7" s="133"/>
+      <c r="M7" s="133"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="136"/>
     </row>
     <row r="8" spans="2:22" ht="60" x14ac:dyDescent="0.25">
-      <c r="B8" s="141" t="str">
+      <c r="B8" s="131" t="str">
         <f>'SecondChem (2)'!B8</f>
         <v>*NH~4~^+^* oxidation by *NO~2~^-^* (Deammonification, anammox)</v>
       </c>
@@ -11022,18 +11044,18 @@
 R_{NH4NO2} = k_{NH4NO2}[NH_4^+][O_2]
 \)</v>
       </c>
-      <c r="G8" s="143"/>
-      <c r="H8" s="143"/>
-      <c r="I8" s="143"/>
-      <c r="J8" s="143"/>
-      <c r="K8" s="143"/>
-      <c r="L8" s="143"/>
-      <c r="M8" s="143"/>
-      <c r="N8" s="143"/>
-      <c r="O8" s="146"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="133"/>
+      <c r="K8" s="133"/>
+      <c r="L8" s="133"/>
+      <c r="M8" s="133"/>
+      <c r="N8" s="133"/>
+      <c r="O8" s="136"/>
     </row>
     <row r="9" spans="2:22" ht="60" x14ac:dyDescent="0.25">
-      <c r="B9" s="141" t="str">
+      <c r="B9" s="131" t="str">
         <f>'SecondChem (2)'!B9</f>
         <v>*Mn^2+^* oxidation by *O~2~*</v>
       </c>
@@ -11053,18 +11075,18 @@
 R_{MnOx} = k_{MnOx}[Mn^{2+}][O_2]
 \)</v>
       </c>
-      <c r="G9" s="143"/>
-      <c r="H9" s="143"/>
-      <c r="I9" s="143"/>
-      <c r="J9" s="143"/>
-      <c r="K9" s="143"/>
-      <c r="L9" s="143"/>
-      <c r="M9" s="143"/>
-      <c r="N9" s="143"/>
-      <c r="O9" s="146"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="133"/>
+      <c r="L9" s="133"/>
+      <c r="M9" s="133"/>
+      <c r="N9" s="133"/>
+      <c r="O9" s="136"/>
     </row>
     <row r="10" spans="2:22" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="141" t="str">
+      <c r="B10" s="131" t="str">
         <f>'SecondChem (2)'!B10</f>
         <v>*Fe^2+^* oxidation by *O~2~*</v>
       </c>
@@ -11084,18 +11106,18 @@
 R_{FeOx} = k_{FeOx}[Fe^{2+}][O_2]
 \)</v>
       </c>
-      <c r="G10" s="143"/>
-      <c r="H10" s="143"/>
-      <c r="I10" s="143"/>
-      <c r="J10" s="143"/>
-      <c r="K10" s="143"/>
-      <c r="L10" s="143"/>
-      <c r="M10" s="143"/>
-      <c r="N10" s="143"/>
-      <c r="O10" s="146"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="133"/>
+      <c r="K10" s="133"/>
+      <c r="L10" s="133"/>
+      <c r="M10" s="133"/>
+      <c r="N10" s="133"/>
+      <c r="O10" s="136"/>
     </row>
     <row r="11" spans="2:22" ht="60" x14ac:dyDescent="0.25">
-      <c r="B11" s="141" t="str">
+      <c r="B11" s="131" t="str">
         <f>'SecondChem (2)'!B11</f>
         <v>*H~2~S* oxidation by *O~2~*</v>
       </c>
@@ -11115,18 +11137,18 @@
 R_{TSOx} = k_{TSOx}[H_2S][O_2]
 \)</v>
       </c>
-      <c r="G11" s="143"/>
-      <c r="H11" s="143"/>
-      <c r="I11" s="143"/>
-      <c r="J11" s="143"/>
-      <c r="K11" s="143"/>
-      <c r="L11" s="143"/>
-      <c r="M11" s="143"/>
-      <c r="N11" s="143"/>
-      <c r="O11" s="146"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="133"/>
+      <c r="K11" s="133"/>
+      <c r="L11" s="133"/>
+      <c r="M11" s="133"/>
+      <c r="N11" s="133"/>
+      <c r="O11" s="136"/>
     </row>
     <row r="12" spans="2:22" ht="60" x14ac:dyDescent="0.25">
-      <c r="B12" s="141" t="str">
+      <c r="B12" s="131" t="str">
         <f>'SecondChem (2)'!B12</f>
         <v>*CH~4~* oxidation by *O~2~*</v>
       </c>
@@ -11146,18 +11168,18 @@
 R_{CH4Ox} = k_{CH4Ox}[CH_4][O_2]
 \)</v>
       </c>
-      <c r="G12" s="143"/>
-      <c r="H12" s="143"/>
-      <c r="I12" s="143"/>
-      <c r="J12" s="143"/>
-      <c r="K12" s="143"/>
-      <c r="L12" s="143"/>
-      <c r="M12" s="143"/>
-      <c r="N12" s="143"/>
-      <c r="O12" s="146"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="133"/>
+      <c r="K12" s="133"/>
+      <c r="L12" s="133"/>
+      <c r="M12" s="133"/>
+      <c r="N12" s="133"/>
+      <c r="O12" s="136"/>
     </row>
     <row r="13" spans="2:22" ht="60" x14ac:dyDescent="0.25">
-      <c r="B13" s="141" t="str">
+      <c r="B13" s="131" t="str">
         <f>'SecondChem (2)'!B13</f>
         <v>*FeS* oxidation by *O~2~*</v>
       </c>
@@ -11177,18 +11199,18 @@
 R_{FeSOx} = k_{FeSOx}[FeS][O_2]
 \)</v>
       </c>
-      <c r="G13" s="143"/>
-      <c r="H13" s="143"/>
-      <c r="I13" s="143"/>
-      <c r="J13" s="143"/>
-      <c r="K13" s="143"/>
-      <c r="L13" s="143"/>
-      <c r="M13" s="143"/>
-      <c r="N13" s="143"/>
-      <c r="O13" s="146"/>
-    </row>
-    <row r="14" spans="2:22" ht="60" x14ac:dyDescent="0.25">
-      <c r="B14" s="141" t="str">
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="133"/>
+      <c r="K13" s="133"/>
+      <c r="L13" s="133"/>
+      <c r="M13" s="133"/>
+      <c r="N13" s="133"/>
+      <c r="O13" s="136"/>
+    </row>
+    <row r="14" spans="2:22" ht="72" x14ac:dyDescent="0.25">
+      <c r="B14" s="131" t="str">
         <f>'SecondChem (2)'!B14</f>
         <v>*FeS~2~* oxidation by *O~2~*</v>
       </c>
@@ -11208,18 +11230,18 @@
 R_{FeS2Ox} = k_{FeS2Ox}[FeS_2][O_2]
 \)</v>
       </c>
-      <c r="G14" s="143"/>
-      <c r="H14" s="143"/>
-      <c r="I14" s="143"/>
-      <c r="J14" s="143"/>
-      <c r="K14" s="143"/>
-      <c r="L14" s="143"/>
-      <c r="M14" s="143"/>
-      <c r="N14" s="143"/>
-      <c r="O14" s="146"/>
-    </row>
-    <row r="15" spans="2:22" ht="60" x14ac:dyDescent="0.25">
-      <c r="B15" s="141" t="str">
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="133"/>
+      <c r="L14" s="133"/>
+      <c r="M14" s="133"/>
+      <c r="N14" s="133"/>
+      <c r="O14" s="136"/>
+    </row>
+    <row r="15" spans="2:22" ht="72" x14ac:dyDescent="0.25">
+      <c r="B15" s="131" t="str">
         <f>'SecondChem (2)'!B15</f>
         <v>*Mn^2+^* oxidation by *NO~3~^-^*</v>
       </c>
@@ -11239,18 +11261,18 @@
 R_{MnNO3} = k_{MnNO3}[Mn^{2+}][NO_3^-]
 \)</v>
       </c>
-      <c r="G15" s="143"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="143"/>
-      <c r="J15" s="143"/>
-      <c r="K15" s="143"/>
-      <c r="L15" s="143"/>
-      <c r="M15" s="143"/>
-      <c r="N15" s="143"/>
-      <c r="O15" s="146"/>
-    </row>
-    <row r="16" spans="2:22" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="141" t="str">
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="133"/>
+      <c r="K15" s="133"/>
+      <c r="L15" s="133"/>
+      <c r="M15" s="133"/>
+      <c r="N15" s="133"/>
+      <c r="O15" s="136"/>
+    </row>
+    <row r="16" spans="2:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="B16" s="131" t="str">
         <f>'SecondChem (2)'!B16</f>
         <v>*Fe^2+^* oxidation by *NO~3~^-^*</v>
       </c>
@@ -11270,18 +11292,18 @@
 R_{FeNO3} = k_{FeNO3}[Fe^{2+}][NO_3^-]
 \)</v>
       </c>
-      <c r="G16" s="143"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="143"/>
-      <c r="J16" s="143"/>
-      <c r="K16" s="143"/>
-      <c r="L16" s="143"/>
-      <c r="M16" s="143"/>
-      <c r="N16" s="143"/>
-      <c r="O16" s="146"/>
-    </row>
-    <row r="17" spans="2:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="B17" s="141" t="str">
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="133"/>
+      <c r="L16" s="133"/>
+      <c r="M16" s="133"/>
+      <c r="N16" s="133"/>
+      <c r="O16" s="136"/>
+    </row>
+    <row r="17" spans="2:15" ht="72" x14ac:dyDescent="0.25">
+      <c r="B17" s="131" t="str">
         <f>'SecondChem (2)'!B17</f>
         <v>∑*H~2~S* oxidation by *NO~3~^-^*</v>
       </c>
@@ -11301,18 +11323,18 @@
 R_{TSNO3} = k_{TSNO3}[H_2S][NO_3^-]
 \)</v>
       </c>
-      <c r="G17" s="143"/>
-      <c r="H17" s="143"/>
-      <c r="I17" s="143"/>
-      <c r="J17" s="143"/>
-      <c r="K17" s="143"/>
-      <c r="L17" s="143"/>
-      <c r="M17" s="143"/>
-      <c r="N17" s="143"/>
-      <c r="O17" s="146"/>
-    </row>
-    <row r="18" spans="2:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="B18" s="141" t="str">
+      <c r="G17" s="133"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="133"/>
+      <c r="J17" s="133"/>
+      <c r="K17" s="133"/>
+      <c r="L17" s="133"/>
+      <c r="M17" s="133"/>
+      <c r="N17" s="133"/>
+      <c r="O17" s="136"/>
+    </row>
+    <row r="18" spans="2:15" ht="72" x14ac:dyDescent="0.25">
+      <c r="B18" s="131" t="str">
         <f>'SecondChem (2)'!B18</f>
         <v>*Fe^2+^* oxidation by *MnO~2A,~ ~B~*</v>
       </c>
@@ -11332,18 +11354,18 @@
 R_{FeMn} = k_{FeMn}[Fe^{2+}][MnO_{2A, B}]
 \)</v>
       </c>
-      <c r="G18" s="143"/>
-      <c r="H18" s="143"/>
-      <c r="I18" s="143"/>
-      <c r="J18" s="143"/>
-      <c r="K18" s="143"/>
-      <c r="L18" s="143"/>
-      <c r="M18" s="143"/>
-      <c r="N18" s="143"/>
-      <c r="O18" s="146"/>
-    </row>
-    <row r="19" spans="2:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="B19" s="141" t="str">
+      <c r="G18" s="133"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="133"/>
+      <c r="J18" s="133"/>
+      <c r="K18" s="133"/>
+      <c r="L18" s="133"/>
+      <c r="M18" s="133"/>
+      <c r="N18" s="133"/>
+      <c r="O18" s="136"/>
+    </row>
+    <row r="19" spans="2:15" ht="72" x14ac:dyDescent="0.25">
+      <c r="B19" s="131" t="str">
         <f>'SecondChem (2)'!B19</f>
         <v>∑*H~2~S* oxidation by *MnO~2A,~ ~B~*</v>
       </c>
@@ -11363,18 +11385,18 @@
 R_{TSMnO2} = k_{TSMnO2}[H_2S][MnO_{2A, B}]
 \)</v>
       </c>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="143"/>
-      <c r="K19" s="143"/>
-      <c r="L19" s="143"/>
-      <c r="M19" s="143"/>
-      <c r="N19" s="143"/>
-      <c r="O19" s="146"/>
-    </row>
-    <row r="20" spans="2:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="B20" s="141" t="str">
+      <c r="G19" s="133"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="133"/>
+      <c r="J19" s="133"/>
+      <c r="K19" s="133"/>
+      <c r="L19" s="133"/>
+      <c r="M19" s="133"/>
+      <c r="N19" s="133"/>
+      <c r="O19" s="136"/>
+    </row>
+    <row r="20" spans="2:15" ht="72" x14ac:dyDescent="0.25">
+      <c r="B20" s="131" t="str">
         <f>'SecondChem (2)'!B20</f>
         <v>*FeS* oxidation by *MnO~2A,~ ~B~*</v>
       </c>
@@ -11394,18 +11416,18 @@
 R_{FeSMn} = k_{FeSMn}[FeS][MnO_{2A, B}]
 \)</v>
       </c>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="143"/>
-      <c r="K20" s="143"/>
-      <c r="L20" s="143"/>
-      <c r="M20" s="143"/>
-      <c r="N20" s="143"/>
-      <c r="O20" s="146"/>
-    </row>
-    <row r="21" spans="2:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="B21" s="141" t="str">
+      <c r="G20" s="133"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="133"/>
+      <c r="J20" s="133"/>
+      <c r="K20" s="133"/>
+      <c r="L20" s="133"/>
+      <c r="M20" s="133"/>
+      <c r="N20" s="133"/>
+      <c r="O20" s="136"/>
+    </row>
+    <row r="21" spans="2:15" ht="72" x14ac:dyDescent="0.25">
+      <c r="B21" s="131" t="str">
         <f>'SecondChem (2)'!B21</f>
         <v>∑*H~2~S* oxidation by *Fe(OH)~3A,~ ~B~*</v>
       </c>
@@ -11425,18 +11447,18 @@
 R_{TSFe} = k_{TSFe}[H_2S][Fe(OH)_{3A, B}]
 \)</v>
       </c>
-      <c r="G21" s="143"/>
-      <c r="H21" s="143"/>
-      <c r="I21" s="143"/>
-      <c r="J21" s="143"/>
-      <c r="K21" s="143"/>
-      <c r="L21" s="143"/>
-      <c r="M21" s="143"/>
-      <c r="N21" s="143"/>
-      <c r="O21" s="146"/>
-    </row>
-    <row r="22" spans="2:15" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="141" t="str">
+      <c r="G21" s="133"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="133"/>
+      <c r="J21" s="133"/>
+      <c r="K21" s="133"/>
+      <c r="L21" s="133"/>
+      <c r="M21" s="133"/>
+      <c r="N21" s="133"/>
+      <c r="O21" s="136"/>
+    </row>
+    <row r="22" spans="2:15" ht="72" x14ac:dyDescent="0.25">
+      <c r="B22" s="131" t="str">
         <f>'SecondChem (2)'!B22</f>
         <v>*FeS* oxidation by *Fe(OH)~3A,~ ~B~*</v>
       </c>
@@ -11456,18 +11478,18 @@
 R_{FeSFe} = k_{FeSFe}[FeS][Fe(OH)_{3A, B}]
 \)</v>
       </c>
-      <c r="G22" s="143"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="143"/>
-      <c r="J22" s="143"/>
-      <c r="K22" s="143"/>
-      <c r="L22" s="143"/>
-      <c r="M22" s="143"/>
-      <c r="N22" s="143"/>
-      <c r="O22" s="143"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="133"/>
+      <c r="K22" s="133"/>
+      <c r="L22" s="133"/>
+      <c r="M22" s="133"/>
+      <c r="N22" s="133"/>
+      <c r="O22" s="133"/>
     </row>
     <row r="23" spans="2:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="B23" s="141" t="str">
+      <c r="B23" s="131" t="str">
         <f>'SecondChem (2)'!B23</f>
         <v>*CH~4~* oxidation by *SO~4~^2-^*</v>
       </c>
@@ -11487,18 +11509,18 @@
 R_{CH4SO4} = k_{CH4SO4}[CH_4][SO_2^{2-}]
 \)</v>
       </c>
-      <c r="G23" s="143"/>
-      <c r="H23" s="143"/>
-      <c r="I23" s="143"/>
-      <c r="J23" s="143"/>
-      <c r="K23" s="143"/>
-      <c r="L23" s="143"/>
-      <c r="M23" s="143"/>
-      <c r="N23" s="143"/>
-      <c r="O23" s="143"/>
+      <c r="G23" s="133"/>
+      <c r="H23" s="133"/>
+      <c r="I23" s="133"/>
+      <c r="J23" s="133"/>
+      <c r="K23" s="133"/>
+      <c r="L23" s="133"/>
+      <c r="M23" s="133"/>
+      <c r="N23" s="133"/>
+      <c r="O23" s="133"/>
     </row>
     <row r="24" spans="2:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="B24" s="141" t="str">
+      <c r="B24" s="131" t="str">
         <f>'SecondChem (2)'!B24</f>
         <v>*H~2~* oxidation by *SO~4~^2-^*</v>
       </c>
@@ -11520,7 +11542,7 @@
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="141"/>
+      <c r="B25" s="131"/>
       <c r="C25" s="61"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
@@ -11532,7 +11554,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D39702-7F6C-4E77-B128-9B5539B55C21}">
   <dimension ref="B2:E21"/>
   <sheetViews>
@@ -11558,172 +11580,172 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D3" s="38"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D4" s="39"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D5" s="38"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D6" s="38"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D7" s="38"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D8" s="38"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D9" s="38"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D10" s="38"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D11" s="38"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D12" s="38"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D13" s="38"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D14" s="38"/>
     </row>
     <row r="15" spans="2:4" ht="27" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D15" s="38"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D16" s="38"/>
     </row>
     <row r="17" spans="2:4" ht="27" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D17" s="38"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D18" s="38"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D19" s="38"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D20" s="40"/>
     </row>
     <row r="21" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="17" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D21" s="41"/>
     </row>
@@ -11733,7 +11755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C5C115-0656-4E87-B01A-1390B4A383FF}">
   <dimension ref="B2:F18"/>
   <sheetViews>
@@ -11766,30 +11788,30 @@
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" s="36" t="s">
         <v>182</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="43" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D5" s="43"/>
       <c r="E5" s="43" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -11798,106 +11820,106 @@
     </row>
     <row r="7" spans="2:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D7" s="43"/>
       <c r="E7" s="36" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D8" s="43"/>
       <c r="E8" s="43" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="207" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C9" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E10" s="36" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E11" s="36" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C12" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="165" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C13" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="285" x14ac:dyDescent="0.25">
       <c r="E14" s="36" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="165" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C15" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="251.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E16" s="36" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C17" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="315" x14ac:dyDescent="0.25">
       <c r="E18" s="36" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -11906,7 +11928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B560C3-603A-4072-964D-8AC36A7F1082}">
   <dimension ref="B2:I26"/>
   <sheetViews>
@@ -11948,17 +11970,17 @@
     </row>
     <row r="3" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="47" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D3" s="46"/>
       <c r="E3" s="47" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -11966,10 +11988,10 @@
       <c r="C4" s="47"/>
       <c r="D4" s="46"/>
       <c r="E4" s="47" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="135" x14ac:dyDescent="0.25">
@@ -11977,25 +11999,25 @@
       <c r="C5" s="47"/>
       <c r="D5" s="46"/>
       <c r="E5" s="47" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B6" s="47" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D6" s="46"/>
       <c r="E6" s="47" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -12003,10 +12025,10 @@
       <c r="C7" s="47"/>
       <c r="D7" s="46"/>
       <c r="E7" s="46" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="120" x14ac:dyDescent="0.25">
@@ -12014,10 +12036,10 @@
       <c r="C8" s="47"/>
       <c r="D8" s="46"/>
       <c r="E8" s="47" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -12025,10 +12047,10 @@
       <c r="C9" s="47"/>
       <c r="D9" s="46"/>
       <c r="E9" s="47" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F9" s="47" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="375" x14ac:dyDescent="0.25">
@@ -12036,10 +12058,10 @@
       <c r="C10" s="47"/>
       <c r="D10" s="46"/>
       <c r="E10" s="49" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F10" s="47" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -12047,10 +12069,10 @@
       <c r="C11" s="47"/>
       <c r="D11" s="46"/>
       <c r="E11" s="46" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F11" s="47" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="135" x14ac:dyDescent="0.25">
@@ -12058,10 +12080,10 @@
       <c r="C12" s="47"/>
       <c r="D12" s="46"/>
       <c r="E12" s="47" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
@@ -12070,30 +12092,30 @@
       <c r="D13" s="46"/>
       <c r="E13" s="46"/>
       <c r="F13" s="47" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E14" s="46" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F14" s="47" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="44" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D15" s="44"/>
       <c r="E15" s="45" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -12101,10 +12123,10 @@
       <c r="C16" s="45"/>
       <c r="D16" s="44"/>
       <c r="E16" s="45" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="135" x14ac:dyDescent="0.25">
@@ -12112,10 +12134,10 @@
       <c r="C17" s="45"/>
       <c r="D17" s="44"/>
       <c r="E17" s="45" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -12123,25 +12145,25 @@
       <c r="C18" s="45"/>
       <c r="D18" s="44"/>
       <c r="E18" s="44" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F18" s="45" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" s="45" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="D19" s="44"/>
       <c r="E19" s="45" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -12149,10 +12171,10 @@
       <c r="C20" s="45"/>
       <c r="D20" s="44"/>
       <c r="E20" s="44" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="135" x14ac:dyDescent="0.25">
@@ -12160,10 +12182,10 @@
       <c r="C21" s="45"/>
       <c r="D21" s="44"/>
       <c r="E21" s="45" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F21" s="45" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -12171,10 +12193,10 @@
       <c r="C22" s="45"/>
       <c r="D22" s="44"/>
       <c r="E22" s="44" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F22" s="45" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="375" x14ac:dyDescent="0.25">
@@ -12182,10 +12204,10 @@
       <c r="C23" s="45"/>
       <c r="D23" s="44"/>
       <c r="E23" s="48" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F23" s="45" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -12193,24 +12215,24 @@
       <c r="C24" s="45"/>
       <c r="D24" s="44"/>
       <c r="E24" s="44" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F24" s="45" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="135" x14ac:dyDescent="0.25">
       <c r="E25" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="F25" s="45" t="s">
         <v>205</v>
-      </c>
-      <c r="F25" s="45" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E26" s="44"/>
       <c r="F26" s="45" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -12218,7 +12240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD0E9BC-2EA0-4A56-9CC5-8E3BC1C05EEF}">
   <dimension ref="B2:E12"/>
   <sheetViews>
@@ -12253,64 +12275,64 @@
     </row>
     <row r="3" spans="2:5" ht="90" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="90" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C5" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="90" x14ac:dyDescent="0.25">
       <c r="E7" s="36" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E8" s="36" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="165" x14ac:dyDescent="0.25">
       <c r="E9" s="36" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E10" s="36" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="285" x14ac:dyDescent="0.25">
       <c r="E11" s="36" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E12" s="36" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -12318,7 +12340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25450DC4-1D8E-418F-8914-A22446A51CB2}">
   <dimension ref="B2:I30"/>
   <sheetViews>
@@ -12345,7 +12367,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="67" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E2" s="67" t="s">
         <v>36</v>
@@ -12359,198 +12381,198 @@
     </row>
     <row r="3" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="E4" s="36" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F4" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E5" s="36" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F5" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="165" x14ac:dyDescent="0.25">
       <c r="E6" s="36" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F6" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E7" s="36" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="285" x14ac:dyDescent="0.25">
       <c r="E8" s="36" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C10" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F10" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E11" s="36" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F11" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="E12" s="36" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F12" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E13" s="36" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F13" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="165" x14ac:dyDescent="0.25">
       <c r="E14" s="36" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F14" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E15" s="36" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F15" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="285" x14ac:dyDescent="0.25">
       <c r="E16" s="36" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F16" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E17" s="36" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F17" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C18" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F18" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E19" s="36" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F19" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="90" x14ac:dyDescent="0.25">
       <c r="E20" s="36" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E21" s="36" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F21" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="165" x14ac:dyDescent="0.25">
       <c r="E22" s="36" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F22" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E23" s="36" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F23" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="315" x14ac:dyDescent="0.25">
       <c r="E24" s="36" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F24" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E25" s="36" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
@@ -12568,7 +12590,439 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBA0FB1-7A19-4ECF-8FF5-02D3A0E6D618}">
+  <dimension ref="A1:M41"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="53.42578125" customWidth="1"/>
+    <col min="3" max="3" width="51" customWidth="1"/>
+    <col min="10" max="10" width="35" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J11" s="71" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>306</v>
+      </c>
+      <c r="I14" s="68" t="s">
+        <v>307</v>
+      </c>
+      <c r="J14" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>309</v>
+      </c>
+      <c r="I15" s="69" t="s">
+        <v>310</v>
+      </c>
+      <c r="J15" t="s">
+        <v>311</v>
+      </c>
+      <c r="K15" s="74"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>312</v>
+      </c>
+      <c r="I16" s="69" t="s">
+        <v>313</v>
+      </c>
+      <c r="J16" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="17" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>315</v>
+      </c>
+      <c r="I17" s="69" t="s">
+        <v>316</v>
+      </c>
+      <c r="J17" t="s">
+        <v>317</v>
+      </c>
+      <c r="K17" s="46">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>318</v>
+      </c>
+      <c r="I18" s="69" t="s">
+        <v>319</v>
+      </c>
+      <c r="J18" t="s">
+        <v>320</v>
+      </c>
+      <c r="L18" s="72">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>321</v>
+      </c>
+      <c r="I19" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="20" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H20" s="70" t="s">
+        <v>323</v>
+      </c>
+      <c r="I20" s="70" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="21" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>325</v>
+      </c>
+      <c r="I21" t="s">
+        <v>326</v>
+      </c>
+      <c r="J21" t="s">
+        <v>327</v>
+      </c>
+      <c r="K21" s="74"/>
+    </row>
+    <row r="22" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>328</v>
+      </c>
+      <c r="I22" t="s">
+        <v>329</v>
+      </c>
+      <c r="J22" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="23" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>331</v>
+      </c>
+      <c r="I23" t="s">
+        <v>332</v>
+      </c>
+      <c r="J23" t="s">
+        <v>333</v>
+      </c>
+      <c r="K23" s="46">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>334</v>
+      </c>
+      <c r="I24" t="s">
+        <v>335</v>
+      </c>
+      <c r="J24" t="s">
+        <v>336</v>
+      </c>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>337</v>
+      </c>
+      <c r="I25" t="s">
+        <v>338</v>
+      </c>
+      <c r="J25" t="s">
+        <v>339</v>
+      </c>
+      <c r="K25" s="74"/>
+    </row>
+    <row r="26" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>340</v>
+      </c>
+      <c r="I26" t="s">
+        <v>341</v>
+      </c>
+      <c r="J26" t="s">
+        <v>342</v>
+      </c>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>343</v>
+      </c>
+      <c r="I27" t="s">
+        <v>344</v>
+      </c>
+      <c r="J27" t="s">
+        <v>345</v>
+      </c>
+      <c r="L27" s="73">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="28" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>346</v>
+      </c>
+      <c r="I28" t="s">
+        <v>347</v>
+      </c>
+      <c r="J28" t="s">
+        <v>348</v>
+      </c>
+      <c r="L28" s="73">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H29" s="70" t="s">
+        <v>349</v>
+      </c>
+      <c r="I29" s="70" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="30" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>351</v>
+      </c>
+      <c r="I30" t="s">
+        <v>352</v>
+      </c>
+      <c r="J30" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="31" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>354</v>
+      </c>
+      <c r="I31" t="s">
+        <v>355</v>
+      </c>
+      <c r="J31" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="32" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>357</v>
+      </c>
+      <c r="I32" t="s">
+        <v>358</v>
+      </c>
+      <c r="J32" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="33" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>360</v>
+      </c>
+      <c r="I33" t="s">
+        <v>361</v>
+      </c>
+      <c r="J33" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="34" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>363</v>
+      </c>
+      <c r="I34" t="s">
+        <v>364</v>
+      </c>
+      <c r="J34" t="s">
+        <v>365</v>
+      </c>
+      <c r="K34" s="74"/>
+    </row>
+    <row r="35" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>366</v>
+      </c>
+      <c r="I35" t="s">
+        <v>367</v>
+      </c>
+      <c r="J35" t="s">
+        <v>368</v>
+      </c>
+      <c r="K35" s="74"/>
+    </row>
+    <row r="36" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>369</v>
+      </c>
+      <c r="I36" t="s">
+        <v>370</v>
+      </c>
+      <c r="J36" t="s">
+        <v>371</v>
+      </c>
+      <c r="K36" s="74"/>
+    </row>
+    <row r="37" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H37" s="70" t="s">
+        <v>372</v>
+      </c>
+      <c r="I37" s="70" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="38" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>374</v>
+      </c>
+      <c r="I38" s="69" t="s">
+        <v>375</v>
+      </c>
+      <c r="J38" t="s">
+        <v>376</v>
+      </c>
+      <c r="K38" s="74"/>
+    </row>
+    <row r="39" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>377</v>
+      </c>
+      <c r="I39" t="s">
+        <v>378</v>
+      </c>
+      <c r="J39" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="40" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H40" s="74" t="s">
+        <v>380</v>
+      </c>
+      <c r="I40" s="74" t="s">
+        <v>381</v>
+      </c>
+      <c r="J40" s="74" t="s">
+        <v>382</v>
+      </c>
+      <c r="K40" s="74"/>
+      <c r="L40" s="74"/>
+      <c r="M40" s="74"/>
+    </row>
+    <row r="41" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>383</v>
+      </c>
+      <c r="I41" t="s">
+        <v>384</v>
+      </c>
+      <c r="J41" t="s">
+        <v>385</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE4CBC3-07DC-423B-806D-A8AE36FA71B5}">
   <dimension ref="B2:S51"/>
   <sheetViews>
@@ -12592,31 +13046,31 @@
   <sheetData>
     <row r="2" spans="2:19" s="52" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="67" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="F2" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="G2" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="H2" s="67" t="s">
+        <v>212</v>
+      </c>
+      <c r="I2" s="67" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="67" t="s">
-        <v>233</v>
-      </c>
-      <c r="D2" s="67" t="s">
-        <v>232</v>
-      </c>
-      <c r="E2" s="67" t="s">
-        <v>234</v>
-      </c>
-      <c r="F2" s="67" t="s">
-        <v>216</v>
-      </c>
-      <c r="G2" s="67" t="s">
-        <v>215</v>
-      </c>
-      <c r="H2" s="67" t="s">
-        <v>217</v>
-      </c>
-      <c r="I2" s="67" t="s">
-        <v>240</v>
-      </c>
       <c r="J2" s="67" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="K2" s="58"/>
       <c r="L2" s="58"/>
@@ -12633,40 +13087,40 @@
         <v>0</v>
       </c>
       <c r="C3" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="H3" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="I3" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="J3" s="54" t="s">
         <v>238</v>
-      </c>
-      <c r="D3" s="51" t="s">
-        <v>238</v>
-      </c>
-      <c r="E3" s="51" t="s">
-        <v>238</v>
-      </c>
-      <c r="F3" s="51" t="s">
-        <v>238</v>
-      </c>
-      <c r="G3" s="51" t="s">
-        <v>238</v>
-      </c>
-      <c r="H3" s="51" t="s">
-        <v>238</v>
-      </c>
-      <c r="I3" s="50" t="s">
-        <v>246</v>
-      </c>
-      <c r="J3" s="54" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="4" spans="2:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="51"/>
       <c r="C4" s="51" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E4" s="51" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F4" s="53"/>
       <c r="G4" s="53"/>
@@ -12710,10 +13164,10 @@
         <v>No precipitation</v>
       </c>
       <c r="I6" s="50" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="J6" s="54" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="2:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12748,7 +13202,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="51" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D9" s="51" t="str">
         <f>C9</f>
@@ -12771,7 +13225,7 @@
         <v>Constant precipitation</v>
       </c>
       <c r="J9" s="54" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
@@ -12788,7 +13242,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D11" s="51" t="str">
         <f>C11</f>
@@ -12811,7 +13265,7 @@
         <v>IAP precipitation / dissolution</v>
       </c>
       <c r="J11" s="54" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
@@ -12836,7 +13290,7 @@
         <v>Constant precipitation</v>
       </c>
       <c r="E13" s="51" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F13" s="51" t="str">
         <f>E13</f>
@@ -13304,439 +13758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBA0FB1-7A19-4ECF-8FF5-02D3A0E6D618}">
-  <dimension ref="A1:M41"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33.5703125" customWidth="1"/>
-    <col min="2" max="2" width="53.42578125" customWidth="1"/>
-    <col min="3" max="3" width="51" customWidth="1"/>
-    <col min="10" max="10" width="35" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J11" s="71" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H14" t="s">
-        <v>311</v>
-      </c>
-      <c r="I14" s="68" t="s">
-        <v>312</v>
-      </c>
-      <c r="J14" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H15" t="s">
-        <v>314</v>
-      </c>
-      <c r="I15" s="69" t="s">
-        <v>315</v>
-      </c>
-      <c r="J15" t="s">
-        <v>316</v>
-      </c>
-      <c r="K15" s="74"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H16" t="s">
-        <v>317</v>
-      </c>
-      <c r="I16" s="69" t="s">
-        <v>318</v>
-      </c>
-      <c r="J16" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="17" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H17" t="s">
-        <v>320</v>
-      </c>
-      <c r="I17" s="69" t="s">
-        <v>321</v>
-      </c>
-      <c r="J17" t="s">
-        <v>322</v>
-      </c>
-      <c r="K17" s="46">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H18" t="s">
-        <v>323</v>
-      </c>
-      <c r="I18" s="69" t="s">
-        <v>324</v>
-      </c>
-      <c r="J18" t="s">
-        <v>325</v>
-      </c>
-      <c r="L18" s="72">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H19" t="s">
-        <v>326</v>
-      </c>
-      <c r="I19" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="20" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H20" s="70" t="s">
-        <v>328</v>
-      </c>
-      <c r="I20" s="70" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="21" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H21" t="s">
-        <v>330</v>
-      </c>
-      <c r="I21" t="s">
-        <v>331</v>
-      </c>
-      <c r="J21" t="s">
-        <v>332</v>
-      </c>
-      <c r="K21" s="74"/>
-    </row>
-    <row r="22" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H22" t="s">
-        <v>333</v>
-      </c>
-      <c r="I22" t="s">
-        <v>334</v>
-      </c>
-      <c r="J22" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="23" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H23" t="s">
-        <v>336</v>
-      </c>
-      <c r="I23" t="s">
-        <v>337</v>
-      </c>
-      <c r="J23" t="s">
-        <v>338</v>
-      </c>
-      <c r="K23" s="46">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="24" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H24" t="s">
-        <v>339</v>
-      </c>
-      <c r="I24" t="s">
-        <v>340</v>
-      </c>
-      <c r="J24" t="s">
-        <v>341</v>
-      </c>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H25" t="s">
-        <v>342</v>
-      </c>
-      <c r="I25" t="s">
-        <v>343</v>
-      </c>
-      <c r="J25" t="s">
-        <v>344</v>
-      </c>
-      <c r="K25" s="74"/>
-    </row>
-    <row r="26" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H26" t="s">
-        <v>345</v>
-      </c>
-      <c r="I26" t="s">
-        <v>346</v>
-      </c>
-      <c r="J26" t="s">
-        <v>347</v>
-      </c>
-      <c r="K26" s="73"/>
-      <c r="L26" s="73">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="27" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H27" t="s">
-        <v>348</v>
-      </c>
-      <c r="I27" t="s">
-        <v>349</v>
-      </c>
-      <c r="J27" t="s">
-        <v>350</v>
-      </c>
-      <c r="L27" s="73">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="28" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H28" t="s">
-        <v>351</v>
-      </c>
-      <c r="I28" t="s">
-        <v>352</v>
-      </c>
-      <c r="J28" t="s">
-        <v>353</v>
-      </c>
-      <c r="L28" s="73">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H29" s="70" t="s">
-        <v>354</v>
-      </c>
-      <c r="I29" s="70" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="30" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H30" t="s">
-        <v>356</v>
-      </c>
-      <c r="I30" t="s">
-        <v>357</v>
-      </c>
-      <c r="J30" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="31" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H31" t="s">
-        <v>359</v>
-      </c>
-      <c r="I31" t="s">
-        <v>360</v>
-      </c>
-      <c r="J31" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="32" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H32" t="s">
-        <v>362</v>
-      </c>
-      <c r="I32" t="s">
-        <v>363</v>
-      </c>
-      <c r="J32" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="33" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H33" t="s">
-        <v>365</v>
-      </c>
-      <c r="I33" t="s">
-        <v>366</v>
-      </c>
-      <c r="J33" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="34" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H34" t="s">
-        <v>368</v>
-      </c>
-      <c r="I34" t="s">
-        <v>369</v>
-      </c>
-      <c r="J34" t="s">
-        <v>370</v>
-      </c>
-      <c r="K34" s="74"/>
-    </row>
-    <row r="35" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H35" t="s">
-        <v>371</v>
-      </c>
-      <c r="I35" t="s">
-        <v>372</v>
-      </c>
-      <c r="J35" t="s">
-        <v>373</v>
-      </c>
-      <c r="K35" s="74"/>
-    </row>
-    <row r="36" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H36" t="s">
-        <v>374</v>
-      </c>
-      <c r="I36" t="s">
-        <v>375</v>
-      </c>
-      <c r="J36" t="s">
-        <v>376</v>
-      </c>
-      <c r="K36" s="74"/>
-    </row>
-    <row r="37" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H37" s="70" t="s">
-        <v>377</v>
-      </c>
-      <c r="I37" s="70" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="38" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H38" t="s">
-        <v>379</v>
-      </c>
-      <c r="I38" s="69" t="s">
-        <v>380</v>
-      </c>
-      <c r="J38" t="s">
-        <v>381</v>
-      </c>
-      <c r="K38" s="74"/>
-    </row>
-    <row r="39" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H39" t="s">
-        <v>382</v>
-      </c>
-      <c r="I39" t="s">
-        <v>383</v>
-      </c>
-      <c r="J39" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="40" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H40" s="74" t="s">
-        <v>385</v>
-      </c>
-      <c r="I40" s="74" t="s">
-        <v>386</v>
-      </c>
-      <c r="J40" s="74" t="s">
-        <v>387</v>
-      </c>
-      <c r="K40" s="74"/>
-      <c r="L40" s="74"/>
-      <c r="M40" s="74"/>
-    </row>
-    <row r="41" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H41" t="s">
-        <v>388</v>
-      </c>
-      <c r="I41" t="s">
-        <v>389</v>
-      </c>
-      <c r="J41" t="s">
-        <v>390</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF787CF5-9889-4ECA-A90E-89E1F3698E15}">
   <dimension ref="B2:G2"/>
   <sheetViews>
@@ -13755,22 +13777,22 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="67" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="E2" s="67" t="s">
+        <v>246</v>
+      </c>
+      <c r="F2" s="67" t="s">
+        <v>247</v>
+      </c>
+      <c r="G2" s="67" t="s">
         <v>248</v>
-      </c>
-      <c r="C2" s="67" t="s">
-        <v>249</v>
-      </c>
-      <c r="D2" s="67" t="s">
-        <v>250</v>
-      </c>
-      <c r="E2" s="67" t="s">
-        <v>251</v>
-      </c>
-      <c r="F2" s="67" t="s">
-        <v>252</v>
-      </c>
-      <c r="G2" s="67" t="s">
-        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -13779,7 +13801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747BAD0A-72B9-41AC-8108-F7D4CE328F54}">
   <dimension ref="B2:G11"/>
   <sheetViews>
@@ -13800,10 +13822,10 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="67" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C2" s="67" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D2" s="67" t="s">
         <v>34</v>
@@ -13814,27 +13836,27 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="44" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E3" s="44" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="44" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E4" s="44" t="str">
         <f t="shared" ref="E4:E5" si="0">E3</f>
@@ -13843,10 +13865,10 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="44" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D5" s="44" t="str">
         <f>D8</f>
@@ -13859,7 +13881,7 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -13869,18 +13891,18 @@
         <v>Root density (not used)</v>
       </c>
       <c r="E6" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" ref="E7:E10" si="1">E6</f>
@@ -13889,13 +13911,13 @@
     </row>
     <row r="8" spans="2:7" ht="120" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="1"/>
@@ -13904,13 +13926,13 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="1"/>
@@ -13919,13 +13941,13 @@
     </row>
     <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C10" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="1"/>
@@ -13942,7 +13964,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F5F234-170D-4B45-A1EA-28BAE31F5675}">
   <dimension ref="B2:E11"/>
   <sheetViews>
@@ -13960,10 +13982,10 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="67" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C2" s="67" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D2" s="67" t="s">
         <v>34</v>
@@ -13974,57 +13996,57 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C4" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E4" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C5" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E5" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6" s="64" t="s">
         <v>291</v>
       </c>
-      <c r="C6" s="64" t="s">
-        <v>296</v>
-      </c>
       <c r="D6" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -14032,7 +14054,7 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -14046,7 +14068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97FAB4B4-8799-48FC-8A76-89433647002B}">
   <dimension ref="B2:L13"/>
   <sheetViews>
@@ -14068,16 +14090,16 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="67" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C2" s="67" t="s">
         <v>34</v>
       </c>
       <c r="D2" s="67" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="E2" s="67" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F2" s="67"/>
       <c r="G2" s="67"/>
@@ -14089,125 +14111,125 @@
     </row>
     <row r="3" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B3" s="75" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C3" s="79" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="D3" s="79" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E3" s="76" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="75" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C4" s="79" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D4" s="79" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="E4" s="76" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="75" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C5" s="79" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D5" s="79" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="E5" s="76" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="75" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C6" s="79" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D6" s="79" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E6" s="76" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B7" s="75" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D7" s="79" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="E7" s="76" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B8" s="75" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C8" s="79" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D8" s="79" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="E8" s="76" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="75" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C9" s="79" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D9" s="79" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="E9" s="76" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="75" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C10" s="79" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D10" s="79" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="E10" s="76" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B11" s="75" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C11" s="79" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D11" s="79" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E11" s="76" t="s">
         <v>17</v>
@@ -14215,30 +14237,30 @@
     </row>
     <row r="12" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="75" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C12" s="79" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="D12" s="79" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="E12" s="76" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="31" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C13" s="78" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D13" s="78" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="E13" s="77" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -14247,7 +14269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5638044B-CB4C-4C94-A755-7C200927062F}">
   <dimension ref="A2:F21"/>
   <sheetViews>
@@ -14264,25 +14286,25 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="67" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C2" s="67" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D2" s="67" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="81" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C3" s="81">
         <v>7.6</v>
       </c>
       <c r="D3" s="81" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
@@ -14290,7 +14312,7 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="81" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C4" s="81">
         <v>0</v>
@@ -14304,13 +14326,13 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="81" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C5" s="81">
         <v>0.22</v>
       </c>
       <c r="D5" s="81" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
@@ -14318,7 +14340,7 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="81" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C6" s="81">
         <v>0</v>
@@ -14332,13 +14354,13 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="81" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C7" s="81">
         <v>3163</v>
       </c>
       <c r="D7" s="81" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -14346,7 +14368,7 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="81" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C8" s="81">
         <v>0</v>
@@ -14360,7 +14382,7 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="81" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C9" s="81">
         <v>0</v>
@@ -14374,13 +14396,13 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="81" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C10" s="81">
         <v>109</v>
       </c>
       <c r="D10" s="81" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -14388,13 +14410,13 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="81" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C11" s="81">
         <v>25</v>
       </c>
       <c r="D11" s="81" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -14402,13 +14424,13 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="81" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C12" s="81">
         <v>1.86</v>
       </c>
       <c r="D12" s="81" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -14491,7 +14513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79383B76-50C0-490F-AC19-3FE2C2CA6837}">
   <dimension ref="B2:G10"/>
   <sheetViews>
@@ -14511,153 +14533,153 @@
   <sheetData>
     <row r="2" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="87" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C2" s="67" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D2" s="67" t="s">
+        <v>471</v>
+      </c>
+      <c r="E2" s="67" t="s">
+        <v>472</v>
+      </c>
+      <c r="F2" s="67" t="s">
+        <v>473</v>
+      </c>
+      <c r="G2" s="67" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="147" t="s">
+        <v>475</v>
+      </c>
+      <c r="D3" s="85" t="s">
         <v>476</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E3" s="85" t="s">
         <v>477</v>
       </c>
-      <c r="F2" s="67" t="s">
+      <c r="F3" s="85" t="s">
         <v>478</v>
       </c>
-      <c r="G2" s="67" t="s">
+      <c r="G3" s="85" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="133" t="s">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="147"/>
+      <c r="D4" s="85" t="s">
+        <v>479</v>
+      </c>
+      <c r="E4" s="85" t="s">
         <v>480</v>
       </c>
-      <c r="D3" s="85" t="s">
+      <c r="F4" s="85" t="s">
         <v>481</v>
       </c>
-      <c r="E3" s="85" t="s">
+      <c r="G4" s="85" t="s">
         <v>482</v>
       </c>
-      <c r="F3" s="85" t="s">
+    </row>
+    <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="148"/>
+      <c r="D5" s="86" t="s">
+        <v>479</v>
+      </c>
+      <c r="E5" s="86" t="s">
         <v>483</v>
       </c>
-      <c r="G3" s="85" t="s">
+      <c r="F5" s="86" t="s">
+        <v>481</v>
+      </c>
+      <c r="G5" s="86" t="s">
         <v>484</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="133"/>
-      <c r="D4" s="85" t="s">
-        <v>484</v>
-      </c>
-      <c r="E4" s="85" t="s">
-        <v>485</v>
-      </c>
-      <c r="F4" s="85" t="s">
-        <v>486</v>
-      </c>
-      <c r="G4" s="85" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="134"/>
-      <c r="D5" s="86" t="s">
-        <v>484</v>
-      </c>
-      <c r="E5" s="86" t="s">
-        <v>488</v>
-      </c>
-      <c r="F5" s="86" t="s">
-        <v>486</v>
-      </c>
-      <c r="G5" s="86" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="84" t="s">
-        <v>496</v>
-      </c>
-      <c r="C6" s="135" t="s">
-        <v>490</v>
-      </c>
-      <c r="D6" s="138" t="s">
         <v>491</v>
       </c>
-      <c r="E6" s="131" t="s">
-        <v>491</v>
-      </c>
-      <c r="F6" s="131" t="s">
-        <v>491</v>
-      </c>
-      <c r="G6" s="131" t="s">
-        <v>491</v>
+      <c r="C6" s="149" t="s">
+        <v>485</v>
+      </c>
+      <c r="D6" s="152" t="s">
+        <v>486</v>
+      </c>
+      <c r="E6" s="145" t="s">
+        <v>486</v>
+      </c>
+      <c r="F6" s="145" t="s">
+        <v>486</v>
+      </c>
+      <c r="G6" s="145" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="83" t="s">
-        <v>497</v>
-      </c>
-      <c r="C7" s="136"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
+        <v>492</v>
+      </c>
+      <c r="C7" s="150"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="83" t="s">
-        <v>498</v>
-      </c>
-      <c r="C8" s="136"/>
+        <v>493</v>
+      </c>
+      <c r="C8" s="150"/>
       <c r="D8" s="86" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="E8" s="86" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="F8" s="86" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="G8" s="86" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="84" t="s">
-        <v>499</v>
-      </c>
-      <c r="C9" s="136"/>
+        <v>494</v>
+      </c>
+      <c r="C9" s="150"/>
       <c r="D9" s="85" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="E9" s="85" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F9" s="85" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="G9" s="85" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="83" t="s">
-        <v>500</v>
-      </c>
-      <c r="C10" s="137"/>
+        <v>495</v>
+      </c>
+      <c r="C10" s="151"/>
       <c r="D10" s="86" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="E10" s="86" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="F10" s="86" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="G10" s="86" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -14673,7 +14695,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63589976-2265-419F-872C-FD2246847E9E}">
   <dimension ref="A1:P20"/>
   <sheetViews>
@@ -14704,22 +14726,22 @@
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="89" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C2" s="89" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D2" s="89" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="E2" s="89" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F2" s="89" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G2" s="89" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
@@ -14744,10 +14766,10 @@
         <v>12000</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="I3" s="90" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="13">
@@ -14755,7 +14777,7 @@
         <v>7</v>
       </c>
       <c r="L3" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="N3" t="str">
         <f>H3&amp;K3&amp;L3</f>
@@ -14788,10 +14810,10 @@
         <v>11900</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="I4" s="90" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="J4" s="13">
         <f>LOG10(B4)</f>
@@ -14802,7 +14824,7 @@
         <v>6</v>
       </c>
       <c r="L4" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="M4" t="str">
         <f t="shared" ref="M4" si="1">H4&amp;J4&amp;L4</f>
@@ -14839,10 +14861,10 @@
         <v>11800</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="I5" s="90" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="J5" s="13">
         <f>LOG10(B5/5)</f>
@@ -14853,7 +14875,7 @@
         <v>6</v>
       </c>
       <c r="L5" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="M5" t="str">
         <f>I5&amp;J5&amp;L5</f>
@@ -14891,10 +14913,10 @@
         <v>11700</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="I6" s="90" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="J6" s="13">
         <f t="shared" ref="J6" si="5">LOG10(B6)</f>
@@ -14905,7 +14927,7 @@
         <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" ref="M6" si="7">H6&amp;J6&amp;L6</f>
@@ -14943,10 +14965,10 @@
         <v>9310</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="I7" s="90" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="J7" s="13">
         <f t="shared" ref="J7" si="9">LOG10(B7/5)</f>
@@ -14957,7 +14979,7 @@
         <v>5</v>
       </c>
       <c r="L7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="M7" t="str">
         <f t="shared" ref="M7" si="11">I7&amp;J7&amp;L7</f>
@@ -14995,10 +15017,10 @@
         <v>6000</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="I8" s="90" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="J8" s="13">
         <f t="shared" ref="J8" si="14">LOG10(B8)</f>
@@ -15009,7 +15031,7 @@
         <v>4</v>
       </c>
       <c r="L8" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="M8" t="str">
         <f t="shared" ref="M8" si="16">H8&amp;J8&amp;L8</f>
@@ -15047,10 +15069,10 @@
         <v>3840</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="I9" s="90" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="J9" s="13">
         <f t="shared" ref="J9" si="19">LOG10(B9/5)</f>
@@ -15061,7 +15083,7 @@
         <v>4</v>
       </c>
       <c r="L9" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" ref="M9" si="21">I9&amp;J9&amp;L9</f>
@@ -15099,10 +15121,10 @@
         <v>2220</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="I10" s="90" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="J10" s="13">
         <f t="shared" ref="J10" si="24">LOG10(B10)</f>
@@ -15113,7 +15135,7 @@
         <v>3</v>
       </c>
       <c r="L10" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="M10" t="str">
         <f t="shared" ref="M10" si="26">H10&amp;J10&amp;L10</f>
@@ -15151,10 +15173,10 @@
         <v>1410</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="I11" s="90" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="J11" s="13">
         <f t="shared" ref="J11" si="29">LOG10(B11/5)</f>
@@ -15165,7 +15187,7 @@
         <v>3</v>
       </c>
       <c r="L11" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" ref="M11" si="31">I11&amp;J11&amp;L11</f>
@@ -15203,10 +15225,10 @@
         <v>827</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="I12" s="90" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="J12" s="13">
         <f t="shared" ref="J12" si="34">LOG10(B12)</f>
@@ -15217,7 +15239,7 @@
         <v>2</v>
       </c>
       <c r="L12" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" ref="M12" si="36">H12&amp;J12&amp;L12</f>
@@ -15255,10 +15277,10 @@
         <v>604</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="I13" s="90" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="J13" s="13">
         <f t="shared" ref="J13" si="39">LOG10(B13/5)</f>
@@ -15269,7 +15291,7 @@
         <v>2</v>
       </c>
       <c r="L13" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" ref="M13" si="41">I13&amp;J13&amp;L13</f>
@@ -15304,10 +15326,10 @@
         <v>460</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="I14" s="90" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="J14" s="13">
         <f t="shared" ref="J14" si="43">LOG10(B14)</f>
@@ -15315,7 +15337,7 @@
       </c>
       <c r="K14" s="13"/>
       <c r="L14" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" ref="M14" si="44">H14&amp;J14&amp;L14</f>
@@ -15422,7 +15444,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD67E78-D613-46E1-844C-AD6CD38E1719}">
   <dimension ref="B2:F14"/>
   <sheetViews>
@@ -15441,24 +15463,24 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="89" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C2" s="89" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D2" s="89" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="E2" s="89" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="F2" s="89" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C3" s="91">
         <v>178</v>
@@ -15475,7 +15497,7 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C4" s="91">
         <v>172</v>
@@ -15492,7 +15514,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C5" s="91">
         <v>163</v>
@@ -15509,7 +15531,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C6" s="91">
         <v>158</v>
@@ -15526,7 +15548,7 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C7" s="91">
         <v>102</v>
@@ -15543,7 +15565,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C8" s="91">
         <v>28</v>
@@ -15560,7 +15582,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C9" s="91">
         <v>-10.9</v>
@@ -15577,7 +15599,7 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C10" s="91">
         <v>-38.9</v>
@@ -15594,7 +15616,7 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C11" s="91">
         <v>-56.1</v>
@@ -15611,7 +15633,7 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C12" s="91">
         <v>-68.099999999999994</v>
@@ -15628,7 +15650,7 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C13" s="91">
         <v>-66.900000000000006</v>
@@ -15645,7 +15667,7 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C14" s="91">
         <v>-64.2</v>
@@ -15665,7 +15687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7495890C-77D0-4EFC-B806-50C2928C6692}">
   <dimension ref="B2:V25"/>
   <sheetViews>
@@ -15684,92 +15706,92 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C2" s="140" t="s">
-        <v>523</v>
-      </c>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140" t="s">
-        <v>524</v>
-      </c>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140" t="s">
-        <v>525</v>
-      </c>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140" t="s">
-        <v>526</v>
-      </c>
-      <c r="J2" s="140"/>
+      <c r="C2" s="154" t="s">
+        <v>518</v>
+      </c>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154" t="s">
+        <v>519</v>
+      </c>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154" t="s">
+        <v>520</v>
+      </c>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154" t="s">
+        <v>521</v>
+      </c>
+      <c r="J2" s="154"/>
       <c r="O2" s="92" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="P2" s="92"/>
       <c r="Q2" s="92" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="R2" s="92"/>
       <c r="S2" s="92" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="T2" s="92"/>
       <c r="U2" s="92" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="V2" s="92"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="93" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="D3" s="93" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="E3" s="93" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="F3" s="93" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="G3" s="93" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="H3" s="93" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="I3" s="93" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="J3" s="93" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="O3" s="93" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="P3" s="93" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="Q3" s="93" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="R3" s="93" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="S3" s="93" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="T3" s="93" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="U3" s="93" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="V3" s="93" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="4" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="94" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C4" s="105">
         <v>0</v>
@@ -15796,7 +15818,7 @@
         <v>88100</v>
       </c>
       <c r="N4" s="94" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="O4" s="95">
         <v>78600</v>
@@ -15817,7 +15839,7 @@
     </row>
     <row r="5" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="99" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C5" s="110">
         <v>202000</v>
@@ -15844,7 +15866,7 @@
         <v>173000</v>
       </c>
       <c r="N5" s="99" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="O5" s="100">
         <v>6300</v>
@@ -15873,7 +15895,7 @@
     </row>
     <row r="6" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="99" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C6" s="110">
         <v>480000</v>
@@ -15900,7 +15922,7 @@
         <v>258000</v>
       </c>
       <c r="N6" s="99" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="O6" s="100">
         <v>1400</v>
@@ -15929,7 +15951,7 @@
     </row>
     <row r="7" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="99" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C7" s="110">
         <v>758000</v>
@@ -15956,7 +15978,7 @@
         <v>343000</v>
       </c>
       <c r="N7" s="99" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="O7" s="123">
         <v>0</v>
@@ -15985,7 +16007,7 @@
     </row>
     <row r="8" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="99" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C8" s="110">
         <v>1040000</v>
@@ -16014,7 +16036,7 @@
     </row>
     <row r="9" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="99" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C9" s="110">
         <v>1310000</v>
@@ -16043,7 +16065,7 @@
     </row>
     <row r="10" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="99" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C10" s="110">
         <v>1590000</v>
@@ -16070,12 +16092,12 @@
         <v>598000</v>
       </c>
       <c r="O10" s="127" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="11" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="99" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C11" s="110">
         <v>1870000</v>
@@ -16096,33 +16118,33 @@
     </row>
     <row r="14" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="E14" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G14" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="I14" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="N14" s="92" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="O14" s="92" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="P14" s="92" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="Q14" s="92" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="15" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="94" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" ref="C15:C21" si="0">C4&amp;" to "&amp;D4</f>
@@ -16141,7 +16163,7 @@
         <v>0 to 88100</v>
       </c>
       <c r="M15" s="94" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="N15" s="88">
         <f>O4</f>
@@ -16162,7 +16184,7 @@
     </row>
     <row r="16" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="99" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -16181,7 +16203,7 @@
         <v>88100 to 173000</v>
       </c>
       <c r="M16" s="99" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="N16" t="str">
         <f>O5&amp;" to "&amp;P5</f>
@@ -16202,7 +16224,7 @@
     </row>
     <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="99" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -16221,7 +16243,7 @@
         <v>173000 to 258000</v>
       </c>
       <c r="M17" s="99" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="N17" t="str">
         <f t="shared" ref="N17" si="4">O6&amp;" to "&amp;P6</f>
@@ -16242,7 +16264,7 @@
     </row>
     <row r="18" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="99" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -16261,7 +16283,7 @@
         <v>258000 to 343000</v>
       </c>
       <c r="M18" s="99" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="N18" s="88">
         <f>P7</f>
@@ -16282,7 +16304,7 @@
     </row>
     <row r="19" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="99" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -16303,7 +16325,7 @@
     </row>
     <row r="20" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="99" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -16324,7 +16346,7 @@
     </row>
     <row r="21" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="99" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -16345,7 +16367,7 @@
     </row>
     <row r="22" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="99" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C22" t="str">
         <f>C11&amp;""</f>
@@ -16366,7 +16388,7 @@
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C25" s="127" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -16378,179 +16400,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF03E16-6481-44BC-89B4-27A98D72160C}">
-  <dimension ref="B2:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="89" t="s">
-        <v>582</v>
-      </c>
-      <c r="C2" s="89" t="s">
-        <v>523</v>
-      </c>
-      <c r="D2" s="89" t="s">
-        <v>524</v>
-      </c>
-      <c r="E2" s="89" t="s">
-        <v>525</v>
-      </c>
-      <c r="F2" s="89" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="71" t="s">
-        <v>529</v>
-      </c>
-      <c r="C3" t="s">
-        <v>537</v>
-      </c>
-      <c r="D3" t="s">
-        <v>538</v>
-      </c>
-      <c r="E3" t="s">
-        <v>539</v>
-      </c>
-      <c r="F3" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="71" t="s">
-        <v>530</v>
-      </c>
-      <c r="C4" t="s">
-        <v>541</v>
-      </c>
-      <c r="D4" t="s">
-        <v>542</v>
-      </c>
-      <c r="E4" t="s">
-        <v>543</v>
-      </c>
-      <c r="F4" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="71" t="s">
-        <v>531</v>
-      </c>
-      <c r="C5" t="s">
-        <v>545</v>
-      </c>
-      <c r="D5" t="s">
-        <v>546</v>
-      </c>
-      <c r="E5" t="s">
-        <v>547</v>
-      </c>
-      <c r="F5" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="71" t="s">
-        <v>532</v>
-      </c>
-      <c r="C6" t="s">
-        <v>549</v>
-      </c>
-      <c r="D6" t="s">
-        <v>550</v>
-      </c>
-      <c r="E6" t="s">
-        <v>551</v>
-      </c>
-      <c r="F6" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="71" t="s">
-        <v>533</v>
-      </c>
-      <c r="C7" t="s">
-        <v>553</v>
-      </c>
-      <c r="D7" t="s">
-        <v>554</v>
-      </c>
-      <c r="E7" t="s">
-        <v>555</v>
-      </c>
-      <c r="F7" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="71" t="s">
-        <v>534</v>
-      </c>
-      <c r="C8" t="s">
-        <v>557</v>
-      </c>
-      <c r="D8" t="s">
-        <v>558</v>
-      </c>
-      <c r="E8" t="s">
-        <v>559</v>
-      </c>
-      <c r="F8" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="71" t="s">
-        <v>535</v>
-      </c>
-      <c r="C9" t="s">
-        <v>561</v>
-      </c>
-      <c r="D9" t="s">
-        <v>562</v>
-      </c>
-      <c r="E9" t="s">
-        <v>563</v>
-      </c>
-      <c r="F9" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="71" t="s">
-        <v>536</v>
-      </c>
-      <c r="C10" t="s">
-        <v>565</v>
-      </c>
-      <c r="D10" t="s">
-        <v>566</v>
-      </c>
-      <c r="E10" t="s">
-        <v>567</v>
-      </c>
-      <c r="F10" t="s">
-        <v>568</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -16574,127 +16423,127 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="67" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C2" s="67" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C4" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C5" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C6" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="64" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C9" s="72" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="64" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="70"/>
       <c r="B11" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C11" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C12" s="73" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" s="64" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" s="64" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C15" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C16" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C17" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C18" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -16709,6 +16558,179 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF03E16-6481-44BC-89B4-27A98D72160C}">
+  <dimension ref="B2:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="89" t="s">
+        <v>577</v>
+      </c>
+      <c r="C2" s="89" t="s">
+        <v>518</v>
+      </c>
+      <c r="D2" s="89" t="s">
+        <v>519</v>
+      </c>
+      <c r="E2" s="89" t="s">
+        <v>520</v>
+      </c>
+      <c r="F2" s="89" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="71" t="s">
+        <v>524</v>
+      </c>
+      <c r="C3" t="s">
+        <v>532</v>
+      </c>
+      <c r="D3" t="s">
+        <v>533</v>
+      </c>
+      <c r="E3" t="s">
+        <v>534</v>
+      </c>
+      <c r="F3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="71" t="s">
+        <v>525</v>
+      </c>
+      <c r="C4" t="s">
+        <v>536</v>
+      </c>
+      <c r="D4" t="s">
+        <v>537</v>
+      </c>
+      <c r="E4" t="s">
+        <v>538</v>
+      </c>
+      <c r="F4" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="71" t="s">
+        <v>526</v>
+      </c>
+      <c r="C5" t="s">
+        <v>540</v>
+      </c>
+      <c r="D5" t="s">
+        <v>541</v>
+      </c>
+      <c r="E5" t="s">
+        <v>542</v>
+      </c>
+      <c r="F5" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="71" t="s">
+        <v>527</v>
+      </c>
+      <c r="C6" t="s">
+        <v>544</v>
+      </c>
+      <c r="D6" t="s">
+        <v>545</v>
+      </c>
+      <c r="E6" t="s">
+        <v>546</v>
+      </c>
+      <c r="F6" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="71" t="s">
+        <v>528</v>
+      </c>
+      <c r="C7" t="s">
+        <v>548</v>
+      </c>
+      <c r="D7" t="s">
+        <v>549</v>
+      </c>
+      <c r="E7" t="s">
+        <v>550</v>
+      </c>
+      <c r="F7" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="71" t="s">
+        <v>529</v>
+      </c>
+      <c r="C8" t="s">
+        <v>552</v>
+      </c>
+      <c r="D8" t="s">
+        <v>553</v>
+      </c>
+      <c r="E8" t="s">
+        <v>554</v>
+      </c>
+      <c r="F8" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="71" t="s">
+        <v>530</v>
+      </c>
+      <c r="C9" t="s">
+        <v>556</v>
+      </c>
+      <c r="D9" t="s">
+        <v>557</v>
+      </c>
+      <c r="E9" t="s">
+        <v>558</v>
+      </c>
+      <c r="F9" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="71" t="s">
+        <v>531</v>
+      </c>
+      <c r="C10" t="s">
+        <v>560</v>
+      </c>
+      <c r="D10" t="s">
+        <v>561</v>
+      </c>
+      <c r="E10" t="s">
+        <v>562</v>
+      </c>
+      <c r="F10" t="s">
+        <v>563</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60761244-E2EA-4DCB-98B0-B2653577D4BA}">
   <dimension ref="B2:F6"/>
   <sheetViews>
@@ -16727,24 +16749,24 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="89" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C2" s="89" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="D2" s="89" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E2" s="89" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F2" s="89" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="71" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="C3">
         <v>78600</v>
@@ -16761,41 +16783,41 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="71" t="s">
+        <v>565</v>
+      </c>
+      <c r="C4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D4" t="s">
+        <v>569</v>
+      </c>
+      <c r="E4" t="s">
         <v>570</v>
       </c>
-      <c r="C4" t="s">
-        <v>573</v>
-      </c>
-      <c r="D4" t="s">
-        <v>574</v>
-      </c>
-      <c r="E4" t="s">
-        <v>575</v>
-      </c>
       <c r="F4" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="71" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C5" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="D5" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="E5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F5" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="71" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C6">
         <v>1400</v>
@@ -16835,74 +16857,74 @@
         <v>3</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="145.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="35" t="s">
         <v>137</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>142</v>
       </c>
       <c r="D9" s="34"/>
     </row>
     <row r="27" spans="12:12" ht="24" x14ac:dyDescent="0.25">
       <c r="L27" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L28" s="14" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L29" s="14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L30" s="14" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L31" s="14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L32" s="14" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L33" s="14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L34" s="14" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L35" s="14" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L36" s="14" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L37" s="14" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -16912,13 +16934,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A80968-B596-4B67-9F88-6B9A75E4BB09}">
-  <dimension ref="B2:H13"/>
+  <dimension ref="B2:H14"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16955,7 +16977,7 @@
         <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>734</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>37</v>
@@ -16970,7 +16992,7 @@
         <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>735</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>37</v>
@@ -16979,28 +17001,28 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>64</v>
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>736</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G5" s="16"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>65</v>
+        <v>740</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>48</v>
@@ -17009,13 +17031,13 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>62</v>
+        <v>739</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>48</v>
@@ -17024,43 +17046,43 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>63</v>
+        <v>737</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>48</v>
       </c>
       <c r="G8" s="16"/>
     </row>
-    <row r="9" spans="2:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>66</v>
+        <v>738</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G9" s="16"/>
     </row>
     <row r="10" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>67</v>
+        <v>733</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>42</v>
@@ -17069,13 +17091,13 @@
     </row>
     <row r="11" spans="2:7" ht="24" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>58</v>
+        <v>44</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>42</v>
@@ -17084,13 +17106,13 @@
     </row>
     <row r="12" spans="2:7" ht="24" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>42</v>
@@ -17098,16 +17120,30 @@
       <c r="G12" s="16"/>
     </row>
     <row r="13" spans="2:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="B13" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>82</v>
+      <c r="B13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="E13" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="B14" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>47</v>
       </c>
     </row>
@@ -17136,13 +17172,13 @@
   <sheetData>
     <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="67" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C2" s="67" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D2" s="67" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="120.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17150,10 +17186,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="114.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17161,10 +17197,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -17201,10 +17237,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="D3" s="30"/>
       <c r="E3" s="13"/>
@@ -17212,10 +17248,10 @@
     <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="24" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="13"/>
@@ -17223,10 +17259,10 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="22" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="13"/>
@@ -17234,10 +17270,10 @@
     <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="22" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="13"/>
@@ -17245,10 +17281,10 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="22" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="13"/>
@@ -17256,10 +17292,10 @@
     <row r="8" spans="1:5" ht="27" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>85</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>90</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="13"/>
@@ -17267,10 +17303,10 @@
     <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>86</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>91</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="13"/>
@@ -17278,20 +17314,20 @@
     <row r="10" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>87</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>92</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>88</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -17382,7 +17418,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M1" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17394,60 +17430,60 @@
       </c>
       <c r="D2" s="29"/>
       <c r="E2" s="130" t="s">
+        <v>588</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>589</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>590</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>591</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>592</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>590</v>
+      </c>
+      <c r="K2" s="36" t="s">
         <v>593</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>594</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>595</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>596</v>
-      </c>
-      <c r="I2" s="36" t="s">
-        <v>597</v>
-      </c>
-      <c r="J2" s="36" t="s">
-        <v>595</v>
-      </c>
-      <c r="K2" s="36" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="76.5" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C3" s="128" t="s">
+        <v>580</v>
+      </c>
+      <c r="D3" s="27" t="s">
         <v>585</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>590</v>
-      </c>
       <c r="E3" s="129" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="F3" s="64" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="G3" s="64" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="H3" s="64" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="I3" s="64" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="J3" s="64" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="K3" s="64" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="L3" s="36" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="M3" t="str">
         <f>D3&amp;$M$1&amp;E3&amp;$M$1&amp;F3&amp;$M$1&amp;G3&amp;$M$1&amp;H3&amp;$M$1&amp;I3&amp;$M$1&amp;J3&amp;$M$1&amp;K3&amp;$M$1&amp;L3</f>
@@ -17461,35 +17497,35 @@
     <row r="4" spans="1:13" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="24" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="E4" s="129" t="str">
         <f>E3</f>
         <v xml:space="preserve">(CH_2O)_x(NH_3)_y(PO_4)_z </v>
       </c>
       <c r="F4" s="64" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="G4" s="64" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="H4" s="64" t="s">
+        <v>597</v>
+      </c>
+      <c r="J4" s="64" t="s">
         <v>602</v>
       </c>
-      <c r="J4" s="64" t="s">
-        <v>607</v>
-      </c>
       <c r="K4" s="64" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="L4" s="36" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="M4" t="str">
         <f>D4&amp;$M$1&amp;E4&amp;$M$1&amp;F4&amp;$M$1&amp;G4&amp;$M$1&amp;H4&amp;$M$1&amp;I4&amp;$M$1&amp;J4&amp;$M$1&amp;K4&amp;$M$1&amp;L4</f>
@@ -17503,38 +17539,38 @@
     <row r="5" spans="1:13" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="22" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C5" s="128" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="E5" s="129" t="str">
         <f t="shared" ref="E5:E11" si="0">E4</f>
         <v xml:space="preserve">(CH_2O)_x(NH_3)_y(PO_4)_z </v>
       </c>
       <c r="F5" s="64" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="G5" s="64" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="H5" s="64" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="I5" s="64" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="J5" s="64" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="K5" s="64" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="L5" s="36" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="M5" t="str">
         <f>D5&amp;$M$1&amp;E5&amp;$M$1&amp;F5&amp;$M$1&amp;G5&amp;$M$1&amp;H5&amp;$M$1&amp;I5&amp;$M$1&amp;J5&amp;$M$1&amp;K5&amp;$M$1&amp;L5</f>
@@ -17548,38 +17584,38 @@
     <row r="6" spans="1:13" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="22" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C6" s="128" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="E6" s="129" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">(CH_2O)_x(NH_3)_y(PO_4)_z </v>
       </c>
       <c r="F6" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="H6" s="64" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="I6" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="J6" s="64" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="K6" s="64" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="L6" s="36" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="M6" t="str">
         <f>D6&amp;$M$1&amp;E6&amp;$M$1&amp;F6&amp;$M$1&amp;G6&amp;$M$1&amp;H6&amp;$M$1&amp;I6&amp;$M$1&amp;J6&amp;$M$1&amp;K6&amp;$M$1&amp;L6</f>
@@ -17593,38 +17629,38 @@
     <row r="7" spans="1:13" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="22" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C7" s="128" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="E7" s="129" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">(CH_2O)_x(NH_3)_y(PO_4)_z </v>
       </c>
       <c r="F7" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="G7" s="64" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="H7" s="64" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="I7" s="64" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="J7" s="64" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="K7" s="64" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="L7" s="36" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="M7" t="str">
         <f>D7&amp;$M$1&amp;E7&amp;$M$1&amp;F7&amp;G7&amp;H7&amp;I7&amp;J7&amp;K7&amp;$M$1&amp;L7</f>
@@ -17638,38 +17674,38 @@
     <row r="8" spans="1:13" ht="106.5" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>90</v>
-      </c>
       <c r="D8" s="27" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="E8" s="129" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">(CH_2O)_x(NH_3)_y(PO_4)_z </v>
       </c>
       <c r="F8" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G8" s="64" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="H8" s="64" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="I8" t="s">
+        <v>615</v>
+      </c>
+      <c r="J8" t="s">
         <v>620</v>
       </c>
-      <c r="J8" t="s">
-        <v>625</v>
-      </c>
       <c r="K8" s="64" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="L8" s="36" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="M8" t="str">
         <f>D8&amp;$M$1&amp;E8&amp;$M$1&amp;F8&amp;$M$1&amp;G8&amp;$M$1&amp;H8&amp;$M$1&amp;I8&amp;$M$1&amp;J8&amp;$M$1&amp;K8&amp;$M$1&amp;L8</f>
@@ -17683,38 +17719,38 @@
     <row r="9" spans="1:13" ht="117.75" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="25" t="s">
-        <v>91</v>
-      </c>
       <c r="D9" s="27" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="E9" s="129" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">(CH_2O)_x(NH_3)_y(PO_4)_z </v>
       </c>
       <c r="F9" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="G9" s="64" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="H9" s="64" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="I9" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="J9" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="K9" s="64" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="L9" s="36" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="M9" t="str">
         <f>D9&amp;$M$1&amp;E9&amp;$M$1&amp;F9&amp;$M$1&amp;G9&amp;$M$1&amp;H9&amp;$M$1&amp;I9&amp;$M$1&amp;J9&amp;$M$1&amp;K9&amp;$M$1&amp;L9</f>
@@ -17728,38 +17764,38 @@
     <row r="10" spans="1:13" ht="111" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>92</v>
-      </c>
       <c r="D10" s="27" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="E10" s="129" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">(CH_2O)_x(NH_3)_y(PO_4)_z </v>
       </c>
       <c r="F10" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="G10" s="64" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="H10" s="64" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="I10" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="J10" s="64" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="K10" s="64" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="L10" s="36" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="M10" t="str">
         <f>D10&amp;$M$1&amp;E10&amp;$M$1&amp;F10&amp;$M$1&amp;G10&amp;$M$1&amp;H10&amp;$M$1&amp;I10&amp;$M$1&amp;J10&amp;$M$1&amp;K10&amp;$M$1&amp;L10</f>
@@ -17772,35 +17808,35 @@
     </row>
     <row r="11" spans="1:13" ht="90.75" x14ac:dyDescent="0.25">
       <c r="B11" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="25" t="s">
-        <v>93</v>
-      </c>
       <c r="D11" s="27" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="E11" s="129" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">(CH_2O)_x(NH_3)_y(PO_4)_z </v>
       </c>
       <c r="G11" s="64" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="H11" s="64" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="I11" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="J11" s="64" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="K11" s="64" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="L11" s="36" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="M11" t="str">
         <f>D11&amp;$M$1&amp;E11&amp;$M$1&amp;F11&amp;$M$1&amp;G11&amp;$M$1&amp;H11&amp;$M$1&amp;I11&amp;$M$1&amp;J11&amp;$M$1&amp;K11&amp;$M$1&amp;L11</f>
@@ -17878,35 +17914,39 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66726729-2F75-49B4-AC61-BA65DC2663E1}">
-  <dimension ref="B2:C11"/>
+  <dimension ref="B2:D11"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="74.5703125" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" customWidth="1"/>
+    <col min="4" max="4" width="74.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="67" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="67" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="str">
         <f>'OMChem (2)'!B3</f>
         <v>Denitrousation</v>
       </c>
-      <c r="C3" t="str">
+      <c r="D3" t="str">
         <f>'OMChem (2)'!M3</f>
         <v>\
 \(\displaystyle
@@ -17915,12 +17955,12 @@
 \</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="str">
         <f>'OMChem (2)'!B4</f>
         <v>Aerobic respiration</v>
       </c>
-      <c r="C4" t="str">
+      <c r="D4" t="str">
         <f>'OMChem (2)'!M4</f>
         <v>\
 \(\displaystyle
@@ -17929,12 +17969,12 @@
 \</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="str">
         <f>'OMChem (2)'!B5</f>
         <v>Denitritation</v>
       </c>
-      <c r="C5" t="str">
+      <c r="D5" t="str">
         <f>'OMChem (2)'!M5</f>
         <v>\
 \(\displaystyle
@@ -17943,12 +17983,12 @@
 \</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="str">
         <f>'OMChem (2)'!B6</f>
         <v>Nitrous denitritation</v>
       </c>
-      <c r="C6" t="str">
+      <c r="D6" t="str">
         <f>'OMChem (2)'!M6</f>
         <v>\
 \(\displaystyle
@@ -17957,12 +17997,12 @@
 \</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="str">
         <f>'OMChem (2)'!B7</f>
         <v>DNRA</v>
       </c>
-      <c r="C7" t="str">
+      <c r="D7" t="str">
         <f>'OMChem (2)'!M7</f>
         <v>\
 \(\displaystyle
@@ -17971,12 +18011,12 @@
 \</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="str">
         <f>'OMChem (2)'!B8</f>
         <v>Mn oxide reduction</v>
       </c>
-      <c r="C8" t="str">
+      <c r="D8" t="str">
         <f>'OMChem (2)'!M8</f>
         <v>\
 \(\displaystyle
@@ -17985,12 +18025,12 @@
 \</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="str">
         <f>'OMChem (2)'!B9</f>
         <v>Fe oxide reduction</v>
       </c>
-      <c r="C9" t="str">
+      <c r="D9" t="str">
         <f>'OMChem (2)'!M9</f>
         <v>\
 \(\displaystyle
@@ -17999,12 +18039,12 @@
 \</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="str">
         <f>'OMChem (2)'!B10</f>
         <v>Sulfate reduction</v>
       </c>
-      <c r="C10" t="str">
+      <c r="D10" t="str">
         <f>'OMChem (2)'!M10</f>
         <v>\
 \(\displaystyle
@@ -18013,12 +18053,12 @@
 \</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="str">
         <f>'OMChem (2)'!B11</f>
         <v>Methanogenesis</v>
       </c>
-      <c r="C11" t="str">
+      <c r="D11" t="str">
         <f>'OMChem (2)'!M11</f>
         <v>\
 \(\displaystyle
